--- a/data/hotels_by_city/Houston/Houston_shard_517.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_517.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223177-Reviews-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn-Suites-NRG-Park-Medical-Center.h17531.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1407 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r571144608-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223177</t>
+  </si>
+  <si>
+    <t>571144608</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Just fine</t>
+  </si>
+  <si>
+    <t>It's an older property, and the wear-and-tear shows. Check-in was fairly quick and easy the room is clean but definitely showing its age it's not the greatest neighborhood in the world but if you need to be closed to the stadiums and the convention center area, this place works</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r568705060-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568705060</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>We stayed there for a week.  The hotel was clean considering that the rodeo was going on at the time. The hotel staff were friendly and helpful.  The rooms are good to stay in and the beds are comfortable. Now, SOME off the other people that were staying at this hotel could use some lessons in manners and respect.  Don’t mean to judge but these folks are probably the same ones giving the low ratings. Me and my family enjoyed the week long stay considering that we were there for medical reasons but I have no complaints about the place or their staff, and their laundry facility on-site helped us out as well. I still need to mention the convenience off the restaurants and stores close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed there for a week.  The hotel was clean considering that the rodeo was going on at the time. The hotel staff were friendly and helpful.  The rooms are good to stay in and the beds are comfortable. Now, SOME off the other people that were staying at this hotel could use some lessons in manners and respect.  Don’t mean to judge but these folks are probably the same ones giving the low ratings. Me and my family enjoyed the week long stay considering that we were there for medical reasons but I have no complaints about the place or their staff, and their laundry facility on-site helped us out as well. I still need to mention the convenience off the restaurants and stores close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r564215838-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564215838</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Livestock show and rodeo </t>
+  </si>
+  <si>
+    <t>We stayed here during our stay for the –Livestock show and rodeo it was conveniently located to iNRG stadium overall room was clean however had a slight aged odor but the bed was good so I slept well; staff was absolutely pleasant and customer service was good; we would stay here next time if we have an event at iNRG</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r518187342-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518187342</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Rated low for no good reason, get a bargain now.</t>
+  </si>
+  <si>
+    <t>This motel is rated at about a 3 and I cannot understand that, but I have to give it a five I would even go higher if I could. I have had to stay at cheaper places because it gets expensive taking care of mom and her cancer and each time I am not staying here then it is a nasty and crime ridden place, like Extended stays and Intown suites. Do not stay at these places they are horrible. Save yourself a headache and stay at Quality Inn where you have security walking the lot and people who want to help you.Yes the rooms are outdated, but it is clean, no bugs, free full breakfast, always hot coffee available, the staff is great and the rooms are huge. The price is unbeatable and there is no bugs, it is comfortable and close to the hospitals as well as anything you need.Overall I have to give it a five star for what you get. Comfort, Security, Price.I mean for under a hundred it's a great deal. This is the third time I have been here and it gets better each time. If you need a special rate for long stays then talk to the sales manager. Kam and the desk clerk actually upgraded me to suite for the same price and it's bigger than my real apartment is.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This motel is rated at about a 3 and I cannot understand that, but I have to give it a five I would even go higher if I could. I have had to stay at cheaper places because it gets expensive taking care of mom and her cancer and each time I am not staying here then it is a nasty and crime ridden place, like Extended stays and Intown suites. Do not stay at these places they are horrible. Save yourself a headache and stay at Quality Inn where you have security walking the lot and people who want to help you.Yes the rooms are outdated, but it is clean, no bugs, free full breakfast, always hot coffee available, the staff is great and the rooms are huge. The price is unbeatable and there is no bugs, it is comfortable and close to the hospitals as well as anything you need.Overall I have to give it a five star for what you get. Comfort, Security, Price.I mean for under a hundred it's a great deal. This is the third time I have been here and it gets better each time. If you need a special rate for long stays then talk to the sales manager. Kam and the desk clerk actually upgraded me to suite for the same price and it's bigger than my real apartment is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r517556832-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517556832</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good position for the NRG Stadium </t>
+  </si>
+  <si>
+    <t>We have some problems with the room (missing rain shower), but the hotel staff promptly offer to us another room. The overall conditions of the structure was good and the breakfast was we expected for the "Quality Inn" franchise. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Naveed K, Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded August 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2017</t>
+  </si>
+  <si>
+    <t>We have some problems with the room (missing rain shower), but the hotel staff promptly offer to us another room. The overall conditions of the structure was good and the breakfast was we expected for the "Quality Inn" franchise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r511453825-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511453825</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Great stay for the price and location</t>
+  </si>
+  <si>
+    <t>Room was clean, breakfast was hot and good (eggs, sausage, waffles) location was great (close to medical center). Only reason for 4/5 stars was one lamp had no light bulb and building C where we was didn't have a locked door. There's a sign saying building is accessed by room key only but it could be opened by anyone at any time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Naveed K, General Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean, breakfast was hot and good (eggs, sausage, waffles) location was great (close to medical center). Only reason for 4/5 stars was one lamp had no light bulb and building C where we was didn't have a locked door. There's a sign saying building is accessed by room key only but it could be opened by anyone at any time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r501923910-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501923910</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Walking Distance to NRG Stadium</t>
+  </si>
+  <si>
+    <t>Have stayed at this location several times while attending games at NRG Stadium.  The location is a short walk to the stadium and allows for quick exit when leaving hotel following a game.  It is an older hotel, so don't expect a whole lot.  My rooms have been clean, but definitely outdated.  All I need is a place to spend 1 night and this location serves that purpose quite well.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Naveed K, General Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Have stayed at this location several times while attending games at NRG Stadium.  The location is a short walk to the stadium and allows for quick exit when leaving hotel following a game.  It is an older hotel, so don't expect a whole lot.  My rooms have been clean, but definitely outdated.  All I need is a place to spend 1 night and this location serves that purpose quite well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r501273756-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501273756</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Okay for price</t>
+  </si>
+  <si>
+    <t>Okay for price, dated and musty with visable bathroom mold.  Bed only has 3 pillows the size of chicken nuggets.  Some sketchy people hanging around, glad you had to have a key to get in. Close to medical center.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r498002293-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498002293</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>OK Inn...</t>
+  </si>
+  <si>
+    <t>I choose this hotel because it was cheapest option in the best location for me. I was planning to visit Downtown area and places near by  and could do it easily by using public transportation (though closest bus stop is about 10 minutes walk). 
+This is 2 start hotel and you shouldn't expect much, but let's be honest ''Quality Inn'' sounds to pretentious for what you will see. They have few buildings, I stayed in building B which is separate from main building (with reception and breakfast area). It looks outdated: walls and ceilings  need some work to be done and carpets need good cleaning. Hallway smells... like old place and a wet dog.  For my surprise first impression about the room wasn't bad at all. Though outdated it still looked clean, it was well aired and has all main things you need in the hotel room. Then I had a second look and noticed some stains on the wall (near trash can), the was a trash in ice bucket. The bath tube looked a bit ''tired'', but bathroom was clean and shower was good.  Though I do kill one cockroach during my stay (i'm not sharing my room).  On the bright side the bed was very comfortable and place was surprisingly quiet (just background noise from outside) and I was able to rest after my day trips.  TV reception was OK, Wi-Fi a bit slow (not too bad). I...I choose this hotel because it was cheapest option in the best location for me. I was planning to visit Downtown area and places near by  and could do it easily by using public transportation (though closest bus stop is about 10 minutes walk). This is 2 start hotel and you shouldn't expect much, but let's be honest ''Quality Inn'' sounds to pretentious for what you will see. They have few buildings, I stayed in building B which is separate from main building (with reception and breakfast area). It looks outdated: walls and ceilings  need some work to be done and carpets need good cleaning. Hallway smells... like old place and a wet dog.  For my surprise first impression about the room wasn't bad at all. Though outdated it still looked clean, it was well aired and has all main things you need in the hotel room. Then I had a second look and noticed some stains on the wall (near trash can), the was a trash in ice bucket. The bath tube looked a bit ''tired'', but bathroom was clean and shower was good.  Though I do kill one cockroach during my stay (i'm not sharing my room).  On the bright side the bed was very comfortable and place was surprisingly quiet (just background noise from outside) and I was able to rest after my day trips.  TV reception was OK, Wi-Fi a bit slow (not too bad). I wish room would have more electric sockets (majority of them were occupied by room appliances). The breakfast was good. I didn't expect much, but it was fresh and enough to start the day. The customer service was OK. I didn't use pool or ''gym'', but they looked OK for me. As  I said hotel location is very good, and they have small shopping / dining area in about 5 mins drive.Overall would I stay here again? For a budget travel definitely yes ( it was cheapest hotel in the area).  Would I recommend it ? If you want to save money and don't need ''fancy'', then yes..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Naveed K, General Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>I choose this hotel because it was cheapest option in the best location for me. I was planning to visit Downtown area and places near by  and could do it easily by using public transportation (though closest bus stop is about 10 minutes walk). 
+This is 2 start hotel and you shouldn't expect much, but let's be honest ''Quality Inn'' sounds to pretentious for what you will see. They have few buildings, I stayed in building B which is separate from main building (with reception and breakfast area). It looks outdated: walls and ceilings  need some work to be done and carpets need good cleaning. Hallway smells... like old place and a wet dog.  For my surprise first impression about the room wasn't bad at all. Though outdated it still looked clean, it was well aired and has all main things you need in the hotel room. Then I had a second look and noticed some stains on the wall (near trash can), the was a trash in ice bucket. The bath tube looked a bit ''tired'', but bathroom was clean and shower was good.  Though I do kill one cockroach during my stay (i'm not sharing my room).  On the bright side the bed was very comfortable and place was surprisingly quiet (just background noise from outside) and I was able to rest after my day trips.  TV reception was OK, Wi-Fi a bit slow (not too bad). I...I choose this hotel because it was cheapest option in the best location for me. I was planning to visit Downtown area and places near by  and could do it easily by using public transportation (though closest bus stop is about 10 minutes walk). This is 2 start hotel and you shouldn't expect much, but let's be honest ''Quality Inn'' sounds to pretentious for what you will see. They have few buildings, I stayed in building B which is separate from main building (with reception and breakfast area). It looks outdated: walls and ceilings  need some work to be done and carpets need good cleaning. Hallway smells... like old place and a wet dog.  For my surprise first impression about the room wasn't bad at all. Though outdated it still looked clean, it was well aired and has all main things you need in the hotel room. Then I had a second look and noticed some stains on the wall (near trash can), the was a trash in ice bucket. The bath tube looked a bit ''tired'', but bathroom was clean and shower was good.  Though I do kill one cockroach during my stay (i'm not sharing my room).  On the bright side the bed was very comfortable and place was surprisingly quiet (just background noise from outside) and I was able to rest after my day trips.  TV reception was OK, Wi-Fi a bit slow (not too bad). I wish room would have more electric sockets (majority of them were occupied by room appliances). The breakfast was good. I didn't expect much, but it was fresh and enough to start the day. The customer service was OK. I didn't use pool or ''gym'', but they looked OK for me. As  I said hotel location is very good, and they have small shopping / dining area in about 5 mins drive.Overall would I stay here again? For a budget travel definitely yes ( it was cheapest hotel in the area).  Would I recommend it ? If you want to save money and don't need ''fancy'', then yes..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r488795825-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488795825</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Pretty good for an older property. I'd stay again.</t>
+  </si>
+  <si>
+    <t>Very nice staff.  Room 225 was clean and smelled fine. Figured out the TV was unplugged..took care of that. Had to smack the remote a couple of times to get it to work. Bed mattress was too firm (hard). Every hotel I have been in lately has a pillow top of some sort on the mattress. This one did not get the memo. It was a wee bit softer than the floor. The bed also had 4 pillows, which was nice but they were all the same firmness. It would have been great if they were each different so I could have found one that worked well.Breakfast had a good variety of food and the food was good. However the breakfast room is way too small and as it has no vent was stuffy as it was crowded. I have know idea how often the conference room is used but I think putting breakfast in there would be a much better option. I joined about 8 other guests eating in there as the breakfast room and lobby was full of others eating already.Nice hotel and I would stay here again...but some small improvements would really make the stay much more enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Very nice staff.  Room 225 was clean and smelled fine. Figured out the TV was unplugged..took care of that. Had to smack the remote a couple of times to get it to work. Bed mattress was too firm (hard). Every hotel I have been in lately has a pillow top of some sort on the mattress. This one did not get the memo. It was a wee bit softer than the floor. The bed also had 4 pillows, which was nice but they were all the same firmness. It would have been great if they were each different so I could have found one that worked well.Breakfast had a good variety of food and the food was good. However the breakfast room is way too small and as it has no vent was stuffy as it was crowded. I have know idea how often the conference room is used but I think putting breakfast in there would be a much better option. I joined about 8 other guests eating in there as the breakfast room and lobby was full of others eating already.Nice hotel and I would stay here again...but some small improvements would really make the stay much more enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r487537084-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487537084</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>UH Graduation for grandson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is an older one,but it was clean and our room was nice.The location was great for the graduation at NRG stadium and for getting food late that night.We would use it again.They offer a free breakfast and we enjoyed it . The staff was quite nice.They also have shuttle service,but it doesn't operate on weekends. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r476174985-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476174985</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Bad Hotel</t>
+  </si>
+  <si>
+    <t>Quality Inn &amp; Suites at 2364 South Loop west Houston Tx 77054  This was one of the worst stays we have ever had at a hotel.  There reservation system required us to select that we needed a crib when we put that there was going to be 5 people in the room (the crib was for my grandson)  When we got to the hotel they did not know anything about a crib and they were not sure if they even had one or where it was.  They were rude and not very understanding at all and said that the cribs are a first come first sereve basis.  We told them that we had made the reservations well in advance and that they should have enough cribs for anyone that reserves one.  The manager made it seem like not having the crib would be a temporary situaion and gave us a room with a hide a bed so that we could put the matress on the floor for my grandson.  This however did not end up being temporary and they didnt get us a crib at any point during our stay.  We suggested that maybe they should go buy another one but they rudely dismissed this idea.  My daughter in law in order to make sure her son stayed safe slept on the matress with him and said it was very uncomfortable and that there were springs sticking out in multiple...Quality Inn &amp; Suites at 2364 South Loop west Houston Tx 77054  This was one of the worst stays we have ever had at a hotel.  There reservation system required us to select that we needed a crib when we put that there was going to be 5 people in the room (the crib was for my grandson)  When we got to the hotel they did not know anything about a crib and they were not sure if they even had one or where it was.  They were rude and not very understanding at all and said that the cribs are a first come first sereve basis.  We told them that we had made the reservations well in advance and that they should have enough cribs for anyone that reserves one.  The manager made it seem like not having the crib would be a temporary situaion and gave us a room with a hide a bed so that we could put the matress on the floor for my grandson.  This however did not end up being temporary and they didnt get us a crib at any point during our stay.  We suggested that maybe they should go buy another one but they rudely dismissed this idea.  My daughter in law in order to make sure her son stayed safe slept on the matress with him and said it was very uncomfortable and that there were springs sticking out in multiple places, so she did not get even one good nights rest.  Another big problem was that when I made the reservations there was nothing to indicate that the parking lot was being resurfaced.  My wife and I both have a handicap and cant walk far, but since the parking lot was being resurfaced we had to walk from infront of the lobby to the furthest building almost the entire time we stayed there.  	There was also a lot of small problems with the room 1. The outlet where the microwave and fridge was had only one working plug so we had to decide between the fridge or the microwave working.2. There was a mud dauber nest in the room.3. The people cleaning the room never replaced the drink cups.4. One of the times the room was cleaned the forgot to give us any wash clothes so we called the desk and a couple hours latter they still had not brought them so my son had to go to the desk and ask for them.5. The bath fan was so loud it was not usable.6. The tv reception was so bad you would think the signal was coming from an old antenna.7. The toilet seat was very lose8. The alarm clock was set to the wrong time and couldnt be fixed because there was something wrong with the buttons on it.9. There was no ani-slip mat or stickers in the tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Quality Inn &amp; Suites at 2364 South Loop west Houston Tx 77054  This was one of the worst stays we have ever had at a hotel.  There reservation system required us to select that we needed a crib when we put that there was going to be 5 people in the room (the crib was for my grandson)  When we got to the hotel they did not know anything about a crib and they were not sure if they even had one or where it was.  They were rude and not very understanding at all and said that the cribs are a first come first sereve basis.  We told them that we had made the reservations well in advance and that they should have enough cribs for anyone that reserves one.  The manager made it seem like not having the crib would be a temporary situaion and gave us a room with a hide a bed so that we could put the matress on the floor for my grandson.  This however did not end up being temporary and they didnt get us a crib at any point during our stay.  We suggested that maybe they should go buy another one but they rudely dismissed this idea.  My daughter in law in order to make sure her son stayed safe slept on the matress with him and said it was very uncomfortable and that there were springs sticking out in multiple...Quality Inn &amp; Suites at 2364 South Loop west Houston Tx 77054  This was one of the worst stays we have ever had at a hotel.  There reservation system required us to select that we needed a crib when we put that there was going to be 5 people in the room (the crib was for my grandson)  When we got to the hotel they did not know anything about a crib and they were not sure if they even had one or where it was.  They were rude and not very understanding at all and said that the cribs are a first come first sereve basis.  We told them that we had made the reservations well in advance and that they should have enough cribs for anyone that reserves one.  The manager made it seem like not having the crib would be a temporary situaion and gave us a room with a hide a bed so that we could put the matress on the floor for my grandson.  This however did not end up being temporary and they didnt get us a crib at any point during our stay.  We suggested that maybe they should go buy another one but they rudely dismissed this idea.  My daughter in law in order to make sure her son stayed safe slept on the matress with him and said it was very uncomfortable and that there were springs sticking out in multiple places, so she did not get even one good nights rest.  Another big problem was that when I made the reservations there was nothing to indicate that the parking lot was being resurfaced.  My wife and I both have a handicap and cant walk far, but since the parking lot was being resurfaced we had to walk from infront of the lobby to the furthest building almost the entire time we stayed there.  	There was also a lot of small problems with the room 1. The outlet where the microwave and fridge was had only one working plug so we had to decide between the fridge or the microwave working.2. There was a mud dauber nest in the room.3. The people cleaning the room never replaced the drink cups.4. One of the times the room was cleaned the forgot to give us any wash clothes so we called the desk and a couple hours latter they still had not brought them so my son had to go to the desk and ask for them.5. The bath fan was so loud it was not usable.6. The tv reception was so bad you would think the signal was coming from an old antenna.7. The toilet seat was very lose8. The alarm clock was set to the wrong time and couldnt be fixed because there was something wrong with the buttons on it.9. There was no ani-slip mat or stickers in the tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r462126502-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462126502</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>The staff is very friendly but the hotel is horrible, we planned to stay here for a medical reason because the next day my mom have an appointment with md anderson because of her cancer ( for a second opinion ) but we leave the hotel, I lost my money it wasnt the fail of the hotel because I reserve with travelocity but they should improve the hotel! the rooms are super old and all the rooms smells like Chlorine with a mix of something akward and the bathroom had hair in the tub so we leave the hotel, my mother have medical issues so she needs a clean hotel. If you are planning to go the texas medical center the location is great very close to the hospitals but the clean of the hotel is terrible, I DONT recommended if you have a medical issue. We got a great deal with hilton galleries hotel , is more far but it was kind of the same price and the hotel was clean and perfect. I hope you can improve the clean of the hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The staff is very friendly but the hotel is horrible, we planned to stay here for a medical reason because the next day my mom have an appointment with md anderson because of her cancer ( for a second opinion ) but we leave the hotel, I lost my money it wasnt the fail of the hotel because I reserve with travelocity but they should improve the hotel! the rooms are super old and all the rooms smells like Chlorine with a mix of something akward and the bathroom had hair in the tub so we leave the hotel, my mother have medical issues so she needs a clean hotel. If you are planning to go the texas medical center the location is great very close to the hospitals but the clean of the hotel is terrible, I DONT recommended if you have a medical issue. We got a great deal with hilton galleries hotel , is more far but it was kind of the same price and the hotel was clean and perfect. I hope you can improve the clean of the hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r458768184-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458768184</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Only reason to stay here is the location</t>
+  </si>
+  <si>
+    <t>So the good news: you can walk to NRG Stadium.  That, in and of itself, is a reason to stay here.  On the other hand, the hotel is pretty much the worst I have ever stayed at.  Bathtub water ran brown for about 30 seconds (before clearing!) when I wanted to take s shower on morning #1.  Speaking of the shower, the shower curtain was broken so the rest of the bathroom got wet.  Lots (and lots) of signs of neglect: peeling paint, general dinginess.  Value may be good on normal weekends, but not when the Super Bowl is in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r450731830-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450731830</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Playoffs game</t>
+  </si>
+  <si>
+    <t>It's just what we needed to go to the game. I wish the employees had name tags so I could name the ones who made it nice. The room had some issues but were just need to sleep in it. The shower in 149 has very weak pressure. the room was nice and warm when we arrived and stay like that for the whole trip it was so cold outside. its not bad for a night or two to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r437268240-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437268240</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Is $69 worth it?</t>
+  </si>
+  <si>
+    <t>You be the judge. Bed sheets clean if you don't mind the love stain on the bed spring skirt. Water pressure in the shower excellent if you don't mind the mold and mildew in and around the handle, the ceiling and along the edge of tub and floor. Since I booked online and got in late I settled. Never again though.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r416435589-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416435589</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Good Bargain</t>
+  </si>
+  <si>
+    <t>Average hotel at a good price. Clean and comfortable plus a filling breakfast. Our stay was quick and tiring but this hotel refreshed us a bunch. Pillows weren't the greatest but the beds were comfy. Only problem was a one person coffee maker for four people.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r410372323-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410372323</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Good hotel, but watch out for the night auditor</t>
+  </si>
+  <si>
+    <t>Needed a place for 1 night and decided on this location. Were we happy we did. The room was wonderful, the staff was great, the breakfast was fresh and tasty. Watch out for john the night auditor, he will talk your ear off lol. will stay there again if in houston.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r395506119-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395506119</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>I've stayed in better Quality Inns</t>
+  </si>
+  <si>
+    <t>We said when we made the reservation that we were driving in and needed a late night check in. We arrived at 1am and the server was doing maintenance so there was no way they could check us in. The front desk guy called his manager who told him to give us a room (we had our email confirmation) but the guy would need to go knock on doors to see if they were occupied because the CPU was down and couldn't tell him. I felt bad for the people getting disturbed at this hour. We finally got a room. But despite prepaying when we made the reservation they needed to run out card and hold the funds until they could verify that in the morning when the system came back up. Good thing we had money. The room was not very clean. There was candy on the floor and a light bulb missing in the lamp etc. They had run out of coffee at the continental breakfast and no one refilled it. We need to come back next week as we are having another medical procedure done but we will be staying elsewhere. I guess it's ok for the money we spent but just not my type of service. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We said when we made the reservation that we were driving in and needed a late night check in. We arrived at 1am and the server was doing maintenance so there was no way they could check us in. The front desk guy called his manager who told him to give us a room (we had our email confirmation) but the guy would need to go knock on doors to see if they were occupied because the CPU was down and couldn't tell him. I felt bad for the people getting disturbed at this hour. We finally got a room. But despite prepaying when we made the reservation they needed to run out card and hold the funds until they could verify that in the morning when the system came back up. Good thing we had money. The room was not very clean. There was candy on the floor and a light bulb missing in the lamp etc. They had run out of coffee at the continental breakfast and no one refilled it. We need to come back next week as we are having another medical procedure done but we will be staying elsewhere. I guess it's ok for the money we spent but just not my type of service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r386756589-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386756589</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Cheap and in a convenient location</t>
+  </si>
+  <si>
+    <t>It's no 5 star hotel but for $60/nt it's a pretty sweet deal. The beds are fair. It was quiet even though next to a hiway. We did not see any bugs in our room. It was clean. Breakfast decent. We had problems with the keys. The outer doors had postings that said key card only but they opened right up. I had seen a person digging in the trash cans but no squatters hanging in the hallway or presenting any problems. Nearby corner always had panhandlers out and about. The pool could use a little tlc, but I imagine it's hard to keep clean in the peak of summer. It's nearby to a lot of things to do for a family. We enjoyed our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>It's no 5 star hotel but for $60/nt it's a pretty sweet deal. The beds are fair. It was quiet even though next to a hiway. We did not see any bugs in our room. It was clean. Breakfast decent. We had problems with the keys. The outer doors had postings that said key card only but they opened right up. I had seen a person digging in the trash cans but no squatters hanging in the hallway or presenting any problems. Nearby corner always had panhandlers out and about. The pool could use a little tlc, but I imagine it's hard to keep clean in the peak of summer. It's nearby to a lot of things to do for a family. We enjoyed our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r384774208-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384774208</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I cannot recommend this place, although the front desk staff was very polite and helpful. The place is just too run down. The carpet is gross, the bathroom was moldy, the doors don't close properly, broken lamps, strong mildew stink...just bad.  It is an easy walk to the NRG stadium though. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r369358947-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369358947</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!!!!</t>
+  </si>
+  <si>
+    <t>I could not be more unsatisfied and upset at the way a hotel has managed themselves like this Quality Inn &amp; Suites in the Medical Center. I would absolutely stay away from this hotel. I do NOT recommend this hotel even if you're on a serious budget.
+Being new to the Houston area, I am here with a family member that is a new cancer patient at MD Anderson. I would like to think that upon explaining this information to the hotel, they would handle the situation with a bit more care. Easy and kind check in - but awful during and end interactions that made me cancel the remaining nights at this hotel.
+PROS:
+- Front desk agent upon checkin on Wednesday, April 14 was kind. Great tone of voice and care in her expressions. Put us in a room on the first floor because she was wary of family member being a cancer patient.
+- Nearby Hospital.
+CONS:
+- 1st room, was DISGUSTING! Smell of dirty clothes and mold. We also found a very large COCKROACH on the wall (see photo attached). Night desk agent accommodated room change.
+- Requested shuttle to hospital but said it was full for 7am. For the first time being there and also with no transportation - no care was made to accommodate transportation, a simple "oh you can call a taxi." (frustrating when we had to book last minute flights and hotels...I could not be more unsatisfied and upset at the way a hotel has managed themselves like this Quality Inn &amp; Suites in the Medical Center. I would absolutely stay away from this hotel. I do NOT recommend this hotel even if you're on a serious budget.Being new to the Houston area, I am here with a family member that is a new cancer patient at MD Anderson. I would like to think that upon explaining this information to the hotel, they would handle the situation with a bit more care. Easy and kind check in - but awful during and end interactions that made me cancel the remaining nights at this hotel.PROS:- Front desk agent upon checkin on Wednesday, April 14 was kind. Great tone of voice and care in her expressions. Put us in a room on the first floor because she was wary of family member being a cancer patient.- Nearby Hospital.CONS:- 1st room, was DISGUSTING! Smell of dirty clothes and mold. We also found a very large COCKROACH on the wall (see photo attached). Night desk agent accommodated room change.- Requested shuttle to hospital but said it was full for 7am. For the first time being there and also with no transportation - no care was made to accommodate transportation, a simple "oh you can call a taxi." (frustrating when we had to book last minute flights and hotels to meet with this doctor.)- Called for a shuttle after said doctors appointment at 2:30pm and by 4:00pm, STILL no shuttle. Called the front desk and they said they were on the way. Frustrated, called an über instead. über arrived at 4:30pm and still no sight of shuttle.- Got back to the room and noticed no housekeeping was done. Being a cancer patient, they advise that your living conditions must be clean and sterile as much as possible in fear of getting sick or infection.- Called front desk to see if we could get housekeeping - front desk said sorry they had no idea why the room didn't get cleaned but they would send up clean linens. We wanted housekeeping to clean the room and also we didn't want to change our own linens.- Left and advised front desk we would leave to go to dinner and do some shopping to return 2.5 hours later to a room that was not cleaned.Got in touch with Naveed, the GM. Upon the initial contact, he was very opened to hearing my concerns and feedback. After that, it was empty promises and lack of communication and complete avoidance of fixing any situation.  After our initial conversation with Naveed, I emailed the documents that he had asked for so he would provide us a reimbursement for the inconvenience.  After 8 days of no reply, I emailed again asking for assistance.  I have been consistently trying to contact Naveed in the meanwhile with no success on contact or returned phone call.  This is only the beginning of this nightmare.I beg you to stay away from this hotel.  Spend the few extra bucks a night at a place where you matter. Thank you Quality Inn and Naveed for making our lives more miserable than it already was dealing with cancer.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I could not be more unsatisfied and upset at the way a hotel has managed themselves like this Quality Inn &amp; Suites in the Medical Center. I would absolutely stay away from this hotel. I do NOT recommend this hotel even if you're on a serious budget.
+Being new to the Houston area, I am here with a family member that is a new cancer patient at MD Anderson. I would like to think that upon explaining this information to the hotel, they would handle the situation with a bit more care. Easy and kind check in - but awful during and end interactions that made me cancel the remaining nights at this hotel.
+PROS:
+- Front desk agent upon checkin on Wednesday, April 14 was kind. Great tone of voice and care in her expressions. Put us in a room on the first floor because she was wary of family member being a cancer patient.
+- Nearby Hospital.
+CONS:
+- 1st room, was DISGUSTING! Smell of dirty clothes and mold. We also found a very large COCKROACH on the wall (see photo attached). Night desk agent accommodated room change.
+- Requested shuttle to hospital but said it was full for 7am. For the first time being there and also with no transportation - no care was made to accommodate transportation, a simple "oh you can call a taxi." (frustrating when we had to book last minute flights and hotels...I could not be more unsatisfied and upset at the way a hotel has managed themselves like this Quality Inn &amp; Suites in the Medical Center. I would absolutely stay away from this hotel. I do NOT recommend this hotel even if you're on a serious budget.Being new to the Houston area, I am here with a family member that is a new cancer patient at MD Anderson. I would like to think that upon explaining this information to the hotel, they would handle the situation with a bit more care. Easy and kind check in - but awful during and end interactions that made me cancel the remaining nights at this hotel.PROS:- Front desk agent upon checkin on Wednesday, April 14 was kind. Great tone of voice and care in her expressions. Put us in a room on the first floor because she was wary of family member being a cancer patient.- Nearby Hospital.CONS:- 1st room, was DISGUSTING! Smell of dirty clothes and mold. We also found a very large COCKROACH on the wall (see photo attached). Night desk agent accommodated room change.- Requested shuttle to hospital but said it was full for 7am. For the first time being there and also with no transportation - no care was made to accommodate transportation, a simple "oh you can call a taxi." (frustrating when we had to book last minute flights and hotels to meet with this doctor.)- Called for a shuttle after said doctors appointment at 2:30pm and by 4:00pm, STILL no shuttle. Called the front desk and they said they were on the way. Frustrated, called an über instead. über arrived at 4:30pm and still no sight of shuttle.- Got back to the room and noticed no housekeeping was done. Being a cancer patient, they advise that your living conditions must be clean and sterile as much as possible in fear of getting sick or infection.- Called front desk to see if we could get housekeeping - front desk said sorry they had no idea why the room didn't get cleaned but they would send up clean linens. We wanted housekeeping to clean the room and also we didn't want to change our own linens.- Left and advised front desk we would leave to go to dinner and do some shopping to return 2.5 hours later to a room that was not cleaned.Got in touch with Naveed, the GM. Upon the initial contact, he was very opened to hearing my concerns and feedback. After that, it was empty promises and lack of communication and complete avoidance of fixing any situation.  After our initial conversation with Naveed, I emailed the documents that he had asked for so he would provide us a reimbursement for the inconvenience.  After 8 days of no reply, I emailed again asking for assistance.  I have been consistently trying to contact Naveed in the meanwhile with no success on contact or returned phone call.  This is only the beginning of this nightmare.I beg you to stay away from this hotel.  Spend the few extra bucks a night at a place where you matter. Thank you Quality Inn and Naveed for making our lives more miserable than it already was dealing with cancer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r354934889-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354934889</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Just an average hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was just average.  No frills and in need of a refresh.  The breakfast was fine and served it's purpose.  The rooms air con unit was noisy and smelled musty.  The car park is very well lit which is a good thing however it shined through our curtain and made the room very bright all night.  The floor of the bath was stained but it was clean. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r354412298-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354412298</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>YUCK!</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel during a trip to the Houston Livestock Show because as a group we needed to reserve several rooms and this was the only hotel that had the number of rooms we needed available on short notice.  We have stayed at several Quality Inns in the past but this one was by far the dirtiest of them all.  There were clumps of hair on the bathroom floor, what looked to be mold on the ceiling and walls, the bathroom faucet was not attached to the sink and there was absolutely no hot water at 10:30 at night.  I would not recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r333606014-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333606014</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Needs maintenance, room size &amp; location is good</t>
+  </si>
+  <si>
+    <t>We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there...We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there was a leak in the room underneath. I said that we were not running any water, because we weren't. He wanted to come in but I would not let him and was backed up by my husband. Then he left. 5 minutes later, the phone rang. My son was still trying to go to sleep with all the interruptions. This time it was the manager asking if we were running water. We said no, we were not other than just having flushed the toilet one time a few minutes prior. After that, there weren't any other interruptions that night. I was not too pleased with the fact that someone knocked, and basically as soon as he finished knocking, tried to OPEN the door with his staff key! Really?? I didn't even know who it was at that point - and with the totally un-secure exterior doors, it didn't feel like a great situation to be in. Another complaint - the room doors have nothing to slow them down from banging super loud when people shut them. Nice. Thankfully I bring earplugs, so I slept OK. There were no washcloths in the room. Not sure what that's about, and we also didn't have any alarm clock. Breakfast is good food-choice wise, but in a very small area with people running into each other while trying to get food and drinks. If they would just open it up more somehow into the lobby, I am sure it would be more pleasant for those trying to eat and get food. We might stay again, due to the discount, but I will probably look around before re-booking this place. Just know what you're getting into.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there...We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there was a leak in the room underneath. I said that we were not running any water, because we weren't. He wanted to come in but I would not let him and was backed up by my husband. Then he left. 5 minutes later, the phone rang. My son was still trying to go to sleep with all the interruptions. This time it was the manager asking if we were running water. We said no, we were not other than just having flushed the toilet one time a few minutes prior. After that, there weren't any other interruptions that night. I was not too pleased with the fact that someone knocked, and basically as soon as he finished knocking, tried to OPEN the door with his staff key! Really?? I didn't even know who it was at that point - and with the totally un-secure exterior doors, it didn't feel like a great situation to be in. Another complaint - the room doors have nothing to slow them down from banging super loud when people shut them. Nice. Thankfully I bring earplugs, so I slept OK. There were no washcloths in the room. Not sure what that's about, and we also didn't have any alarm clock. Breakfast is good food-choice wise, but in a very small area with people running into each other while trying to get food and drinks. If they would just open it up more somehow into the lobby, I am sure it would be more pleasant for those trying to eat and get food. We might stay again, due to the discount, but I will probably look around before re-booking this place. Just know what you're getting into.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r327930617-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327930617</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Worse than usual</t>
+  </si>
+  <si>
+    <t>I am a cancer patient. I stay here often. Just checked in. The cover on the blanket is what I noticed first. Should have NEVER ,been put back on the bed. We all know they don't put clean blankets on beds, right? Well tonight left no doubt. There was a dark spot, like someone set a cookie that had a piece dropped off of it and it hardened on the bed. There were a few more stains on and near it. The floor had small pieces of trash in several areas on the floor. Obviously the room was NOT  vacuumed. The bathroom, there was a large piece of trash (hard to miss) under the sink area near where they put the trash can. The wall close to tub and toilet  had what looked like dried blood drops ( being a nurse....I have seen blood splatter plenty of times) and who knows what else. This hotel is usually at least a two star hotel vs a 3/4/5 star. I would normally say as a customer the service is good, the rooms clean and large, the internet is iffy at times, but overall a decent place to rest. Tonight... I rate the room a negative five and whichever housekeeper had this room was lazy and just straightened the bed and put in new bags. She needs to be let go because she is not representing her company very well. A major Disappointment....I am a cancer patient. I stay here often. Just checked in. The cover on the blanket is what I noticed first. Should have NEVER ,been put back on the bed. We all know they don't put clean blankets on beds, right? Well tonight left no doubt. There was a dark spot, like someone set a cookie that had a piece dropped off of it and it hardened on the bed. There were a few more stains on and near it. The floor had small pieces of trash in several areas on the floor. Obviously the room was NOT  vacuumed. The bathroom, there was a large piece of trash (hard to miss) under the sink area near where they put the trash can. The wall close to tub and toilet  had what looked like dried blood drops ( being a nurse....I have seen blood splatter plenty of times) and who knows what else. This hotel is usually at least a two star hotel vs a 3/4/5 star. I would normally say as a customer the service is good, the rooms clean and large, the internet is iffy at times, but overall a decent place to rest. Tonight... I rate the room a negative five and whichever housekeeper had this room was lazy and just straightened the bed and put in new bags. She needs to be let go because she is not representing her company very well. A major Disappointment. And a rip off of my money. Not sanitary and I just don't know if I can come back. I have stayed here four times so far over the last 9 weeks. I have reservations for January too. Probably. Not.for.long . I have to be careful of germs.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I am a cancer patient. I stay here often. Just checked in. The cover on the blanket is what I noticed first. Should have NEVER ,been put back on the bed. We all know they don't put clean blankets on beds, right? Well tonight left no doubt. There was a dark spot, like someone set a cookie that had a piece dropped off of it and it hardened on the bed. There were a few more stains on and near it. The floor had small pieces of trash in several areas on the floor. Obviously the room was NOT  vacuumed. The bathroom, there was a large piece of trash (hard to miss) under the sink area near where they put the trash can. The wall close to tub and toilet  had what looked like dried blood drops ( being a nurse....I have seen blood splatter plenty of times) and who knows what else. This hotel is usually at least a two star hotel vs a 3/4/5 star. I would normally say as a customer the service is good, the rooms clean and large, the internet is iffy at times, but overall a decent place to rest. Tonight... I rate the room a negative five and whichever housekeeper had this room was lazy and just straightened the bed and put in new bags. She needs to be let go because she is not representing her company very well. A major Disappointment....I am a cancer patient. I stay here often. Just checked in. The cover on the blanket is what I noticed first. Should have NEVER ,been put back on the bed. We all know they don't put clean blankets on beds, right? Well tonight left no doubt. There was a dark spot, like someone set a cookie that had a piece dropped off of it and it hardened on the bed. There were a few more stains on and near it. The floor had small pieces of trash in several areas on the floor. Obviously the room was NOT  vacuumed. The bathroom, there was a large piece of trash (hard to miss) under the sink area near where they put the trash can. The wall close to tub and toilet  had what looked like dried blood drops ( being a nurse....I have seen blood splatter plenty of times) and who knows what else. This hotel is usually at least a two star hotel vs a 3/4/5 star. I would normally say as a customer the service is good, the rooms clean and large, the internet is iffy at times, but overall a decent place to rest. Tonight... I rate the room a negative five and whichever housekeeper had this room was lazy and just straightened the bed and put in new bags. She needs to be let go because she is not representing her company very well. A major Disappointment. And a rip off of my money. Not sanitary and I just don't know if I can come back. I have stayed here four times so far over the last 9 weeks. I have reservations for January too. Probably. Not.for.long . I have to be careful of germs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r327926742-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327926742</t>
+  </si>
+  <si>
+    <t>Very nice and very friendly</t>
+  </si>
+  <si>
+    <t>The hotel staff is great!!!! The room was big and quiet.  The breakfast was ver good.  The staff was always very eager to help you out.  I would definitely stay here again.  We felt very safe here.  We were doing a show at the NRG center.  The location is very close by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r320533371-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320533371</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>A bit noisy from the 610 - but short walk to NRG</t>
+  </si>
+  <si>
+    <t>The place is a bit older and the windows don't close tight so the noise from the highway is noticeable even if you run the AC. The rooms are old but clean as are the bathrooms. The water trickles out and for showers, it can take some time to wash all the soap off! The gym has a treadmill and an elliptical walker as well as some fixed exercise gear. You need to be creative to do a good workout. Breakfast is as usual with eggs, sausage paddies and fruits (banana, apples, oranges)/yogurt (for me) as well as all the other items with sugar (waffles, cereals, juices, etc). Nothing fancy but again quite nice and you can get full. Overall, staff is friendly and helpful but I woke up a few times because of the traffic noise. However, it is within a short walking distance to NRG and hence quite convenient, with some restaurants just nearby (as is the Main Street with many shops and restaurants).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The place is a bit older and the windows don't close tight so the noise from the highway is noticeable even if you run the AC. The rooms are old but clean as are the bathrooms. The water trickles out and for showers, it can take some time to wash all the soap off! The gym has a treadmill and an elliptical walker as well as some fixed exercise gear. You need to be creative to do a good workout. Breakfast is as usual with eggs, sausage paddies and fruits (banana, apples, oranges)/yogurt (for me) as well as all the other items with sugar (waffles, cereals, juices, etc). Nothing fancy but again quite nice and you can get full. Overall, staff is friendly and helpful but I woke up a few times because of the traffic noise. However, it is within a short walking distance to NRG and hence quite convenient, with some restaurants just nearby (as is the Main Street with many shops and restaurants).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r318798773-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318798773</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Location yes, quality no...</t>
+  </si>
+  <si>
+    <t>We booked the hotel for a Texans game due to it's location, and the value was good.  Unfortunately the rooms need serious upgrading and the air con sounded like a Mac Truck.The walls were marked and there was unpainted plaster repair in many locations. The shower rod was coming off the wall, the furniture is in rough shape, and the bedding was poor (the pillows were square stuffed fabric inside a pillow case.  Good for prisons, not for paying guests). Hard to accept the "Quality" in the name, and a significant drop in standards from the other Choice properties we have stayed at. If it hadn't been for the location and rate, we would have left. MoreShow less</t>
+  </si>
+  <si>
+    <t>Naveed K, General Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>We booked the hotel for a Texans game due to it's location, and the value was good.  Unfortunately the rooms need serious upgrading and the air con sounded like a Mac Truck.The walls were marked and there was unpainted plaster repair in many locations. The shower rod was coming off the wall, the furniture is in rough shape, and the bedding was poor (the pillows were square stuffed fabric inside a pillow case.  Good for prisons, not for paying guests). Hard to accept the "Quality" in the name, and a significant drop in standards from the other Choice properties we have stayed at. If it hadn't been for the location and rate, we would have left. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r311278083-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311278083</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Decent place for med center stays</t>
+  </si>
+  <si>
+    <t>They offer a good medical rate and free shuttle to the med center and nearby locations, which is great. The hotel itself is what I would expect for the price. Furnishings are fine, but there are stains and scratches on the walls and obvious signs of water damage and maybe mold in the bathroom. The room smells musty and there was a strong scent of chlorine in the room although it's not close to the pool. The air conditioner in the room is really loud. The free breakfast is standard and the staff seem nice. If we need to come back to the hospital again, we'll likely stay here because of the great rates. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>They offer a good medical rate and free shuttle to the med center and nearby locations, which is great. The hotel itself is what I would expect for the price. Furnishings are fine, but there are stains and scratches on the walls and obvious signs of water damage and maybe mold in the bathroom. The room smells musty and there was a strong scent of chlorine in the room although it's not close to the pool. The air conditioner in the room is really loud. The free breakfast is standard and the staff seem nice. If we need to come back to the hospital again, we'll likely stay here because of the great rates. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r262169004-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262169004</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>close to the stadium</t>
+  </si>
+  <si>
+    <t>Chose this place because it was really close to the texans stadium, and price wasnt high at all. You can get to the stadium walking in less than 10 minutes, and you get to avoid the parking fee. consider it if this is your only plan in Houston,nothing else around.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r260645238-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260645238</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Avoid this place</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to the stadium. That is the ONLY good thing about this place. Our room was disgusting. There was mold all over the ceiling in the bathroom, dirt all over the tracks of what once was sliding glass doors to the outside of the hotel that are now screwed shut. The paint in the rooms and hallways was dirty and scuffed. I had reserved a rollaway mattress when I booked at an extra charge, but when I called the front desk was told they no longer had any available. I can take older hotels, but this one was dirty and poorly cared for.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to the stadium. That is the ONLY good thing about this place. Our room was disgusting. There was mold all over the ceiling in the bathroom, dirt all over the tracks of what once was sliding glass doors to the outside of the hotel that are now screwed shut. The paint in the rooms and hallways was dirty and scuffed. I had reserved a rollaway mattress when I booked at an extra charge, but when I called the front desk was told they no longer had any available. I can take older hotels, but this one was dirty and poorly cared for.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r259244085-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259244085</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>intrepid traveller</t>
+  </si>
+  <si>
+    <t>My first choice for long-term medical stay in Houston in budget accommodation.  Staff wonderful.  Free shuttle to and from medical facilities (also to grocery store and other near-by points if requested)worked like clock-work.  Hot breakfast! Small but inviting lobby. Medical discount available from Day 1.  Rooms thoroughly cleaned.  Very reasonable rates.  The only hitch is "plant." --necessity for reconfiguring your key card; low water pressure in bathroom sinks, no good light over table where one would put computer etc.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r251138566-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251138566</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Supposed to be non smoking room but you could smell smoke from the hallway as soon as the door was opened.Saw an employee crossing parking lot packing heat. I know Texas is an open carry state but it tends to make guests uneasy if the employees don't even feel safe there.We still checked out the room. The tub had hair in the drain, blood stains on the covers so we asked for and received another room.Much better but still felt dirty. Stayed one night then went elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r246737840-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246737840</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>What I expected.</t>
+  </si>
+  <si>
+    <t>Went here with my son for one night after a game at NH stadium.   
+First of all,  great location for this,  about a 10 minute walk to the stadium.  Sidewalks available the whole way.  So exactly what I wanted there. 
+As for the hotel.  It is a bit older and dated. Could certainly use a facelift, and updating. It was clean however, just due for new carpet, fixtures, tile, etc.  Check in was quick, and pleassnt enough. The beds are firm but comfortable. A.C. worked fine.   Water pressure was a bit low,  but serviceable. There was no T.V. remote in my room,  I called for one,  never came before I left for game,  wasn't there on my return.  No biggie as I wasn't in room much anyway,  and my phone had a remote app. I used. I saw no vending machines in my building,  had to walk to main building.  The room doors tended to slam shut,  and if others in hotel aren't attentive to this,  you will hear slamming doors in your room.  Other than that,  and few people celebrating late after the game,  it was quiet. 
+Overall it was what I expected for the price and location. And like I said,  if your going to something at NRG and don't want to pay for parking or hassles of traffic,  the location is great. 
+I had no major issues or concerns,  and would stay again if going to another...Went here with my son for one night after a game at NH stadium.   First of all,  great location for this,  about a 10 minute walk to the stadium.  Sidewalks available the whole way.  So exactly what I wanted there. As for the hotel.  It is a bit older and dated. Could certainly use a facelift, and updating. It was clean however, just due for new carpet, fixtures, tile, etc.  Check in was quick, and pleassnt enough. The beds are firm but comfortable. A.C. worked fine.   Water pressure was a bit low,  but serviceable. There was no T.V. remote in my room,  I called for one,  never came before I left for game,  wasn't there on my return.  No biggie as I wasn't in room much anyway,  and my phone had a remote app. I used. I saw no vending machines in my building,  had to walk to main building.  The room doors tended to slam shut,  and if others in hotel aren't attentive to this,  you will hear slamming doors in your room.  Other than that,  and few people celebrating late after the game,  it was quiet. Overall it was what I expected for the price and location. And like I said,  if your going to something at NRG and don't want to pay for parking or hassles of traffic,  the location is great. I had no major issues or concerns,  and would stay again if going to another event. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Went here with my son for one night after a game at NH stadium.   
+First of all,  great location for this,  about a 10 minute walk to the stadium.  Sidewalks available the whole way.  So exactly what I wanted there. 
+As for the hotel.  It is a bit older and dated. Could certainly use a facelift, and updating. It was clean however, just due for new carpet, fixtures, tile, etc.  Check in was quick, and pleassnt enough. The beds are firm but comfortable. A.C. worked fine.   Water pressure was a bit low,  but serviceable. There was no T.V. remote in my room,  I called for one,  never came before I left for game,  wasn't there on my return.  No biggie as I wasn't in room much anyway,  and my phone had a remote app. I used. I saw no vending machines in my building,  had to walk to main building.  The room doors tended to slam shut,  and if others in hotel aren't attentive to this,  you will hear slamming doors in your room.  Other than that,  and few people celebrating late after the game,  it was quiet. 
+Overall it was what I expected for the price and location. And like I said,  if your going to something at NRG and don't want to pay for parking or hassles of traffic,  the location is great. 
+I had no major issues or concerns,  and would stay again if going to another...Went here with my son for one night after a game at NH stadium.   First of all,  great location for this,  about a 10 minute walk to the stadium.  Sidewalks available the whole way.  So exactly what I wanted there. As for the hotel.  It is a bit older and dated. Could certainly use a facelift, and updating. It was clean however, just due for new carpet, fixtures, tile, etc.  Check in was quick, and pleassnt enough. The beds are firm but comfortable. A.C. worked fine.   Water pressure was a bit low,  but serviceable. There was no T.V. remote in my room,  I called for one,  never came before I left for game,  wasn't there on my return.  No biggie as I wasn't in room much anyway,  and my phone had a remote app. I used. I saw no vending machines in my building,  had to walk to main building.  The room doors tended to slam shut,  and if others in hotel aren't attentive to this,  you will hear slamming doors in your room.  Other than that,  and few people celebrating late after the game,  it was quiet. Overall it was what I expected for the price and location. And like I said,  if your going to something at NRG and don't want to pay for parking or hassles of traffic,  the location is great. I had no major issues or concerns,  and would stay again if going to another event. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r231121626-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231121626</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>My other reviews never appear here.--BAD BAD PLACE</t>
+  </si>
+  <si>
+    <t>This is a nasty motel and all the positive reviews have got to be bogus!!  The carpets in the hall and in the rooms are beyond nasty.  They had bugs both times  The bedding is burned and stained.  I called the maid into the room to look at the bathroom floor.  There was urine and pubic hairs on the floor in front of the commode.  I showed her blood on the bedskirt and she kept saying in SPANISH that it was only a stain.  She brought  DIRTY mop with a towel around it to wipe AROUND the urine.  The entry ways into the back buildings are stained and dirty.  Do not believe any positive review you read here.  The lobby is nice, that is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This is a nasty motel and all the positive reviews have got to be bogus!!  The carpets in the hall and in the rooms are beyond nasty.  They had bugs both times  The bedding is burned and stained.  I called the maid into the room to look at the bathroom floor.  There was urine and pubic hairs on the floor in front of the commode.  I showed her blood on the bedskirt and she kept saying in SPANISH that it was only a stain.  She brought  DIRTY mop with a towel around it to wipe AROUND the urine.  The entry ways into the back buildings are stained and dirty.  Do not believe any positive review you read here.  The lobby is nice, that is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r224925173-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224925173</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Convenient, Clean and Basic</t>
+  </si>
+  <si>
+    <t>The grounds and room were clean and tidy and the room was adequate and convenient for our stay visiting a friend in a medical facility. Plenty of clean, fluffy towels and a comfortable room with a flat screen TV, coffee pot, microwave, mini fridge and toiletries.  The breakfast room was very busy, but there was overflow seating across the hall. The breakfast was very basic. There's also a restaurant with takeout just outside the property. WiFi available in the lobby as well as 2 terminals for internet searching and printing boarding passes. For as full as the hotel was, there was plenty of parking. Easy access to the highway and lots of restaurants in the area. Houston in August is hot and humid, but the air conditioning was powerful and no bugs were encountered; a faint odor of bug spray was evident throughout the property.  Having lived in Houston, we know that's a necessary evil!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>The grounds and room were clean and tidy and the room was adequate and convenient for our stay visiting a friend in a medical facility. Plenty of clean, fluffy towels and a comfortable room with a flat screen TV, coffee pot, microwave, mini fridge and toiletries.  The breakfast room was very busy, but there was overflow seating across the hall. The breakfast was very basic. There's also a restaurant with takeout just outside the property. WiFi available in the lobby as well as 2 terminals for internet searching and printing boarding passes. For as full as the hotel was, there was plenty of parking. Easy access to the highway and lots of restaurants in the area. Houston in August is hot and humid, but the air conditioning was powerful and no bugs were encountered; a faint odor of bug spray was evident throughout the property.  Having lived in Houston, we know that's a necessary evil!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r221380011-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221380011</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Don't let them fool you!</t>
+  </si>
+  <si>
+    <t>We were deceived by the photos and description. Not only is it not what the photo show (photo  of lobby), but it’s dirty, outdated and the staff needs to be fired. We were put at the end of the property, the room seemed liked nobody had stayed in it for a long time, smelled bad, dirty, pillows had burned marks on them and the dresser draws had some red sticky stains in them! No pillows or sheets for the pull-out bed and had to wait 30 mins for them to bring the linens. Wouldn’t recommend it to anyone.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r200345235-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200345235</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Easy walk to Reliant Stadium</t>
+  </si>
+  <si>
+    <t>Our primary reason for staying here was the ability to walk to Reliant Stadium. It's a 5-10 minute walk away if you're walking in a slow-moving crowd that has just exited the stadium.Room was relatively clean. I killed a large bug in the bathroom when we arrived but the bug may have entered the room after housecleaning was there. The Kleenex box was stuck to the counter...which was odd. We never determined if it was Kleenex-theft-proofing or stuck down with something icky.Breakfast was a nice, simple continental breakfast with some hot items (eggs, waffle maker) and your average cold items (muffins, yogurt, etc).</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r195560031-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195560031</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Terrible Cancellation Policy</t>
+  </si>
+  <si>
+    <t>Don't make any reservations at this hotel unless you know for sure you will be staying. They require a minimum 10 day notification to cancel a reservation. If you do not cancel before the 10 days out you will be charged one night stay. I would rather pay my bank a small fee instead of paying $150 for a room I'm not staying in. This place sucks. I will not at any time in the future make another reservation at his hotel.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r194423413-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194423413</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Convenient to Texas Medical Cente</t>
+  </si>
+  <si>
+    <t>We spent one night before the appointment at M D Anderson hospital.  The room was spacious, bath room was nice, very clean, beds comfortable.  Flat sceen TV, micro/fridge.  Breakfast adequate, rolls, waffles, , toast, boiled eggs, cereal, oatmeal, apple and orange juice, etc.  The hospital was very east to get to.  When leaving the motel, one must turn right since it's on the feeder road of Loop 610,  go to Hearth St., right on it to next street.  Turn right  and go to Kirby.  Left on Kirby to Old Spanish Trail, right to Fannin, left on Fannin to Holcombe, right on Holcombe, continue to MD Anderson St., left turn into parking garage.  Hope this review helps someone else ...MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent one night before the appointment at M D Anderson hospital.  The room was spacious, bath room was nice, very clean, beds comfortable.  Flat sceen TV, micro/fridge.  Breakfast adequate, rolls, waffles, , toast, boiled eggs, cereal, oatmeal, apple and orange juice, etc.  The hospital was very east to get to.  When leaving the motel, one must turn right since it's on the feeder road of Loop 610,  go to Hearth St., right on it to next street.  Turn right  and go to Kirby.  Left on Kirby to Old Spanish Trail, right to Fannin, left on Fannin to Holcombe, right on Holcombe, continue to MD Anderson St., left turn into parking garage.  Hope this review helps someone else ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r192987129-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192987129</t>
+  </si>
+  <si>
+    <t>02/03/2014</t>
+  </si>
+  <si>
+    <t>Beyond AWFUL!!!!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at this hotel this past weekend and our stay was beyond AWFUL!!!
+First we were assigned to Room 206.  I've attached a picture of the showerhead in that room.  It's beyond gross!!!  Plus the room just had a funny smell to it.
+After several attempts we were finally moved to another room - #152.  We had to leave immediately afterwards for a prior engagement and when we returned neither of the door keys would work.  We walked all the way back to the front desk, had them rescanned and walked all the way back to the room.  Guess what??!!??  They still didn't work!!!  
+While I was trying the second set of keys the lady across the hallway opened her door and noticing my troubles asked if we had been give that room too.  When I asked what she meant by "too" she said that they had given that room to someone in her group but upon opening the door they saw a bunch of luggage in the room and closed the door.  I told her that was my luggage and I appreciated her telling me this.
+Needless to say by the time I got back to the front desk AGAIN with my non-working keys I was beyond pissed.  The desk clerk looked at me like I was crazy and didn't know what I was talking about.  He offered to move us AGAIN but by that...My daughter and I stayed at this hotel this past weekend and our stay was beyond AWFUL!!!First we were assigned to Room 206.  I've attached a picture of the showerhead in that room.  It's beyond gross!!!  Plus the room just had a funny smell to it.After several attempts we were finally moved to another room - #152.  We had to leave immediately afterwards for a prior engagement and when we returned neither of the door keys would work.  We walked all the way back to the front desk, had them rescanned and walked all the way back to the room.  Guess what??!!??  They still didn't work!!!  While I was trying the second set of keys the lady across the hallway opened her door and noticing my troubles asked if we had been give that room too.  When I asked what she meant by "too" she said that they had given that room to someone in her group but upon opening the door they saw a bunch of luggage in the room and closed the door.  I told her that was my luggage and I appreciated her telling me this.Needless to say by the time I got back to the front desk AGAIN with my non-working keys I was beyond pissed.  The desk clerk looked at me like I was crazy and didn't know what I was talking about.  He offered to move us AGAIN but by that time we were tired and just wanted to go to sleep.The rooms at this hotel are old and dated.  The bathroom fixtures are horrible and it took a good five minutes for us to get hot water in the bathroom sink.  Overall it was a horrible experience and I will never stay at this hotel again and I would definitely never recommend it to anyone!!I gave it a rating of one only because I can't give a negative number!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at this hotel this past weekend and our stay was beyond AWFUL!!!
+First we were assigned to Room 206.  I've attached a picture of the showerhead in that room.  It's beyond gross!!!  Plus the room just had a funny smell to it.
+After several attempts we were finally moved to another room - #152.  We had to leave immediately afterwards for a prior engagement and when we returned neither of the door keys would work.  We walked all the way back to the front desk, had them rescanned and walked all the way back to the room.  Guess what??!!??  They still didn't work!!!  
+While I was trying the second set of keys the lady across the hallway opened her door and noticing my troubles asked if we had been give that room too.  When I asked what she meant by "too" she said that they had given that room to someone in her group but upon opening the door they saw a bunch of luggage in the room and closed the door.  I told her that was my luggage and I appreciated her telling me this.
+Needless to say by the time I got back to the front desk AGAIN with my non-working keys I was beyond pissed.  The desk clerk looked at me like I was crazy and didn't know what I was talking about.  He offered to move us AGAIN but by that...My daughter and I stayed at this hotel this past weekend and our stay was beyond AWFUL!!!First we were assigned to Room 206.  I've attached a picture of the showerhead in that room.  It's beyond gross!!!  Plus the room just had a funny smell to it.After several attempts we were finally moved to another room - #152.  We had to leave immediately afterwards for a prior engagement and when we returned neither of the door keys would work.  We walked all the way back to the front desk, had them rescanned and walked all the way back to the room.  Guess what??!!??  They still didn't work!!!  While I was trying the second set of keys the lady across the hallway opened her door and noticing my troubles asked if we had been give that room too.  When I asked what she meant by "too" she said that they had given that room to someone in her group but upon opening the door they saw a bunch of luggage in the room and closed the door.  I told her that was my luggage and I appreciated her telling me this.Needless to say by the time I got back to the front desk AGAIN with my non-working keys I was beyond pissed.  The desk clerk looked at me like I was crazy and didn't know what I was talking about.  He offered to move us AGAIN but by that time we were tired and just wanted to go to sleep.The rooms at this hotel are old and dated.  The bathroom fixtures are horrible and it took a good five minutes for us to get hot water in the bathroom sink.  Overall it was a horrible experience and I will never stay at this hotel again and I would definitely never recommend it to anyone!!I gave it a rating of one only because I can't give a negative number!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r182410258-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182410258</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>Note:  I did get a free suite upgrade here so my review may be a bit prejudiced.  That being said, I thought the rooms here were a good value, and the free breakfast quite good, which included sausage, waffles, and eggs.  I do wish there were more vending machines - the only one is by the front check in desk - but that's a minor quibble and there were plenty of ice machines.  My suite was basically two rooms joined together with one the living room and the other the bedroom with two queen beds.  The living room had a pull out bed/couch.  Each room had its own bathroom which was nice when my sister needed a place to stay.  Housekeeping seemed good, rooms were a bit dated but fine, and there was a balcony also (albeit without any furniture.)   It would have been nice if the pool area had a hot tub but that's not a huge deal.  Bonus if you're in town for a football game:  walking distance to Reliant stadium so you can save on parking.  If you're going to the medical district the motel has a free shuttle that runs hourly which I used and enjoyed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Note:  I did get a free suite upgrade here so my review may be a bit prejudiced.  That being said, I thought the rooms here were a good value, and the free breakfast quite good, which included sausage, waffles, and eggs.  I do wish there were more vending machines - the only one is by the front check in desk - but that's a minor quibble and there were plenty of ice machines.  My suite was basically two rooms joined together with one the living room and the other the bedroom with two queen beds.  The living room had a pull out bed/couch.  Each room had its own bathroom which was nice when my sister needed a place to stay.  Housekeeping seemed good, rooms were a bit dated but fine, and there was a balcony also (albeit without any furniture.)   It would have been nice if the pool area had a hot tub but that's not a huge deal.  Bonus if you're in town for a football game:  walking distance to Reliant stadium so you can save on parking.  If you're going to the medical district the motel has a free shuttle that runs hourly which I used and enjoyed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r181429735-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181429735</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>If you like to sleep with the cockroaches, this is your place. Both My coworker and I had cockroaches in our rooms. Building is worn and ready for a huge update, maybe even a bulldozer.The prices are outrageous for the "quality" you do not recieve. The people working the counter were not professional, sloppy dressers and seemed very unhappy to be there. I was certainly not asked how my stay was when I checked out. I believe they already know thus the reason they do not ask.I do not have experience with the other hotels in the area but if you are visiting the Reliant Center or dome I would definitely try one of the others.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>If you like to sleep with the cockroaches, this is your place. Both My coworker and I had cockroaches in our rooms. Building is worn and ready for a huge update, maybe even a bulldozer.The prices are outrageous for the "quality" you do not recieve. The people working the counter were not professional, sloppy dressers and seemed very unhappy to be there. I was certainly not asked how my stay was when I checked out. I believe they already know thus the reason they do not ask.I do not have experience with the other hotels in the area but if you are visiting the Reliant Center or dome I would definitely try one of the others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r177962748-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177962748</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>Conveniently located to the Reliant Center and the 610 loop.</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located to the Reliant Center and to I-610. I was pleasantly surprised to find out that they had a shuttle to the Reliant Center. I was not expecting that. The Reliant Center is within walking distance but when it's 95 degrees outside, it's nice to get a ride. Plus it will save you the cost of parking if you take the shuttle. This is a modest hotel  with few bells and whistles but the rooms are clean, the beds are comfortable, the price is good, and you get a continental breakfast with your stay. I would stay here again if I was in Houston for a game at the Reliant Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located to the Reliant Center and to I-610. I was pleasantly surprised to find out that they had a shuttle to the Reliant Center. I was not expecting that. The Reliant Center is within walking distance but when it's 95 degrees outside, it's nice to get a ride. Plus it will save you the cost of parking if you take the shuttle. This is a modest hotel  with few bells and whistles but the rooms are clean, the beds are comfortable, the price is good, and you get a continental breakfast with your stay. I would stay here again if I was in Houston for a game at the Reliant Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r170783520-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170783520</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>It was a good value &amp; convenient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We only stayed one night. I had an apnt. at the medical center. There was a convention in Houston that week &amp; a lot of hotels were booked. This is an older motel that had been renovated it had nice shady oak trees in the parking lot &amp; the rooms were ok but nice they even let us check in 1.5 hrs. early. The price wasn't bad either. It had shuttle to the medical but we drove it took under 5 minutes to get there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r170284261-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170284261</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>I was there for a medical trip and I enjoyed the peace and quiet and the room was great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a balcony with a lovely view of a water fountain in the complex behind us. The breakfast was great and the staff, shuttle to MD Anderson was wonderful! We will definitely stay here on our next visit to Houston! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r170194997-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170194997</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>I am staying here right now.  There are two pieces of cardio equipment in the "gym" and neither one of them work.  Their "shuttle" left me stranded at a restaurant and I had to walk through a bad neighborhood to get back to the hotel.  I just returned from a day out at 3:00 p.m. and my room hasn't been cleaned yet.  It's smelly here like they're trying to cover up something nasty with too much air freshener.  I've never written a bad review of a hotel before but this place is just nasty.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r165471114-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165471114</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>The Front Desk Could Be Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The night person did not give the morning person my request for a wake-up call. The door did not close without pulling very hard or slamming it. When I stopped at the front desk I waited for over 7 minutes and there were customers information, printouts, laying on the counter in plain sight. There was no way to indicate that I was waiting. Other than that, it was quiet and a good deal. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r165468499-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165468499</t>
+  </si>
+  <si>
+    <t>A  rated "D" stay</t>
+  </si>
+  <si>
+    <t>My family stayed for almost a week in this hotel. Rate is very reasonable but the front desk service is not that good. As I arrived to check-in, a customer was complaining about the clogged toilet and was requesting that a plunger be sent to his room. The hotel employee told the customer that he's by himself at that time and no one would be able to bring the plunger. After two days of stay, I had a similar problem Called up the front desk if there's an available plunger and was told by the employee that he will bring it to the room. Waited for several hours, no one came. Made a phone call and offered that I pick it up myself even though it would look awkward because we were staying at building "D." But I don't mind doing it since the plunger is needed so badly. Again the employee offered to bring it himself. Waited again for a couple of hours and no one showed up with a plunger. In the hallway, there are cobwebs in the ceiling and a cockroach by the wall.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My family stayed for almost a week in this hotel. Rate is very reasonable but the front desk service is not that good. As I arrived to check-in, a customer was complaining about the clogged toilet and was requesting that a plunger be sent to his room. The hotel employee told the customer that he's by himself at that time and no one would be able to bring the plunger. After two days of stay, I had a similar problem Called up the front desk if there's an available plunger and was told by the employee that he will bring it to the room. Waited for several hours, no one came. Made a phone call and offered that I pick it up myself even though it would look awkward because we were staying at building "D." But I don't mind doing it since the plunger is needed so badly. Again the employee offered to bring it himself. Waited again for a couple of hours and no one showed up with a plunger. In the hallway, there are cobwebs in the ceiling and a cockroach by the wall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r165461899-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165461899</t>
+  </si>
+  <si>
+    <t>Don't count on WiFi, but cockroaches</t>
+  </si>
+  <si>
+    <t>Attending MD Anderson, and taking advantage of a Choice Hotels "Stay 2 times, get a 50$ gift card" offer I canceled my reservation at the Mainstay Suites, and stayed at this Quality Inn.   People would never believe these belong to the same chain.
+After arriving I tried to get on their WiFi, but could not get to their service providers "accept" screen.   I called the front desk, and she had a representative of their service provider call me to help me log in.  She said she had someone else with the same problem.
+ I soon received a call from their provider, and it was obvious they were talking over a very poor quality computer system, and was in India.   The lady I was talking with could hardly be understood from her strong accent, and breaking up phone line.   She said she would contact me back, and I never again heard from her.   Wanting to verify it was not my problem I took my laptop to McDonald's, and was able to connect there fine.
+Checking out the mattress it was very marginal, and in need of replacement.   The room was clean, and had a very strong Lysol, or some other cleaner odor.   The bathroom was clean, and the 1 1/2" cockroach that ran across the floor was easily seen.
+Checking out the next morning I was not asked the normal question "How was your stay", or even got a smile from...Attending MD Anderson, and taking advantage of a Choice Hotels "Stay 2 times, get a 50$ gift card" offer I canceled my reservation at the Mainstay Suites, and stayed at this Quality Inn.   People would never believe these belong to the same chain.After arriving I tried to get on their WiFi, but could not get to their service providers "accept" screen.   I called the front desk, and she had a representative of their service provider call me to help me log in.  She said she had someone else with the same problem. I soon received a call from their provider, and it was obvious they were talking over a very poor quality computer system, and was in India.   The lady I was talking with could hardly be understood from her strong accent, and breaking up phone line.   She said she would contact me back, and I never again heard from her.   Wanting to verify it was not my problem I took my laptop to McDonald's, and was able to connect there fine.Checking out the mattress it was very marginal, and in need of replacement.   The room was clean, and had a very strong Lysol, or some other cleaner odor.   The bathroom was clean, and the 1 1/2" cockroach that ran across the floor was easily seen.Checking out the next morning I was not asked the normal question "How was your stay", or even got a smile from the young lady at the desk.   She probably is afraid to ask guests.I am booked again next month at this facility, but I will be canceling it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Attending MD Anderson, and taking advantage of a Choice Hotels "Stay 2 times, get a 50$ gift card" offer I canceled my reservation at the Mainstay Suites, and stayed at this Quality Inn.   People would never believe these belong to the same chain.
+After arriving I tried to get on their WiFi, but could not get to their service providers "accept" screen.   I called the front desk, and she had a representative of their service provider call me to help me log in.  She said she had someone else with the same problem.
+ I soon received a call from their provider, and it was obvious they were talking over a very poor quality computer system, and was in India.   The lady I was talking with could hardly be understood from her strong accent, and breaking up phone line.   She said she would contact me back, and I never again heard from her.   Wanting to verify it was not my problem I took my laptop to McDonald's, and was able to connect there fine.
+Checking out the mattress it was very marginal, and in need of replacement.   The room was clean, and had a very strong Lysol, or some other cleaner odor.   The bathroom was clean, and the 1 1/2" cockroach that ran across the floor was easily seen.
+Checking out the next morning I was not asked the normal question "How was your stay", or even got a smile from...Attending MD Anderson, and taking advantage of a Choice Hotels "Stay 2 times, get a 50$ gift card" offer I canceled my reservation at the Mainstay Suites, and stayed at this Quality Inn.   People would never believe these belong to the same chain.After arriving I tried to get on their WiFi, but could not get to their service providers "accept" screen.   I called the front desk, and she had a representative of their service provider call me to help me log in.  She said she had someone else with the same problem. I soon received a call from their provider, and it was obvious they were talking over a very poor quality computer system, and was in India.   The lady I was talking with could hardly be understood from her strong accent, and breaking up phone line.   She said she would contact me back, and I never again heard from her.   Wanting to verify it was not my problem I took my laptop to McDonald's, and was able to connect there fine.Checking out the mattress it was very marginal, and in need of replacement.   The room was clean, and had a very strong Lysol, or some other cleaner odor.   The bathroom was clean, and the 1 1/2" cockroach that ran across the floor was easily seen.Checking out the next morning I was not asked the normal question "How was your stay", or even got a smile from the young lady at the desk.   She probably is afraid to ask guests.I am booked again next month at this facility, but I will be canceling it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r164203434-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164203434</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Please do not stay here if you want to sleep and take a hot shower</t>
+  </si>
+  <si>
+    <t>Talk about Hotel Hell! Where is Gordon Ramsey?? There is no restaurant or even a food pantry, no room service as indicated on the amenities.
+I am visiting for treatment at MD Anderson. They put us in the out building right next to the entrance, so the door to the building was slamming and shook the walls. I am sick and very tired and that room was difficult to sleep in with the slamming door and no windows that open.
+When we asked for a new room, we were argued with and pretty much was made to feel our request was not validated. So 10 min of arguing finally got us a new room. It shouldn't matter my reasons, if a guest is not happy, then fix it! During that time, a man next to me was complaining about his service as well. He said the worst customer service he has ever encountered. No one is ever at the front desk.
+The Non-smoking room has cigarette burns in the blankets, no hot water in the shower and the a/c is horrible. We itched all night long so we ended up sleeping on top of the comforter. No wash cloths, and when we called for more towels, of course no one answered b/c they aren't there. 3 calls later, we were told we had to come get the towels b/c he is understaffed. So I guess they would rather be understaffed...Talk about Hotel Hell! Where is Gordon Ramsey?? There is no restaurant or even a food pantry, no room service as indicated on the amenities.I am visiting for treatment at MD Anderson. They put us in the out building right next to the entrance, so the door to the building was slamming and shook the walls. I am sick and very tired and that room was difficult to sleep in with the slamming door and no windows that open.When we asked for a new room, we were argued with and pretty much was made to feel our request was not validated. So 10 min of arguing finally got us a new room. It shouldn't matter my reasons, if a guest is not happy, then fix it! During that time, a man next to me was complaining about his service as well. He said the worst customer service he has ever encountered. No one is ever at the front desk.The Non-smoking room has cigarette burns in the blankets, no hot water in the shower and the a/c is horrible. We itched all night long so we ended up sleeping on top of the comforter. No wash cloths, and when we called for more towels, of course no one answered b/c they aren't there. 3 calls later, we were told we had to come get the towels b/c he is understaffed. So I guess they would rather be understaffed with pissed off customers, rather than fully staffed and avoiding this review!I just got back from a barrage of tests at the hospital and wanted to float in the pool. But that was cut very short because it smells like incredibly strong sewer and I was ready to vomit after seeing all the green mold. Came back to the room to find the biggest cockroach I have ever seen. Literally as big as my phone, which indicates they've had this problem for quite a while. I am just disgusted with this place. I really hope someone runs a vacuum soon, yuck!I hope ACS takes this hotel off their list because I do not want anyone else subjected to this horrible place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Talk about Hotel Hell! Where is Gordon Ramsey?? There is no restaurant or even a food pantry, no room service as indicated on the amenities.
+I am visiting for treatment at MD Anderson. They put us in the out building right next to the entrance, so the door to the building was slamming and shook the walls. I am sick and very tired and that room was difficult to sleep in with the slamming door and no windows that open.
+When we asked for a new room, we were argued with and pretty much was made to feel our request was not validated. So 10 min of arguing finally got us a new room. It shouldn't matter my reasons, if a guest is not happy, then fix it! During that time, a man next to me was complaining about his service as well. He said the worst customer service he has ever encountered. No one is ever at the front desk.
+The Non-smoking room has cigarette burns in the blankets, no hot water in the shower and the a/c is horrible. We itched all night long so we ended up sleeping on top of the comforter. No wash cloths, and when we called for more towels, of course no one answered b/c they aren't there. 3 calls later, we were told we had to come get the towels b/c he is understaffed. So I guess they would rather be understaffed...Talk about Hotel Hell! Where is Gordon Ramsey?? There is no restaurant or even a food pantry, no room service as indicated on the amenities.I am visiting for treatment at MD Anderson. They put us in the out building right next to the entrance, so the door to the building was slamming and shook the walls. I am sick and very tired and that room was difficult to sleep in with the slamming door and no windows that open.When we asked for a new room, we were argued with and pretty much was made to feel our request was not validated. So 10 min of arguing finally got us a new room. It shouldn't matter my reasons, if a guest is not happy, then fix it! During that time, a man next to me was complaining about his service as well. He said the worst customer service he has ever encountered. No one is ever at the front desk.The Non-smoking room has cigarette burns in the blankets, no hot water in the shower and the a/c is horrible. We itched all night long so we ended up sleeping on top of the comforter. No wash cloths, and when we called for more towels, of course no one answered b/c they aren't there. 3 calls later, we were told we had to come get the towels b/c he is understaffed. So I guess they would rather be understaffed with pissed off customers, rather than fully staffed and avoiding this review!I just got back from a barrage of tests at the hospital and wanted to float in the pool. But that was cut very short because it smells like incredibly strong sewer and I was ready to vomit after seeing all the green mold. Came back to the room to find the biggest cockroach I have ever seen. Literally as big as my phone, which indicates they've had this problem for quite a while. I am just disgusted with this place. I really hope someone runs a vacuum soon, yuck!I hope ACS takes this hotel off their list because I do not want anyone else subjected to this horrible place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r163684509-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163684509</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Stay here if you are going to Reliant</t>
+  </si>
+  <si>
+    <t>we went to see Mexico vs. Nigeria, the walking distance is almost nothing, 10 min walking distance from reliant, reasonable price, rooms are big, the hotel is clean, and customer service is very kind.   I will stay again.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r158007318-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158007318</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great easy to access location and close to many attractions. Clean rooms. We planned to stay two nights but my child became sick and the hotel staff was very flexible and let us check out the afternoon of the first day so we could back home without charging the second night. Would come back anytime!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r155245947-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155245947</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>No towels two nights in a row</t>
+  </si>
+  <si>
+    <t>I can understand room service forgetting to replace towels in the bathroom, but when I called front desk to request towels I was questioned as if I didn't see the towels or if I just wanted more towels then that were left.(which were no towels) I was then told I had to go pick them up myself if I wanted towels. After getting back to the room after 12 midnight and you get ready to take shower and realize there are no towels the last thing I wanted to do was walk to front desk to get some. Thing is if this just happened one night I would've let it slide and made no mention of it here but it happened two nights in a row out of the week that I stayed there.MoreShow less</t>
+  </si>
+  <si>
+    <t>I can understand room service forgetting to replace towels in the bathroom, but when I called front desk to request towels I was questioned as if I didn't see the towels or if I just wanted more towels then that were left.(which were no towels) I was then told I had to go pick them up myself if I wanted towels. After getting back to the room after 12 midnight and you get ready to take shower and realize there are no towels the last thing I wanted to do was walk to front desk to get some. Thing is if this just happened one night I would've let it slide and made no mention of it here but it happened two nights in a row out of the week that I stayed there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r155192590-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155192590</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>MD Anderson returning patient</t>
+  </si>
+  <si>
+    <t>My husband &amp; I have stayed at this hotel in the past and each time it is a great experience.  The beds are very comfortable and the staff was great.  We will definitely stay at this hotel in the future when needed!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r155117607-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155117607</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Great Spot</t>
+  </si>
+  <si>
+    <t>I stayed here in early February and had a great experience. The hotel was perfect in terms of convenience and service. I was visiting a family member at the MD Anderson Hospital and they offered a free shuttle over to the hospital. All the staff was very courteous and accommodating. The hotel looked to be under some minor construction, but they put me in a brand new room with new carpet and paint. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r154402122-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154402122</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT EMPLOYEE</t>
+  </si>
+  <si>
+    <t>I had an appointment at MDA Cancer center and although it was an event week (rodeo).  Trevor went beyond what I expected to accommodate me with a room.  He is truly a gem.  The hotel is perfect if you're traveling alone. The entrances have security card locks and the room entrances are on the inside.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r153960761-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153960761</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel for the Rodeo</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this Quality Inn for the Houston Livestock Show and Rodeo a few weeks ago. We were looking for a hotel that was fairly close to Reliant Park so we could walk and avoid the headache of parking, and this place was perfect for that. We really weren't in the room too much, but they were definitely clean. The staff was extremely helpful and polite. I usually come to Houston once a year for the Rodeo, and I will definitely stay at this Quality Inn again next year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r153891283-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153891283</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay for Relaint Park or Medical Center</t>
+  </si>
+  <si>
+    <t>It is an older property but they keep it clean.They have recently repaced the carpet and are in the middle of replacing all the TV's. They can service the Medical Center from their location with their van. I use them to house my cookin team for the Houston BBQ</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r150983176-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150983176</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Definitely a budget hotel, bit overpriced even with med discount</t>
+  </si>
+  <si>
+    <t>I booked the largest suite they had, so that I could have two separate sleeping areas, 2 bathrooms, and 2 tv's.  This was because we were visiting MDAnderson as a new patient consult, and wanted/needed separate areas to support 3 adults and 1 dog.  That part worked out perfectly.   This was a dog friendly locale, and taking the dog out was a convenient few steps away.  (one word of caution.. I did go out one door that was a sort of a fire door and I could not get back in it.. so I wound up walking around the outside of the whole building to find my way back in.. the door was not labelled on either side!)
+The hotel is right off the freeway, but we were towards the back and road noise was no issue.  There is only one way in/out, so that was an issue!  One evening we were in a hurry to leave, and found the whole driveway blocked by the courtesy van and a client who had parked their car in what was left of the driveway.  I parked and ran into the lobby to say we needed to get out in a hurry... it took them quite a while to find the van driver who was the only one with a key, so that by the time they did, whoever owned the car wandered out.. He was oblivious as to the fact he was...I booked the largest suite they had, so that I could have two separate sleeping areas, 2 bathrooms, and 2 tv's.  This was because we were visiting MDAnderson as a new patient consult, and wanted/needed separate areas to support 3 adults and 1 dog.  That part worked out perfectly.   This was a dog friendly locale, and taking the dog out was a convenient few steps away.  (one word of caution.. I did go out one door that was a sort of a fire door and I could not get back in it.. so I wound up walking around the outside of the whole building to find my way back in.. the door was not labelled on either side!)The hotel is right off the freeway, but we were towards the back and road noise was no issue.  There is only one way in/out, so that was an issue!  One evening we were in a hurry to leave, and found the whole driveway blocked by the courtesy van and a client who had parked their car in what was left of the driveway.  I parked and ran into the lobby to say we needed to get out in a hurry... it took them quite a while to find the van driver who was the only one with a key, so that by the time they did, whoever owned the car wandered out.. He was oblivious as to the fact he was blocking everyone from entering/leaving the whole premise!This is definitely a budget hotel, but not with a budget price.  Especially if you need to stay for a while... I would call it "clean", but we definitely had concerns for safety.  So because of that, I'm not sure we could stay there again.  My dad said he was too worried to sleep, and never closed his eyes...The positive part was that we assumed most clients were affiliated with MDAnderson. So from that aspect, everyone was friendly and nice and had things in common.Breakfast wasn't great, but they did have some hot foods... bacon was plentiful.  Waffles...I'm not sure where the ice was.. I wandered around, but never found it.  Also, they were recarpeting much of the property, which is good!  But they had the carpet strown all over the parking lot, for cars ot drive over and all.As others have said, there isn't much right near the hotel.  We found what we thought would be a sit-down mexican restaurant close, but it was really more like fast food where you had to order yourself.  But we all really enjoyed the food, and the counter dude was awesome and lovely to chat with.  Sorry, I can't remember the name of it.. great salsa bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I booked the largest suite they had, so that I could have two separate sleeping areas, 2 bathrooms, and 2 tv's.  This was because we were visiting MDAnderson as a new patient consult, and wanted/needed separate areas to support 3 adults and 1 dog.  That part worked out perfectly.   This was a dog friendly locale, and taking the dog out was a convenient few steps away.  (one word of caution.. I did go out one door that was a sort of a fire door and I could not get back in it.. so I wound up walking around the outside of the whole building to find my way back in.. the door was not labelled on either side!)
+The hotel is right off the freeway, but we were towards the back and road noise was no issue.  There is only one way in/out, so that was an issue!  One evening we were in a hurry to leave, and found the whole driveway blocked by the courtesy van and a client who had parked their car in what was left of the driveway.  I parked and ran into the lobby to say we needed to get out in a hurry... it took them quite a while to find the van driver who was the only one with a key, so that by the time they did, whoever owned the car wandered out.. He was oblivious as to the fact he was...I booked the largest suite they had, so that I could have two separate sleeping areas, 2 bathrooms, and 2 tv's.  This was because we were visiting MDAnderson as a new patient consult, and wanted/needed separate areas to support 3 adults and 1 dog.  That part worked out perfectly.   This was a dog friendly locale, and taking the dog out was a convenient few steps away.  (one word of caution.. I did go out one door that was a sort of a fire door and I could not get back in it.. so I wound up walking around the outside of the whole building to find my way back in.. the door was not labelled on either side!)The hotel is right off the freeway, but we were towards the back and road noise was no issue.  There is only one way in/out, so that was an issue!  One evening we were in a hurry to leave, and found the whole driveway blocked by the courtesy van and a client who had parked their car in what was left of the driveway.  I parked and ran into the lobby to say we needed to get out in a hurry... it took them quite a while to find the van driver who was the only one with a key, so that by the time they did, whoever owned the car wandered out.. He was oblivious as to the fact he was blocking everyone from entering/leaving the whole premise!This is definitely a budget hotel, but not with a budget price.  Especially if you need to stay for a while... I would call it "clean", but we definitely had concerns for safety.  So because of that, I'm not sure we could stay there again.  My dad said he was too worried to sleep, and never closed his eyes...The positive part was that we assumed most clients were affiliated with MDAnderson. So from that aspect, everyone was friendly and nice and had things in common.Breakfast wasn't great, but they did have some hot foods... bacon was plentiful.  Waffles...I'm not sure where the ice was.. I wandered around, but never found it.  Also, they were recarpeting much of the property, which is good!  But they had the carpet strown all over the parking lot, for cars ot drive over and all.As others have said, there isn't much right near the hotel.  We found what we thought would be a sit-down mexican restaurant close, but it was really more like fast food where you had to order yourself.  But we all really enjoyed the food, and the counter dude was awesome and lovely to chat with.  Sorry, I can't remember the name of it.. great salsa bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r132945738-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132945738</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>LOVE LOVE LOVE</t>
+  </si>
+  <si>
+    <t>I actually  lived in this hotel when my daughter was in Texas Children's Hospital for the first three months of her life.  I didn't care where I stayed when I chose it from the list the hospital offered, but I learned later how lucky I was to have such a good hotel.  It was always clean, I loved all of the staff(except one), shuttle service was phenomenal.  Just a quick word with the driver would get me anywhere I needed to go, whether it be on the route or not(within reason of course).  Breakfast was wonderful, above and beyond what a hotel breakfast normally is.  My personal items were always safe in my room, no worries there.  I spoke with many other TCH moms(staying at other hotels) who were constantly fighting to get to the hospital(because of bad shuttle service), couldn't have breakfast until they got to the hospital, had to walk for groceries, and fought roaches in their rooms.  Many of them moved over to Quality Inn where I was and all were beyond satisfied.
+Folks, this ain't the Hilton, there's one in the Medical Center if that's what you are looking for.  As far as the door locks, they are ALWAYS engaged after dark.  Having them on during the day would be a huge inconvenience to the many handicapped individuals that stay there.  
+I lived here for three months and left with a beautiful baby girl and some...I actually  lived in this hotel when my daughter was in Texas Children's Hospital for the first three months of her life.  I didn't care where I stayed when I chose it from the list the hospital offered, but I learned later how lucky I was to have such a good hotel.  It was always clean, I loved all of the staff(except one), shuttle service was phenomenal.  Just a quick word with the driver would get me anywhere I needed to go, whether it be on the route or not(within reason of course).  Breakfast was wonderful, above and beyond what a hotel breakfast normally is.  My personal items were always safe in my room, no worries there.  I spoke with many other TCH moms(staying at other hotels) who were constantly fighting to get to the hospital(because of bad shuttle service), couldn't have breakfast until they got to the hospital, had to walk for groceries, and fought roaches in their rooms.  Many of them moved over to Quality Inn where I was and all were beyond satisfied.Folks, this ain't the Hilton, there's one in the Medical Center if that's what you are looking for.  As far as the door locks, they are ALWAYS engaged after dark.  Having them on during the day would be a huge inconvenience to the many handicapped individuals that stay there.  I lived here for three months and left with a beautiful baby girl and some of the greatest friends I've ever had.  I am back(not so permanently this time) for my father's trips to MD Anderson.  This hotel is still my favorite.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I actually  lived in this hotel when my daughter was in Texas Children's Hospital for the first three months of her life.  I didn't care where I stayed when I chose it from the list the hospital offered, but I learned later how lucky I was to have such a good hotel.  It was always clean, I loved all of the staff(except one), shuttle service was phenomenal.  Just a quick word with the driver would get me anywhere I needed to go, whether it be on the route or not(within reason of course).  Breakfast was wonderful, above and beyond what a hotel breakfast normally is.  My personal items were always safe in my room, no worries there.  I spoke with many other TCH moms(staying at other hotels) who were constantly fighting to get to the hospital(because of bad shuttle service), couldn't have breakfast until they got to the hospital, had to walk for groceries, and fought roaches in their rooms.  Many of them moved over to Quality Inn where I was and all were beyond satisfied.
+Folks, this ain't the Hilton, there's one in the Medical Center if that's what you are looking for.  As far as the door locks, they are ALWAYS engaged after dark.  Having them on during the day would be a huge inconvenience to the many handicapped individuals that stay there.  
+I lived here for three months and left with a beautiful baby girl and some...I actually  lived in this hotel when my daughter was in Texas Children's Hospital for the first three months of her life.  I didn't care where I stayed when I chose it from the list the hospital offered, but I learned later how lucky I was to have such a good hotel.  It was always clean, I loved all of the staff(except one), shuttle service was phenomenal.  Just a quick word with the driver would get me anywhere I needed to go, whether it be on the route or not(within reason of course).  Breakfast was wonderful, above and beyond what a hotel breakfast normally is.  My personal items were always safe in my room, no worries there.  I spoke with many other TCH moms(staying at other hotels) who were constantly fighting to get to the hospital(because of bad shuttle service), couldn't have breakfast until they got to the hospital, had to walk for groceries, and fought roaches in their rooms.  Many of them moved over to Quality Inn where I was and all were beyond satisfied.Folks, this ain't the Hilton, there's one in the Medical Center if that's what you are looking for.  As far as the door locks, they are ALWAYS engaged after dark.  Having them on during the day would be a huge inconvenience to the many handicapped individuals that stay there.  I lived here for three months and left with a beautiful baby girl and some of the greatest friends I've ever had.  I am back(not so permanently this time) for my father's trips to MD Anderson.  This hotel is still my favorite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r117913727-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117913727</t>
+  </si>
+  <si>
+    <t>09/10/2011</t>
+  </si>
+  <si>
+    <t>NO COMPLAINTS CLEAN AND GOOD LOCATION</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in July 2011 and we actually have no complaints. The staff was friendly, the room was clean and nice and the food was good. We loved the location of the hotel. We knew nothing about Houston and the location made it easier for us.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r97767321-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>97767321</t>
+  </si>
+  <si>
+    <t>02/23/2011</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>We picked this hotel because the reviews were good and it's pet friendly.  We didn't notice that most of the reviews are a little old.  The hotel is also now older and not yet revamped.  The doors to the outside are still with non-functioning electronic locks that allow anyone to just walk in. The carpeting in our hall smelled musty and looked dirty. The room was clean-ish. Bathrooms were clean, but our pet kept rubbing against something invisible on the carpet and furniture in a manner that made me shudder and put  clumps of wetwipes over the areas as well as wiping the pet down.  Staff was helpful and friendly. Many of the guests were there for MDAnderson, and for that received free shuttles to the Medical Center; there seemed to be a bit of a comraderie. I think the guests appreciate the budget price, as we did.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We picked this hotel because the reviews were good and it's pet friendly.  We didn't notice that most of the reviews are a little old.  The hotel is also now older and not yet revamped.  The doors to the outside are still with non-functioning electronic locks that allow anyone to just walk in. The carpeting in our hall smelled musty and looked dirty. The room was clean-ish. Bathrooms were clean, but our pet kept rubbing against something invisible on the carpet and furniture in a manner that made me shudder and put  clumps of wetwipes over the areas as well as wiping the pet down.  Staff was helpful and friendly. Many of the guests were there for MDAnderson, and for that received free shuttles to the Medical Center; there seemed to be a bit of a comraderie. I think the guests appreciate the budget price, as we did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r89118606-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89118606</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>Not bad for the money</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while on a medical trip so we received the medical rate, which was extremely reasonable.  The room rate also included breakfast each morning, which really increased the value for us.  The breakfast included muffins, sausage, bacon, juice, waffles, and assorted other options. Our room also had a microwave and small refrigerator.  The room was stocked with a coffeemaker, coffee packets, teas and cups.  We were able to save money by eating our breakfast at the hotel each morning, which we appreciated.
+I do have a couple of complaints about the hotel.  When I pulled back the comforter on my bed, the fitted sheet was dirty with some substance stuck to it (I shudder to think what it might have been), and that was a disgusting way to start our stay!  When I called the front desk, they sent someone to come up replace the sheets.  After he replaced the entire bedding, the new comforter had pen marks all over it and what appeared to be a cigarette burn in it.  Again, a little icky, but they did appear to be clean this time.
+The other complaint is about the security of the hotel.  This hotel has several buildings and we stayed in one toward the back.  The sign on the door said the doors remained locked at all times and you had to use a key to enter, but the door was always unlocked during...We stayed at this hotel while on a medical trip so we received the medical rate, which was extremely reasonable.  The room rate also included breakfast each morning, which really increased the value for us.  The breakfast included muffins, sausage, bacon, juice, waffles, and assorted other options. Our room also had a microwave and small refrigerator.  The room was stocked with a coffeemaker, coffee packets, teas and cups.  We were able to save money by eating our breakfast at the hotel each morning, which we appreciated.I do have a couple of complaints about the hotel.  When I pulled back the comforter on my bed, the fitted sheet was dirty with some substance stuck to it (I shudder to think what it might have been), and that was a disgusting way to start our stay!  When I called the front desk, they sent someone to come up replace the sheets.  After he replaced the entire bedding, the new comforter had pen marks all over it and what appeared to be a cigarette burn in it.  Again, a little icky, but they did appear to be clean this time.The other complaint is about the security of the hotel.  This hotel has several buildings and we stayed in one toward the back.  The sign on the door said the doors remained locked at all times and you had to use a key to enter, but the door was always unlocked during our stay.  Since this hotel is just off the highway and not in the most desireable part of town, I did feel a little concerned about my safety, especially knowing the doors to our building were unlocked.  On one day of our stay, I could not get into our room because the key wouldn't work. I asked a maintenance person for assistance and he asked which room I was in, then he let me into the room.  I was shocked that he would just take my word for it and let me in without verifying that it was actually my room. The staff was all very friendly and except for the security concerns and the nasty bedding incident, I really felt we had a good deal for the money we spent.  They also offer a shuttle to the medical center, which can save you a lot of money on parking fees.  We didn't have any issues with noise from nearby rooms.  The only noise complaint we had was with the in-room refrigerator, which ticked loudly and sounded like it was counting down to an explosion!  But we could have easily fixed that by unplugging the fridge if we weren't using it.I would consider this a solid 2-star hotel.  If you're looking for something inexpensive with a few nice "extras", this might be the hotel for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while on a medical trip so we received the medical rate, which was extremely reasonable.  The room rate also included breakfast each morning, which really increased the value for us.  The breakfast included muffins, sausage, bacon, juice, waffles, and assorted other options. Our room also had a microwave and small refrigerator.  The room was stocked with a coffeemaker, coffee packets, teas and cups.  We were able to save money by eating our breakfast at the hotel each morning, which we appreciated.
+I do have a couple of complaints about the hotel.  When I pulled back the comforter on my bed, the fitted sheet was dirty with some substance stuck to it (I shudder to think what it might have been), and that was a disgusting way to start our stay!  When I called the front desk, they sent someone to come up replace the sheets.  After he replaced the entire bedding, the new comforter had pen marks all over it and what appeared to be a cigarette burn in it.  Again, a little icky, but they did appear to be clean this time.
+The other complaint is about the security of the hotel.  This hotel has several buildings and we stayed in one toward the back.  The sign on the door said the doors remained locked at all times and you had to use a key to enter, but the door was always unlocked during...We stayed at this hotel while on a medical trip so we received the medical rate, which was extremely reasonable.  The room rate also included breakfast each morning, which really increased the value for us.  The breakfast included muffins, sausage, bacon, juice, waffles, and assorted other options. Our room also had a microwave and small refrigerator.  The room was stocked with a coffeemaker, coffee packets, teas and cups.  We were able to save money by eating our breakfast at the hotel each morning, which we appreciated.I do have a couple of complaints about the hotel.  When I pulled back the comforter on my bed, the fitted sheet was dirty with some substance stuck to it (I shudder to think what it might have been), and that was a disgusting way to start our stay!  When I called the front desk, they sent someone to come up replace the sheets.  After he replaced the entire bedding, the new comforter had pen marks all over it and what appeared to be a cigarette burn in it.  Again, a little icky, but they did appear to be clean this time.The other complaint is about the security of the hotel.  This hotel has several buildings and we stayed in one toward the back.  The sign on the door said the doors remained locked at all times and you had to use a key to enter, but the door was always unlocked during our stay.  Since this hotel is just off the highway and not in the most desireable part of town, I did feel a little concerned about my safety, especially knowing the doors to our building were unlocked.  On one day of our stay, I could not get into our room because the key wouldn't work. I asked a maintenance person for assistance and he asked which room I was in, then he let me into the room.  I was shocked that he would just take my word for it and let me in without verifying that it was actually my room. The staff was all very friendly and except for the security concerns and the nasty bedding incident, I really felt we had a good deal for the money we spent.  They also offer a shuttle to the medical center, which can save you a lot of money on parking fees.  We didn't have any issues with noise from nearby rooms.  The only noise complaint we had was with the in-room refrigerator, which ticked loudly and sounded like it was counting down to an explosion!  But we could have easily fixed that by unplugging the fridge if we weren't using it.I would consider this a solid 2-star hotel.  If you're looking for something inexpensive with a few nice "extras", this might be the hotel for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r39701702-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>39701702</t>
+  </si>
+  <si>
+    <t>09/03/2009</t>
+  </si>
+  <si>
+    <t>Ok hotel with some negatives</t>
+  </si>
+  <si>
+    <t>It's definitely a budget hotel.  We were in Houston for medical reasons at M D Anderson.  The hotel is doing some remodeling of the rooms and probably will be nicer later.  I'll try to give some of the positive and some of the negative about this hotel.
+Positives:
+a clean room that is older (probably nicer after room  remodel completed)
+if you are going to Reliant Stadium, you could easily walk there and back
+shuttle to the medical center with very nice driver
+nice and helpful staff
+free parking
+certainly budget frendly
+refrigerater &amp; microwave in room
+free basic cont. breakfast but no fresh fruit or yogurt
+Negatives:
+Unless you have a car there is nothing really near this hotel.  Their site says there are 3 restaurants adjacent but that's not really true.  Only one adjacent is Shoney's.  Other 2 are across 3 lane frontage road then 8 lane highway and then 3 more lane frontage road.  It is walkable by going to corner and walking street that goes under all of that and that probably makes the walk around 1/2 mile+.  We could have walked there in daylight but wouldn't wanted to walk back in the dark.  
+shuttle only goes to grocery store on Tues.  we arrived on Tues so missed that one.
+wireless internet in room but not high speed (as least while we were there)
+When we go back to Houston again we will find another hotel...It's definitely a budget hotel.  We were in Houston for medical reasons at M D Anderson.  The hotel is doing some remodeling of the rooms and probably will be nicer later.  I'll try to give some of the positive and some of the negative about this hotel.Positives:a clean room that is older (probably nicer after room  remodel completed)if you are going to Reliant Stadium, you could easily walk there and backshuttle to the medical center with very nice drivernice and helpful stafffree parkingcertainly budget frendlyrefrigerater &amp; microwave in roomfree basic cont. breakfast but no fresh fruit or yogurtNegatives:Unless you have a car there is nothing really near this hotel.  Their site says there are 3 restaurants adjacent but that's not really true.  Only one adjacent is Shoney's.  Other 2 are across 3 lane frontage road then 8 lane highway and then 3 more lane frontage road.  It is walkable by going to corner and walking street that goes under all of that and that probably makes the walk around 1/2 mile+.  We could have walked there in daylight but wouldn't wanted to walk back in the dark.  shuttle only goes to grocery store on Tues.  we arrived on Tues so missed that one.wireless internet in room but not high speed (as least while we were there)When we go back to Houston again we will find another hotel to stay at.  When we checked in they bumped us to a suite for the same low price.  Our suite was once two connecting hotel rooms that they took the bedroom furniture out of one and put in livingroom furniture (a couch, 2 chairs, coffee table, and a desk in addition to the tv).  This does give you 2 full bathrooms.  Convenient when any of your part;y isn't feeling well, but I wouldn't pay big bucks for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>It's definitely a budget hotel.  We were in Houston for medical reasons at M D Anderson.  The hotel is doing some remodeling of the rooms and probably will be nicer later.  I'll try to give some of the positive and some of the negative about this hotel.
+Positives:
+a clean room that is older (probably nicer after room  remodel completed)
+if you are going to Reliant Stadium, you could easily walk there and back
+shuttle to the medical center with very nice driver
+nice and helpful staff
+free parking
+certainly budget frendly
+refrigerater &amp; microwave in room
+free basic cont. breakfast but no fresh fruit or yogurt
+Negatives:
+Unless you have a car there is nothing really near this hotel.  Their site says there are 3 restaurants adjacent but that's not really true.  Only one adjacent is Shoney's.  Other 2 are across 3 lane frontage road then 8 lane highway and then 3 more lane frontage road.  It is walkable by going to corner and walking street that goes under all of that and that probably makes the walk around 1/2 mile+.  We could have walked there in daylight but wouldn't wanted to walk back in the dark.  
+shuttle only goes to grocery store on Tues.  we arrived on Tues so missed that one.
+wireless internet in room but not high speed (as least while we were there)
+When we go back to Houston again we will find another hotel...It's definitely a budget hotel.  We were in Houston for medical reasons at M D Anderson.  The hotel is doing some remodeling of the rooms and probably will be nicer later.  I'll try to give some of the positive and some of the negative about this hotel.Positives:a clean room that is older (probably nicer after room  remodel completed)if you are going to Reliant Stadium, you could easily walk there and backshuttle to the medical center with very nice drivernice and helpful stafffree parkingcertainly budget frendlyrefrigerater &amp; microwave in roomfree basic cont. breakfast but no fresh fruit or yogurtNegatives:Unless you have a car there is nothing really near this hotel.  Their site says there are 3 restaurants adjacent but that's not really true.  Only one adjacent is Shoney's.  Other 2 are across 3 lane frontage road then 8 lane highway and then 3 more lane frontage road.  It is walkable by going to corner and walking street that goes under all of that and that probably makes the walk around 1/2 mile+.  We could have walked there in daylight but wouldn't wanted to walk back in the dark.  shuttle only goes to grocery store on Tues.  we arrived on Tues so missed that one.wireless internet in room but not high speed (as least while we were there)When we go back to Houston again we will find another hotel to stay at.  When we checked in they bumped us to a suite for the same low price.  Our suite was once two connecting hotel rooms that they took the bedroom furniture out of one and put in livingroom furniture (a couch, 2 chairs, coffee table, and a desk in addition to the tv).  This does give you 2 full bathrooms.  Convenient when any of your part;y isn't feeling well, but I wouldn't pay big bucks for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r33310039-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>33310039</t>
+  </si>
+  <si>
+    <t>06/27/2009</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Came down for a last minute business meeting. I was given an upgrade to suite upon arrive! The Suite had a lot space and great beds! The free breakfast was good and had a decent selection. Very quite and relaxing stay. I would recommend to anyone visiting Houston's Reliant Park or Medical Center areas.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r27861911-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>27861911</t>
+  </si>
+  <si>
+    <t>04/12/2009</t>
+  </si>
+  <si>
+    <t>Cheap, clean and very very helpful staff</t>
+  </si>
+  <si>
+    <t>I booked this hotel as it was convienent for my trip as i was going to the Reliant arena and i found while i was there the staff were always willing to help with everything i asked of them, whether it be advice on where to eat of how to get to places of interest. The breakfast allow was only continental had a huge range of food to choose from whether it was cereal or toast or even making your own waffles, which my son thoroughly enjoyed doing every morning. The rooms were cleaned thoroughly every day and fresh towels were put in our room every day also.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r27724711-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>27724711</t>
+  </si>
+  <si>
+    <t>04/09/2009</t>
+  </si>
+  <si>
+    <t>Very convenient to Livestock Show</t>
+  </si>
+  <si>
+    <t>We found this place to be very comfortable and extremely convenient at Reliant Park while we visited the Houston Livestock Show. We slept very well. The continental breakfast was good, and we were able to leave our car safely in their parking lot and walk to the park for the shows and exhibits.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1942,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1974,4392 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>237</v>
+      </c>
+      <c r="X30" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>271</v>
+      </c>
+      <c r="J36" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s">
+        <v>274</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" t="s">
+        <v>280</v>
+      </c>
+      <c r="L37" t="s">
+        <v>281</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>282</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>296</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>302</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>308</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>308</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s">
+        <v>319</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>308</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>321</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>322</v>
+      </c>
+      <c r="J44" t="s">
+        <v>323</v>
+      </c>
+      <c r="K44" t="s">
+        <v>324</v>
+      </c>
+      <c r="L44" t="s">
+        <v>325</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>326</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>329</v>
+      </c>
+      <c r="J45" t="s">
+        <v>330</v>
+      </c>
+      <c r="K45" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" t="s">
+        <v>332</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>333</v>
+      </c>
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>336</v>
+      </c>
+      <c r="J46" t="s">
+        <v>337</v>
+      </c>
+      <c r="K46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L46" t="s">
+        <v>339</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>326</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" t="s">
+        <v>344</v>
+      </c>
+      <c r="L47" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" t="s">
+        <v>348</v>
+      </c>
+      <c r="K48" t="s">
+        <v>349</v>
+      </c>
+      <c r="L48" t="s">
+        <v>350</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K49" t="s">
+        <v>354</v>
+      </c>
+      <c r="L49" t="s">
+        <v>355</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>356</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" t="s">
+        <v>361</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>362</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>363</v>
+      </c>
+      <c r="J51" t="s">
+        <v>359</v>
+      </c>
+      <c r="K51" t="s">
+        <v>364</v>
+      </c>
+      <c r="L51" t="s">
+        <v>365</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>366</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" t="s">
+        <v>359</v>
+      </c>
+      <c r="K52" t="s">
+        <v>370</v>
+      </c>
+      <c r="L52" t="s">
+        <v>371</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>366</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" t="s">
+        <v>376</v>
+      </c>
+      <c r="L53" t="s">
+        <v>377</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>366</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>379</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>380</v>
+      </c>
+      <c r="J54" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s">
+        <v>382</v>
+      </c>
+      <c r="L54" t="s">
+        <v>383</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>384</v>
+      </c>
+      <c r="O54" t="s">
+        <v>98</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>385</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>386</v>
+      </c>
+      <c r="J55" t="s">
+        <v>387</v>
+      </c>
+      <c r="K55" t="s">
+        <v>388</v>
+      </c>
+      <c r="L55" t="s">
+        <v>389</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>390</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>391</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>392</v>
+      </c>
+      <c r="J56" t="s">
+        <v>393</v>
+      </c>
+      <c r="K56" t="s">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s">
+        <v>395</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J57" t="s">
+        <v>399</v>
+      </c>
+      <c r="K57" t="s">
+        <v>400</v>
+      </c>
+      <c r="L57" t="s">
+        <v>401</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>402</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>403</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K58" t="s">
+        <v>406</v>
+      </c>
+      <c r="L58" t="s">
+        <v>407</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>408</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>402</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>414</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>415</v>
+      </c>
+      <c r="J60" t="s">
+        <v>416</v>
+      </c>
+      <c r="K60" t="s">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s">
+        <v>418</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>402</v>
+      </c>
+      <c r="O60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>408</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>424</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>425</v>
+      </c>
+      <c r="J62" t="s">
+        <v>426</v>
+      </c>
+      <c r="K62" t="s">
+        <v>427</v>
+      </c>
+      <c r="L62" t="s">
+        <v>428</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>432</v>
+      </c>
+      <c r="J63" t="s">
+        <v>433</v>
+      </c>
+      <c r="K63" t="s">
+        <v>434</v>
+      </c>
+      <c r="L63" t="s">
+        <v>435</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>436</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>438</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>439</v>
+      </c>
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+      <c r="K64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L64" t="s">
+        <v>442</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>443</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>444</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>445</v>
+      </c>
+      <c r="J65" t="s">
+        <v>446</v>
+      </c>
+      <c r="K65" t="s">
+        <v>447</v>
+      </c>
+      <c r="L65" t="s">
+        <v>448</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>449</v>
+      </c>
+      <c r="O65" t="s">
+        <v>73</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>451</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>452</v>
+      </c>
+      <c r="J66" t="s">
+        <v>453</v>
+      </c>
+      <c r="K66" t="s">
+        <v>454</v>
+      </c>
+      <c r="L66" t="s">
+        <v>455</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>456</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>458</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>459</v>
+      </c>
+      <c r="J67" t="s">
+        <v>460</v>
+      </c>
+      <c r="K67" t="s">
+        <v>461</v>
+      </c>
+      <c r="L67" t="s">
+        <v>462</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>463</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>465</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>466</v>
+      </c>
+      <c r="J68" t="s">
+        <v>467</v>
+      </c>
+      <c r="K68" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68" t="s">
+        <v>469</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>470</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>471</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>472</v>
+      </c>
+      <c r="J69" t="s">
+        <v>473</v>
+      </c>
+      <c r="K69" t="s">
+        <v>474</v>
+      </c>
+      <c r="L69" t="s">
+        <v>475</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>476</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>477</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>478</v>
+      </c>
+      <c r="J70" t="s">
+        <v>479</v>
+      </c>
+      <c r="K70" t="s">
+        <v>480</v>
+      </c>
+      <c r="L70" t="s">
+        <v>481</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>482</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_517.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_517.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="750">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r600884411-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223177</t>
+  </si>
+  <si>
+    <t>600884411</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Not Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for business trip 3 days.  Every night after a long day of business I had to go to the office because the key didn’t work.   This property is in bad need of an update &amp; remodel.   Beds were not bad.  Room was clean.   Parking was a little tight.  Not sure I would pick this location again.   </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r573712734-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573712734</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Clean with nice staff, but security issues</t>
+  </si>
+  <si>
+    <t>This place does need updating, but was very clean and the staff was very friendly and helpful. I wish I could give it a higher rating based on this, but security problems took it down. First, the doors to the outside require a key to enter, problem was none of them locked leaving it open to anyone. Second, my truck was broken into parked outside the motel's office at night. There is only one way in past the desk so either the thief was a guest or drove (or walked) past the lobby. Nothing was taken (I don't keep valuables in it), however the damage to my door and lock will set me back a couple of hundred dollars. The motel covers themselves with signs saying they are not responsible, but they need to put up more cameras and hire better guards (not sure if they even have any) because actually they are responsible for your safety even if they can fight it in court.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>This place does need updating, but was very clean and the staff was very friendly and helpful. I wish I could give it a higher rating based on this, but security problems took it down. First, the doors to the outside require a key to enter, problem was none of them locked leaving it open to anyone. Second, my truck was broken into parked outside the motel's office at night. There is only one way in past the desk so either the thief was a guest or drove (or walked) past the lobby. Nothing was taken (I don't keep valuables in it), however the damage to my door and lock will set me back a couple of hundred dollars. The motel covers themselves with signs saying they are not responsible, but they need to put up more cameras and hire better guards (not sure if they even have any) because actually they are responsible for your safety even if they can fight it in court.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r571144608-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223177</t>
-  </si>
-  <si>
     <t>571144608</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>It's an older property, and the wear-and-tear shows. Check-in was fairly quick and easy the room is clean but definitely showing its age it's not the greatest neighborhood in the world but if you need to be closed to the stadiums and the convention center area, this place works</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -219,6 +258,62 @@
     <t>We stayed here during our stay for the –Livestock show and rodeo it was conveniently located to iNRG stadium overall room was clean however had a slight aged odor but the bed was good so I slept well; staff was absolutely pleasant and customer service was good; we would stay here next time if we have an event at iNRG</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r542467980-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542467980</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Old but decent</t>
+  </si>
+  <si>
+    <t>10 minutes walk to nrg arena with free parking. This is a very old hotel, needing of some updates. The room was spacious and clean but needed improvements; water faucet, shower, air condition, bath ventilation all worked but not perfectly. Polite employees, let us check in at 10am free of charge since they had a room ready. The one vending machine by the office did not have water so we had to go by a nearby restaurant to get some. It's ok if you are staying for a day or two for an event.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Kamil K, Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>10 minutes walk to nrg arena with free parking. This is a very old hotel, needing of some updates. The room was spacious and clean but needed improvements; water faucet, shower, air condition, bath ventilation all worked but not perfectly. Polite employees, let us check in at 10am free of charge since they had a room ready. The one vending machine by the office did not have water so we had to go by a nearby restaurant to get some. It's ok if you are staying for a day or two for an event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r533795168-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533795168</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Mold, Squatters, Falling apart</t>
+  </si>
+  <si>
+    <t>We stayed to see an NFL game here on a Sunday night. We came to our room and there was mold all over the ceiling in a corner, and dirt in the bathroom. I went to front desk they said they would move me to another room. I go to check out the room and open the door, and someone was apparently squatting in the room. TV was on trash everywhere, scared the hell out of me to open it and someone apparently staying there. Went back and told the front desk, they said "huh, that's odd. No one should be there". They then gave me key to another room, I go there and the shower head has fallen off! I went back said never mind I guess we will just deal with our room since it is for one night and most of the time we would be at the game. I called around and couldn't find another hotel nearby with decent reviews to stay at for that night anyways.
+In addition the door to the building did NOT lock, so anyone could walk in and out (might explain the squatters). The TV was nearly off the wall in our room, and there were stains all over. The whole place stank, and was just frightening. I felt like I was in the ghetto somewhere. Honestly I have never been somewhere this bad, and I have stayed at some middle...We stayed to see an NFL game here on a Sunday night. We came to our room and there was mold all over the ceiling in a corner, and dirt in the bathroom. I went to front desk they said they would move me to another room. I go to check out the room and open the door, and someone was apparently squatting in the room. TV was on trash everywhere, scared the hell out of me to open it and someone apparently staying there. Went back and told the front desk, they said "huh, that's odd. No one should be there". They then gave me key to another room, I go there and the shower head has fallen off! I went back said never mind I guess we will just deal with our room since it is for one night and most of the time we would be at the game. I called around and couldn't find another hotel nearby with decent reviews to stay at for that night anyways.In addition the door to the building did NOT lock, so anyone could walk in and out (might explain the squatters). The TV was nearly off the wall in our room, and there were stains all over. The whole place stank, and was just frightening. I felt like I was in the ghetto somewhere. Honestly I have never been somewhere this bad, and I have stayed at some middle of nowhere Motel 6's before. Pics as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Naveed K, General Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed to see an NFL game here on a Sunday night. We came to our room and there was mold all over the ceiling in a corner, and dirt in the bathroom. I went to front desk they said they would move me to another room. I go to check out the room and open the door, and someone was apparently squatting in the room. TV was on trash everywhere, scared the hell out of me to open it and someone apparently staying there. Went back and told the front desk, they said "huh, that's odd. No one should be there". They then gave me key to another room, I go there and the shower head has fallen off! I went back said never mind I guess we will just deal with our room since it is for one night and most of the time we would be at the game. I called around and couldn't find another hotel nearby with decent reviews to stay at for that night anyways.
+In addition the door to the building did NOT lock, so anyone could walk in and out (might explain the squatters). The TV was nearly off the wall in our room, and there were stains all over. The whole place stank, and was just frightening. I felt like I was in the ghetto somewhere. Honestly I have never been somewhere this bad, and I have stayed at some middle...We stayed to see an NFL game here on a Sunday night. We came to our room and there was mold all over the ceiling in a corner, and dirt in the bathroom. I went to front desk they said they would move me to another room. I go to check out the room and open the door, and someone was apparently squatting in the room. TV was on trash everywhere, scared the hell out of me to open it and someone apparently staying there. Went back and told the front desk, they said "huh, that's odd. No one should be there". They then gave me key to another room, I go there and the shower head has fallen off! I went back said never mind I guess we will just deal with our room since it is for one night and most of the time we would be at the game. I called around and couldn't find another hotel nearby with decent reviews to stay at for that night anyways.In addition the door to the building did NOT lock, so anyone could walk in and out (might explain the squatters). The TV was nearly off the wall in our room, and there were stains all over. The whole place stank, and was just frightening. I felt like I was in the ghetto somewhere. Honestly I have never been somewhere this bad, and I have stayed at some middle of nowhere Motel 6's before. Pics as well.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r518187342-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -237,9 +332,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This motel is rated at about a 3 and I cannot understand that, but I have to give it a five I would even go higher if I could. I have had to stay at cheaper places because it gets expensive taking care of mom and her cancer and each time I am not staying here then it is a nasty and crime ridden place, like Extended stays and Intown suites. Do not stay at these places they are horrible. Save yourself a headache and stay at Quality Inn where you have security walking the lot and people who want to help you.Yes the rooms are outdated, but it is clean, no bugs, free full breakfast, always hot coffee available, the staff is great and the rooms are huge. The price is unbeatable and there is no bugs, it is comfortable and close to the hospitals as well as anything you need.Overall I have to give it a five star for what you get. Comfort, Security, Price.I mean for under a hundred it's a great deal. This is the third time I have been here and it gets better each time. If you need a special rate for long stays then talk to the sales manager. Kam and the desk clerk actually upgraded me to suite for the same price and it's bigger than my real apartment is.More</t>
   </si>
   <si>
@@ -294,6 +386,48 @@
     <t>Room was clean, breakfast was hot and good (eggs, sausage, waffles) location was great (close to medical center). Only reason for 4/5 stars was one lamp had no light bulb and building C where we was didn't have a locked door. There's a sign saying building is accessed by room key only but it could be opened by anyone at any time. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r504163938-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504163938</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>The worst hotel I have ever stayed in</t>
+  </si>
+  <si>
+    <t>To say this hotel is dirty and neglected is an understatement. The carpets in the hallways were filthy, there were broken pieces of furniture in the hallways and garbage everywhere. The bathroom was dirty and there was hair on the floor and in the sink. Plus the shower was not clean along with cracked tiles and stained tubs. And the towel rack was hanging from one screw in the wall. The pillows on the beds are not even full size. They are the size of throw pillows and the lampshade by the bed was cracked with pieces missing from it. The carpets were badly stained and the balcony was so dirty we were afraid to step out on it. The pool may be the worst thing I have ever seen in a hotel. The baby pool looked like a an outdoor fountain with dirt and rocks in it. And the pool looked more like a pond. Green stains everywhere, missing tiles and garbage in it (we saw hair, band aids, rocks, mulch, paper, etc.) in the water. The pool furniture was scary. Everything was broken, chairs were missing most if their straps, tabes dry rotted with chunks missing from them ... just ridiculous. Add in the cigarette butts that laid there for days and it was sickening. I cannot believe they have the audacity to charge people to stay in this place. It looks like the hotel was in a...To say this hotel is dirty and neglected is an understatement. The carpets in the hallways were filthy, there were broken pieces of furniture in the hallways and garbage everywhere. The bathroom was dirty and there was hair on the floor and in the sink. Plus the shower was not clean along with cracked tiles and stained tubs. And the towel rack was hanging from one screw in the wall. The pillows on the beds are not even full size. They are the size of throw pillows and the lampshade by the bed was cracked with pieces missing from it. The carpets were badly stained and the balcony was so dirty we were afraid to step out on it. The pool may be the worst thing I have ever seen in a hotel. The baby pool looked like a an outdoor fountain with dirt and rocks in it. And the pool looked more like a pond. Green stains everywhere, missing tiles and garbage in it (we saw hair, band aids, rocks, mulch, paper, etc.) in the water. The pool furniture was scary. Everything was broken, chairs were missing most if their straps, tabes dry rotted with chunks missing from them ... just ridiculous. Add in the cigarette butts that laid there for days and it was sickening. I cannot believe they have the audacity to charge people to stay in this place. It looks like the hotel was in a war. You know their new slogan "Badabook Badaboom"?Well it should be more like "Badabook Badaembarrassment." I will never stay in another Choice Hotel again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Naveed K, Manager at Quality Inn &amp; Suites Reliant Park/Medical Center, responded to this reviewResponded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>To say this hotel is dirty and neglected is an understatement. The carpets in the hallways were filthy, there were broken pieces of furniture in the hallways and garbage everywhere. The bathroom was dirty and there was hair on the floor and in the sink. Plus the shower was not clean along with cracked tiles and stained tubs. And the towel rack was hanging from one screw in the wall. The pillows on the beds are not even full size. They are the size of throw pillows and the lampshade by the bed was cracked with pieces missing from it. The carpets were badly stained and the balcony was so dirty we were afraid to step out on it. The pool may be the worst thing I have ever seen in a hotel. The baby pool looked like a an outdoor fountain with dirt and rocks in it. And the pool looked more like a pond. Green stains everywhere, missing tiles and garbage in it (we saw hair, band aids, rocks, mulch, paper, etc.) in the water. The pool furniture was scary. Everything was broken, chairs were missing most if their straps, tabes dry rotted with chunks missing from them ... just ridiculous. Add in the cigarette butts that laid there for days and it was sickening. I cannot believe they have the audacity to charge people to stay in this place. It looks like the hotel was in a...To say this hotel is dirty and neglected is an understatement. The carpets in the hallways were filthy, there were broken pieces of furniture in the hallways and garbage everywhere. The bathroom was dirty and there was hair on the floor and in the sink. Plus the shower was not clean along with cracked tiles and stained tubs. And the towel rack was hanging from one screw in the wall. The pillows on the beds are not even full size. They are the size of throw pillows and the lampshade by the bed was cracked with pieces missing from it. The carpets were badly stained and the balcony was so dirty we were afraid to step out on it. The pool may be the worst thing I have ever seen in a hotel. The baby pool looked like a an outdoor fountain with dirt and rocks in it. And the pool looked more like a pond. Green stains everywhere, missing tiles and garbage in it (we saw hair, band aids, rocks, mulch, paper, etc.) in the water. The pool furniture was scary. Everything was broken, chairs were missing most if their straps, tabes dry rotted with chunks missing from them ... just ridiculous. Add in the cigarette butts that laid there for days and it was sickening. I cannot believe they have the audacity to charge people to stay in this place. It looks like the hotel was in a war. You know their new slogan "Badabook Badaboom"?Well it should be more like "Badabook Badaembarrassment." I will never stay in another Choice Hotel again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r503352354-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503352354</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Awesom stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a very nice time ,the employee and especially the house keepers were very helpful we enjoyed our stay of 5 days the kids loved the pool the rooms were nice and clean we had a very nice time the breakfast was good too the staff was very pleasant when we go back this will be our first choice thank u all </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r501923910-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -337,9 +471,6 @@
   </si>
   <si>
     <t>Okay for price, dated and musty with visable bathroom mold.  Bed only has 3 pillows the size of chicken nuggets.  Some sketchy people hanging around, glad you had to have a key to get in. Close to medical center.</t>
-  </si>
-  <si>
-    <t>July 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r498002293-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -371,6 +502,39 @@
 This is 2 start hotel and you shouldn't expect much, but let's be honest ''Quality Inn'' sounds to pretentious for what you will see. They have few buildings, I stayed in building B which is separate from main building (with reception and breakfast area). It looks outdated: walls and ceilings  need some work to be done and carpets need good cleaning. Hallway smells... like old place and a wet dog.  For my surprise first impression about the room wasn't bad at all. Though outdated it still looked clean, it was well aired and has all main things you need in the hotel room. Then I had a second look and noticed some stains on the wall (near trash can), the was a trash in ice bucket. The bath tube looked a bit ''tired'', but bathroom was clean and shower was good.  Though I do kill one cockroach during my stay (i'm not sharing my room).  On the bright side the bed was very comfortable and place was surprisingly quiet (just background noise from outside) and I was able to rest after my day trips.  TV reception was OK, Wi-Fi a bit slow (not too bad). I...I choose this hotel because it was cheapest option in the best location for me. I was planning to visit Downtown area and places near by  and could do it easily by using public transportation (though closest bus stop is about 10 minutes walk). This is 2 start hotel and you shouldn't expect much, but let's be honest ''Quality Inn'' sounds to pretentious for what you will see. They have few buildings, I stayed in building B which is separate from main building (with reception and breakfast area). It looks outdated: walls and ceilings  need some work to be done and carpets need good cleaning. Hallway smells... like old place and a wet dog.  For my surprise first impression about the room wasn't bad at all. Though outdated it still looked clean, it was well aired and has all main things you need in the hotel room. Then I had a second look and noticed some stains on the wall (near trash can), the was a trash in ice bucket. The bath tube looked a bit ''tired'', but bathroom was clean and shower was good.  Though I do kill one cockroach during my stay (i'm not sharing my room).  On the bright side the bed was very comfortable and place was surprisingly quiet (just background noise from outside) and I was able to rest after my day trips.  TV reception was OK, Wi-Fi a bit slow (not too bad). I wish room would have more electric sockets (majority of them were occupied by room appliances). The breakfast was good. I didn't expect much, but it was fresh and enough to start the day. The customer service was OK. I didn't use pool or ''gym'', but they looked OK for me. As  I said hotel location is very good, and they have small shopping / dining area in about 5 mins drive.Overall would I stay here again? For a budget travel definitely yes ( it was cheapest hotel in the area).  Would I recommend it ? If you want to save money and don't need ''fancy'', then yes..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r492499053-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492499053</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Ok hotel. Not great. Just OK</t>
+  </si>
+  <si>
+    <t>This hotel was good for us only because of the proximity to NRG stadium. Other than that it was pretty disappointing. Pros:1. Continental breakfast was good2. Walking distance to NRG stadium3. Mini fridge and microwave in room. Cons:1. Mold on the walls of the bathroom2. No water pressure in shower3. Hallways were moist and had a smell. 4. We paid for 3 couples to stay. 2 beds and 1 couch pullout. We identified this when purchase of the room. When we asked for pillows and sheets they said they were out and offered 1 sheet (no comforter or pillow). We had to attempt to split pillow between all of us and one couple had to sleep with only a sheet. 5. 32" TV's had terrible reception. Fuzzy to the point we're half the channels we're unwatchable. 6. Pillows were square in shape and not rectangular which was odd. Seemed more like throw pillows than bed pillows. Would look at other options if I stay in Houston again. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was good for us only because of the proximity to NRG stadium. Other than that it was pretty disappointing. Pros:1. Continental breakfast was good2. Walking distance to NRG stadium3. Mini fridge and microwave in room. Cons:1. Mold on the walls of the bathroom2. No water pressure in shower3. Hallways were moist and had a smell. 4. We paid for 3 couples to stay. 2 beds and 1 couch pullout. We identified this when purchase of the room. When we asked for pillows and sheets they said they were out and offered 1 sheet (no comforter or pillow). We had to attempt to split pillow between all of us and one couple had to sleep with only a sheet. 5. 32" TV's had terrible reception. Fuzzy to the point we're half the channels we're unwatchable. 6. Pillows were square in shape and not rectangular which was odd. Seemed more like throw pillows than bed pillows. Would look at other options if I stay in Houston again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r490821809-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490821809</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>Stayed here for $85/night for our vacation. The property was dirty and the parking lot stank. Everything appears run down. I was pleasantly surprised that the actual room, although not nice, appeared clean and smelled nice. The pool was closed and the doors to the balcony wouldn't open. There also seem to be no elevators. I would have preferred to move to another hotel but it wasn't worth losing money over. I definitely wouldn't stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r488795825-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -428,6 +592,42 @@
     <t>Quality Inn &amp; Suites at 2364 South Loop west Houston Tx 77054  This was one of the worst stays we have ever had at a hotel.  There reservation system required us to select that we needed a crib when we put that there was going to be 5 people in the room (the crib was for my grandson)  When we got to the hotel they did not know anything about a crib and they were not sure if they even had one or where it was.  They were rude and not very understanding at all and said that the cribs are a first come first sereve basis.  We told them that we had made the reservations well in advance and that they should have enough cribs for anyone that reserves one.  The manager made it seem like not having the crib would be a temporary situaion and gave us a room with a hide a bed so that we could put the matress on the floor for my grandson.  This however did not end up being temporary and they didnt get us a crib at any point during our stay.  We suggested that maybe they should go buy another one but they rudely dismissed this idea.  My daughter in law in order to make sure her son stayed safe slept on the matress with him and said it was very uncomfortable and that there were springs sticking out in multiple...Quality Inn &amp; Suites at 2364 South Loop west Houston Tx 77054  This was one of the worst stays we have ever had at a hotel.  There reservation system required us to select that we needed a crib when we put that there was going to be 5 people in the room (the crib was for my grandson)  When we got to the hotel they did not know anything about a crib and they were not sure if they even had one or where it was.  They were rude and not very understanding at all and said that the cribs are a first come first sereve basis.  We told them that we had made the reservations well in advance and that they should have enough cribs for anyone that reserves one.  The manager made it seem like not having the crib would be a temporary situaion and gave us a room with a hide a bed so that we could put the matress on the floor for my grandson.  This however did not end up being temporary and they didnt get us a crib at any point during our stay.  We suggested that maybe they should go buy another one but they rudely dismissed this idea.  My daughter in law in order to make sure her son stayed safe slept on the matress with him and said it was very uncomfortable and that there were springs sticking out in multiple places, so she did not get even one good nights rest.  Another big problem was that when I made the reservations there was nothing to indicate that the parking lot was being resurfaced.  My wife and I both have a handicap and cant walk far, but since the parking lot was being resurfaced we had to walk from infront of the lobby to the furthest building almost the entire time we stayed there.  	There was also a lot of small problems with the room 1. The outlet where the microwave and fridge was had only one working plug so we had to decide between the fridge or the microwave working.2. There was a mud dauber nest in the room.3. The people cleaning the room never replaced the drink cups.4. One of the times the room was cleaned the forgot to give us any wash clothes so we called the desk and a couple hours latter they still had not brought them so my son had to go to the desk and ask for them.5. The bath fan was so loud it was not usable.6. The tv reception was so bad you would think the signal was coming from an old antenna.7. The toilet seat was very lose8. The alarm clock was set to the wrong time and couldnt be fixed because there was something wrong with the buttons on it.9. There was no ani-slip mat or stickers in the tub.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r468191027-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468191027</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking is NOT free. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They claim they have free parking online but after arrival they wanted to charge us $20 per car per day. The whole place was dated and smelled disgusting. Stains on the bed skirt, just all around shady feeling place. We left because I refused to be taken advantage of, they knew we were there for rodeo and everything was booked so they could get away with adding charges. I stayed with a friend instead. Also it didn't feel safe at all. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r467936312-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467936312</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Very friendly and accommodating staff</t>
+  </si>
+  <si>
+    <t>I was staying here during my husband's surgery at MD Anderson.  The staff was extremely kind, and my room was clean.  The hotel is old and in need of some updating, but I really appreciated the hourly shuttle back and forth from the hospital.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r462126502-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -479,6 +679,45 @@
     <t>It's just what we needed to go to the game. I wish the employees had name tags so I could name the ones who made it nice. The room had some issues but were just need to sleep in it. The shower in 149 has very weak pressure. the room was nice and warm when we arrived and stay like that for the whole trip it was so cold outside. its not bad for a night or two to stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r440980747-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440980747</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Overall "meh", not very clean, not worth the cheap price.</t>
+  </si>
+  <si>
+    <t>We booked an accessible suite (2 rooms), but were told at check in that the suites are all on the second floor and there's no elevator. We were instead stuck in a single room on the first floor. Not the end of the world, but made the trip with 2 kids much more difficult. Hotel overall is old and worn out, but generally in acceptable condition (I don't care if it's outdated). But, the cleanliness of our room left much to be desired. The carpet left  black stains on our feet and crawling baby's knees. Water came out of tub brown (assume room is rarely used), but cleared up and was OK afterwards. Location is decent, although like most of Houston - you'll have to drive for food. However, the apartment complex next door was questionable and we had to call the police for a noise complaint (was 4th of July).Staff was generally pleasant, and shuttle to medical district was handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We booked an accessible suite (2 rooms), but were told at check in that the suites are all on the second floor and there's no elevator. We were instead stuck in a single room on the first floor. Not the end of the world, but made the trip with 2 kids much more difficult. Hotel overall is old and worn out, but generally in acceptable condition (I don't care if it's outdated). But, the cleanliness of our room left much to be desired. The carpet left  black stains on our feet and crawling baby's knees. Water came out of tub brown (assume room is rarely used), but cleared up and was OK afterwards. Location is decent, although like most of Houston - you'll have to drive for food. However, the apartment complex next door was questionable and we had to call the police for a noise complaint (was 4th of July).Staff was generally pleasant, and shuttle to medical district was handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r437510044-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437510044</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Don't plan to use internet</t>
+  </si>
+  <si>
+    <t>I have stayed here a number of times,  bottom line OK at best.  Breakfast is better than most for a free breakfast that's the up, down,  rooms just OK, work out room.. a joke.. internet access TERRIBLE!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r437268240-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -512,9 +751,6 @@
     <t>Average hotel at a good price. Clean and comfortable plus a filling breakfast. Our stay was quick and tiring but this hotel refreshed us a bunch. Pillows weren't the greatest but the beds were comfy. Only problem was a one person coffee maker for four people.</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r410372323-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -533,6 +769,39 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r409681762-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409681762</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Dated, Musty Smelling, Worn (out)</t>
+  </si>
+  <si>
+    <t>We had a suite consisting of two connecting rooms with a king bed in one and a sofa in the other.  Two baths were convenient, but only one had a hair dryer.  Wouldn't suggest walking around in bare feet for a number of reasons, DIRTY carpeting and spiders.  We mentioned the need for pest control to the front desk and they responded quickly, but the queasiness never left.  Bed was comfortable, but showers had NO pressure.  They had the restriction in the shower head so tight that it literally dribbled out.  Even with the shower head turned straight back, the water dribbled straight down!  Breakfast was what one would expect from a  Quality Inn, nothing more.  Next to worst thing?  It was the garbage man picking up the trash dumpsters at 4 AM!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a suite consisting of two connecting rooms with a king bed in one and a sofa in the other.  Two baths were convenient, but only one had a hair dryer.  Wouldn't suggest walking around in bare feet for a number of reasons, DIRTY carpeting and spiders.  We mentioned the need for pest control to the front desk and they responded quickly, but the queasiness never left.  Bed was comfortable, but showers had NO pressure.  They had the restriction in the shower head so tight that it literally dribbled out.  Even with the shower head turned straight back, the water dribbled straight down!  Breakfast was what one would expect from a  Quality Inn, nothing more.  Next to worst thing?  It was the garbage man picking up the trash dumpsters at 4 AM!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r395923563-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395923563</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>The property is within walking range of the NRG stadium for people in average health.  They also provide a shuttle to the Texas Medical Center.  We found the property exterior and grounds to be relatively clean, given that it's a in the city hotel.  Our room was clean, and everything worked as it should.  Breakfast was similar to other Quality Inns I've stayed at.  In addition to the usual carbs (waffles, danishes cereal etc.), Several choices of protein were available, which included eggs, sausage and yogurt.  Employees I interacted were polite and courteous.  I definitely will stay again when the need arises.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r395506119-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -548,9 +817,6 @@
     <t>We said when we made the reservation that we were driving in and needed a late night check in. We arrived at 1am and the server was doing maintenance so there was no way they could check us in. The front desk guy called his manager who told him to give us a room (we had our email confirmation) but the guy would need to go knock on doors to see if they were occupied because the CPU was down and couldn't tell him. I felt bad for the people getting disturbed at this hour. We finally got a room. But despite prepaying when we made the reservation they needed to run out card and hold the funds until they could verify that in the morning when the system came back up. Good thing we had money. The room was not very clean. There was candy on the floor and a light bulb missing in the lamp etc. They had run out of coffee at the continental breakfast and no one refilled it. We need to come back next week as we are having another medical procedure done but we will be staying elsewhere. I guess it's ok for the money we spent but just not my type of service. MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>We said when we made the reservation that we were driving in and needed a late night check in. We arrived at 1am and the server was doing maintenance so there was no way they could check us in. The front desk guy called his manager who told him to give us a room (we had our email confirmation) but the guy would need to go knock on doors to see if they were occupied because the CPU was down and couldn't tell him. I felt bad for the people getting disturbed at this hour. We finally got a room. But despite prepaying when we made the reservation they needed to run out card and hold the funds until they could verify that in the morning when the system came back up. Good thing we had money. The room was not very clean. There was candy on the floor and a light bulb missing in the lamp etc. They had run out of coffee at the continental breakfast and no one refilled it. We need to come back next week as we are having another medical procedure done but we will be staying elsewhere. I guess it's ok for the money we spent but just not my type of service. More</t>
   </si>
   <si>
@@ -585,6 +851,36 @@
   </si>
   <si>
     <t xml:space="preserve">So I cannot recommend this place, although the front desk staff was very polite and helpful. The place is just too run down. The carpet is gross, the bathroom was moldy, the doors don't close properly, broken lamps, strong mildew stink...just bad.  It is an easy walk to the NRG stadium though. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r383254300-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383254300</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Game at stadium</t>
+  </si>
+  <si>
+    <t>The room was so dirty along with the halls in the buildings. The shower head and tub were gross. The only thing I liked about this place was the distance from the stadium. That was it. Will definitely be staying some where else next time we come to Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r372428971-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372428971</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Walk to NRG</t>
+  </si>
+  <si>
+    <t>The location was what we paid for! The hotel is definitely in need of some upgrades to compete with the likes of the Crowne Plaza around the corner! It was definitely affordable. Breakfast was ok! The distance from NRG was excellent. We visited for the SWAC Championship, so we got what we paid for, I guess!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r369358947-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -655,6 +951,48 @@
     <t>We recently stayed at this hotel during a trip to the Houston Livestock Show because as a group we needed to reserve several rooms and this was the only hotel that had the number of rooms we needed available on short notice.  We have stayed at several Quality Inns in the past but this one was by far the dirtiest of them all.  There were clumps of hair on the bathroom floor, what looked to be mold on the ceiling and walls, the bathroom faucet was not attached to the sink and there was absolutely no hot water at 10:30 at night.  I would not recommend this hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r344144741-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344144741</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely Gross! </t>
+  </si>
+  <si>
+    <t>My kids and I drove down for the State Playoff game.  We checked in and went to the stadium. When we returned around 11:30pm / we noticed no pillows on the bed.  We requested pillows and a blanket.  While we were waiting, my son noticed dog food all over the floor.  (We don't have a dog with us.)  The bathroom door looks like a dog was locked in there, it is scratched up.  I went to the front desk and met employee Vanessa.  She was dragging a blanket, comforter and 1 pillow across the floor and attempting to give me these items.  I asked for a refund- so we could check out and leave. It took awhile, but she finally honored my request.   Now it is after midnight, I was on the streets of Houston with my 3 kids and no clue where to go.  We put in the GPS our address and drove all the way to DFW in the middle of the night.  I filed a complaint with Quality Inn- they also filed a complaint with the franchise owner, whom I was supposed to hear from within 72 hours - it's been a week.   I would stay away from this property.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>My kids and I drove down for the State Playoff game.  We checked in and went to the stadium. When we returned around 11:30pm / we noticed no pillows on the bed.  We requested pillows and a blanket.  While we were waiting, my son noticed dog food all over the floor.  (We don't have a dog with us.)  The bathroom door looks like a dog was locked in there, it is scratched up.  I went to the front desk and met employee Vanessa.  She was dragging a blanket, comforter and 1 pillow across the floor and attempting to give me these items.  I asked for a refund- so we could check out and leave. It took awhile, but she finally honored my request.   Now it is after midnight, I was on the streets of Houston with my 3 kids and no clue where to go.  We put in the GPS our address and drove all the way to DFW in the middle of the night.  I filed a complaint with Quality Inn- they also filed a complaint with the franchise owner, whom I was supposed to hear from within 72 hours - it's been a week.   I would stay away from this property.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r335960999-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335960999</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Nice staff but not worth the price</t>
+  </si>
+  <si>
+    <t>Stayed here last night for the convenience of walking to the Bowl game. The staff was friendly and helpful, however, the rooms were in need of renovation. There were holes in the carpet, paint on the shower tiles, banged up walls, and old, worn out bed covers. I also rely on hotels to have operating hair dryers as they are bulky to pack. They had one it just didn't work, causing me to waste time washing the already applied mousse out and airdrying my air. Housekeeping then knocked on my door at 9:30 am to see if we were checking out, as she did every door. This was odd and has never happened at any of the many hotels I have stayed at. Wouldn't it be easier to get a print out from the front desk? We didn't even bother to try breakfast. Disappointing overall. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Stayed here last night for the convenience of walking to the Bowl game. The staff was friendly and helpful, however, the rooms were in need of renovation. There were holes in the carpet, paint on the shower tiles, banged up walls, and old, worn out bed covers. I also rely on hotels to have operating hair dryers as they are bulky to pack. They had one it just didn't work, causing me to waste time washing the already applied mousse out and airdrying my air. Housekeeping then knocked on my door at 9:30 am to see if we were checking out, as she did every door. This was odd and has never happened at any of the many hotels I have stayed at. Wouldn't it be easier to get a print out from the front desk? We didn't even bother to try breakfast. Disappointing overall. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r333606014-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -670,9 +1008,6 @@
     <t>We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there...We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there was a leak in the room underneath. I said that we were not running any water, because we weren't. He wanted to come in but I would not let him and was backed up by my husband. Then he left. 5 minutes later, the phone rang. My son was still trying to go to sleep with all the interruptions. This time it was the manager asking if we were running water. We said no, we were not other than just having flushed the toilet one time a few minutes prior. After that, there weren't any other interruptions that night. I was not too pleased with the fact that someone knocked, and basically as soon as he finished knocking, tried to OPEN the door with his staff key! Really?? I didn't even know who it was at that point - and with the totally un-secure exterior doors, it didn't feel like a great situation to be in. Another complaint - the room doors have nothing to slow them down from banging super loud when people shut them. Nice. Thankfully I bring earplugs, so I slept OK. There were no washcloths in the room. Not sure what that's about, and we also didn't have any alarm clock. Breakfast is good food-choice wise, but in a very small area with people running into each other while trying to get food and drinks. If they would just open it up more somehow into the lobby, I am sure it would be more pleasant for those trying to eat and get food. We might stay again, due to the discount, but I will probably look around before re-booking this place. Just know what you're getting into.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there...We chose to stay here for an appointment at MD Anderson because they have a reasonable medical rate (65/night plus tax). I did not expect a great experience because of the reviews on here, but I have to say that our stay was mixed. Check in was very easy. Our room was ready when we arrived at about 2:30 pm. The room was a nice size, but the room number was a piece of paper taped to the door...not the best thing you wanted to see on arrival. The exterior doors have signs saying they are locked "24 hrs a day for your security" - BUT they aren't locked 24 hours a day. I finally found one in the morning that was actually locked. Most of the rest were not locked anytime we went through them. Hallway carpet is dirty. The walls have chipped paint. This is not the best looking hotel for these reasons. But everything worked OK in the room, except for very slow internet. Our stay was going normally until at about 8:15 PM, someone knocked on our door. I went to answer it, and before I could even get to the door, I heard a key being inserted. I said, "No, don't come in" because my son was sleeping and my husband was using the restroom. Looking through the peephole, I saw a man outside the door. He asked if we were running water because there was a leak in the room underneath. I said that we were not running any water, because we weren't. He wanted to come in but I would not let him and was backed up by my husband. Then he left. 5 minutes later, the phone rang. My son was still trying to go to sleep with all the interruptions. This time it was the manager asking if we were running water. We said no, we were not other than just having flushed the toilet one time a few minutes prior. After that, there weren't any other interruptions that night. I was not too pleased with the fact that someone knocked, and basically as soon as he finished knocking, tried to OPEN the door with his staff key! Really?? I didn't even know who it was at that point - and with the totally un-secure exterior doors, it didn't feel like a great situation to be in. Another complaint - the room doors have nothing to slow them down from banging super loud when people shut them. Nice. Thankfully I bring earplugs, so I slept OK. There were no washcloths in the room. Not sure what that's about, and we also didn't have any alarm clock. Breakfast is good food-choice wise, but in a very small area with people running into each other while trying to get food and drinks. If they would just open it up more somehow into the lobby, I am sure it would be more pleasant for those trying to eat and get food. We might stay again, due to the discount, but I will probably look around before re-booking this place. Just know what you're getting into.More</t>
   </si>
   <si>
@@ -709,6 +1044,42 @@
     <t>The hotel staff is great!!!! The room was big and quiet.  The breakfast was ver good.  The staff was always very eager to help you out.  I would definitely stay here again.  We felt very safe here.  We were doing a show at the NRG center.  The location is very close by.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r322912833-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322912833</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Great Location.Problems with room</t>
+  </si>
+  <si>
+    <t>Ok Location great close to the Texans only a short walk.But boy the things that were wrong with our room outway the positives.There was a few inches gap in our sliding door that could not be shut so It stayed open the whole time so security wise terrible.It seemed to have a bad fixit job there was an iron bar jammed horizintaly accross the sliding door.I don't know if that was there to stop the jam or It was just a bit of window that had fallen off.Terrible Tv reception all channels had a fuzz alot of them you couldn't even see what was going on.A Terribly loud ac unit I wear airplugs but they didn't even help as the noise just dominated the room.Not being able to access through the closest door to our room as you could only exit from the one side.This place is just run down but if you look past that and think about the location then enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Ok Location great close to the Texans only a short walk.But boy the things that were wrong with our room outway the positives.There was a few inches gap in our sliding door that could not be shut so It stayed open the whole time so security wise terrible.It seemed to have a bad fixit job there was an iron bar jammed horizintaly accross the sliding door.I don't know if that was there to stop the jam or It was just a bit of window that had fallen off.Terrible Tv reception all channels had a fuzz alot of them you couldn't even see what was going on.A Terribly loud ac unit I wear airplugs but they didn't even help as the noise just dominated the room.Not being able to access through the closest door to our room as you could only exit from the one side.This place is just run down but if you look past that and think about the location then enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r321167617-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321167617</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Good value for Houston Medical Center</t>
+  </si>
+  <si>
+    <t>We were in Houston for a week of doctor's appointments.  Most places were full with conventioneers.  Also, what was available was very expensive.  Quality Inn came to our rescue.  They have a medical discount that was affordable.  It is older and somewhat worn, but the beds and showers were fine.  The breakfast was good-even included eggs and sausage.  We had a couple of problems that were quickly fixed.  The desk clerks were very helpful, especially when we weren't sure when we'd be leaving.  We felt safe; there is an inside hall. My high rating is mainly due to location, affordability and good beds. NRG stadium is very close.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r320533371-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -724,9 +1095,6 @@
     <t>The place is a bit older and the windows don't close tight so the noise from the highway is noticeable even if you run the AC. The rooms are old but clean as are the bathrooms. The water trickles out and for showers, it can take some time to wash all the soap off! The gym has a treadmill and an elliptical walker as well as some fixed exercise gear. You need to be creative to do a good workout. Breakfast is as usual with eggs, sausage paddies and fruits (banana, apples, oranges)/yogurt (for me) as well as all the other items with sugar (waffles, cereals, juices, etc). Nothing fancy but again quite nice and you can get full. Overall, staff is friendly and helpful but I woke up a few times because of the traffic noise. However, it is within a short walking distance to NRG and hence quite convenient, with some restaurants just nearby (as is the Main Street with many shops and restaurants).MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>The place is a bit older and the windows don't close tight so the noise from the highway is noticeable even if you run the AC. The rooms are old but clean as are the bathrooms. The water trickles out and for showers, it can take some time to wash all the soap off! The gym has a treadmill and an elliptical walker as well as some fixed exercise gear. You need to be creative to do a good workout. Breakfast is as usual with eggs, sausage paddies and fruits (banana, apples, oranges)/yogurt (for me) as well as all the other items with sugar (waffles, cereals, juices, etc). Nothing fancy but again quite nice and you can get full. Overall, staff is friendly and helpful but I woke up a few times because of the traffic noise. However, it is within a short walking distance to NRG and hence quite convenient, with some restaurants just nearby (as is the Main Street with many shops and restaurants).More</t>
   </si>
   <si>
@@ -775,6 +1143,42 @@
     <t>They offer a good medical rate and free shuttle to the med center and nearby locations, which is great. The hotel itself is what I would expect for the price. Furnishings are fine, but there are stains and scratches on the walls and obvious signs of water damage and maybe mold in the bathroom. The room smells musty and there was a strong scent of chlorine in the room although it's not close to the pool. The air conditioner in the room is really loud. The free breakfast is standard and the staff seem nice. If we need to come back to the hospital again, we'll likely stay here because of the great rates. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r307099472-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307099472</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Great location, decent hotel.</t>
+  </si>
+  <si>
+    <t>I was skeptical staying at a quality inn but decided to try it out for a quick family getaway. The staff was nice and accomodating, we arrived early. The room was nice although it did have a slight musky smell but was very clean . the pressured in the shower was very low and it didn't get to hot. The bfast was nice as well. It was very close to the Zoo as well plenty of other places to visit and eat at. I would start here again and recommend it for a quick stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r285651286-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285651286</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Good medical rates, improvement needed though</t>
+  </si>
+  <si>
+    <t>We've stayed here for a few years and it is okay, nothing special.  We have to come here regularly so they do give good medical rates so we keep returning.  Location to medical center is very good.  It's also good if you are going to the rodeo or some event at the NRG center or Astrodome as it is across the street from them.  In that case, book really early.  We usually have good arrival welcomes and departures.  The rooms with double bed, have a refrigerator and microwave which is very helpful.  Room is comfortable and so is the bed.  There is very little room for a roll away and they are hard to find as they go quickly.  We usually bring a blow up mattress for my daughter who is happy with that arrangement.  The room is usually pretty clean though this time, it was weird that the room was clean but a plastic spoon was just laying on the carpet.  Bath was clean.  Plenty of towels.  The maids are nice enough to give you extra towels and sheets if you catch them while they are still on duty.  If you need anything from the front desk, you may get help after a long wait or you may get promises.  I don't know if they are just understaffed but sometimes they show up with your request.  This time we asked for a new remote for our TV and they...We've stayed here for a few years and it is okay, nothing special.  We have to come here regularly so they do give good medical rates so we keep returning.  Location to medical center is very good.  It's also good if you are going to the rodeo or some event at the NRG center or Astrodome as it is across the street from them.  In that case, book really early.  We usually have good arrival welcomes and departures.  The rooms with double bed, have a refrigerator and microwave which is very helpful.  Room is comfortable and so is the bed.  There is very little room for a roll away and they are hard to find as they go quickly.  We usually bring a blow up mattress for my daughter who is happy with that arrangement.  The room is usually pretty clean though this time, it was weird that the room was clean but a plastic spoon was just laying on the carpet.  Bath was clean.  Plenty of towels.  The maids are nice enough to give you extra towels and sheets if you catch them while they are still on duty.  If you need anything from the front desk, you may get help after a long wait or you may get promises.  I don't know if they are just understaffed but sometimes they show up with your request.  This time we asked for a new remote for our TV and they said twice they were coming but never did.  But I do give them credit that the TV remote and the burnt out bathroom bulb were repaired for the next evening.  I think its hard for these guys to get away from the desk but they could tell you they can't help, couldn't they?  Otherwise, it is a good price for the hotel and we appreciate the medical rates. Breakfast was pretty decent too.  Wifi was good the first day, 2nd day it was worthless though.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We've stayed here for a few years and it is okay, nothing special.  We have to come here regularly so they do give good medical rates so we keep returning.  Location to medical center is very good.  It's also good if you are going to the rodeo or some event at the NRG center or Astrodome as it is across the street from them.  In that case, book really early.  We usually have good arrival welcomes and departures.  The rooms with double bed, have a refrigerator and microwave which is very helpful.  Room is comfortable and so is the bed.  There is very little room for a roll away and they are hard to find as they go quickly.  We usually bring a blow up mattress for my daughter who is happy with that arrangement.  The room is usually pretty clean though this time, it was weird that the room was clean but a plastic spoon was just laying on the carpet.  Bath was clean.  Plenty of towels.  The maids are nice enough to give you extra towels and sheets if you catch them while they are still on duty.  If you need anything from the front desk, you may get help after a long wait or you may get promises.  I don't know if they are just understaffed but sometimes they show up with your request.  This time we asked for a new remote for our TV and they...We've stayed here for a few years and it is okay, nothing special.  We have to come here regularly so they do give good medical rates so we keep returning.  Location to medical center is very good.  It's also good if you are going to the rodeo or some event at the NRG center or Astrodome as it is across the street from them.  In that case, book really early.  We usually have good arrival welcomes and departures.  The rooms with double bed, have a refrigerator and microwave which is very helpful.  Room is comfortable and so is the bed.  There is very little room for a roll away and they are hard to find as they go quickly.  We usually bring a blow up mattress for my daughter who is happy with that arrangement.  The room is usually pretty clean though this time, it was weird that the room was clean but a plastic spoon was just laying on the carpet.  Bath was clean.  Plenty of towels.  The maids are nice enough to give you extra towels and sheets if you catch them while they are still on duty.  If you need anything from the front desk, you may get help after a long wait or you may get promises.  I don't know if they are just understaffed but sometimes they show up with your request.  This time we asked for a new remote for our TV and they said twice they were coming but never did.  But I do give them credit that the TV remote and the burnt out bathroom bulb were repaired for the next evening.  I think its hard for these guys to get away from the desk but they could tell you they can't help, couldn't they?  Otherwise, it is a good price for the hotel and we appreciate the medical rates. Breakfast was pretty decent too.  Wifi was good the first day, 2nd day it was worthless though.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r262169004-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -827,6 +1231,39 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r257313866-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257313866</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Worst of the Worst</t>
+  </si>
+  <si>
+    <t>Location great, everything else not so great.  Room was poor, housekeeping didn't even come make beds or give clean towels.  Room had a horrible odor.  The tub was dirty, the toilet backed up.  Found some "creatures"  making a home in the chair.  Will not stay here again, don't care how good of a location it is, never again!!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r257135006-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257135006</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Avoid this hotel</t>
+  </si>
+  <si>
+    <t>The good news is that they had a room when Candlewood Suites didn't honor our reservation. The bed news is that we had to stay there. The room was dreary with only one working lamp. The sofabed was broken down and awful. The car alarms started going off at 4am. It should be named the Poor Quality Inn.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r251138566-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -894,6 +1331,44 @@
     <t>This is a nasty motel and all the positive reviews have got to be bogus!!  The carpets in the hall and in the rooms are beyond nasty.  They had bugs both times  The bedding is burned and stained.  I called the maid into the room to look at the bathroom floor.  There was urine and pubic hairs on the floor in front of the commode.  I showed her blood on the bedskirt and she kept saying in SPANISH that it was only a stain.  She brought  DIRTY mop with a towel around it to wipe AROUND the urine.  The entry ways into the back buildings are stained and dirty.  Do not believe any positive review you read here.  The lobby is nice, that is it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r228515335-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228515335</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Stay away!!!!!!!</t>
+  </si>
+  <si>
+    <t>I am a single woman who was spending a night alone in the hotel, while my home was being repaired. I was initially given a room in a building that was deserted and seemed extremely unsafe. There were nasty stains all over the walls of the stairway. There was no elevator, so I had to drag my heavy suitcase up the stairs. When I opened the door to the room and entered the restroom, there was a roach on the floor. I walked over the the window shades, and there was another roach and several bugs on the shade. The building seemed creepy, deserted and unsafe. 
+I asked to be moved to another room in the main building. The only good thing about this hotel was the young man at the front desk who helped me. He was extremely professional and helpful. He moved me to another room in the main building without any problems. Again, I had to drag my suitcase up a flight of stairs in this different building, and again, there were gross stains all over the walls of the staircase. The rooms are extremely dated. The furniture is of the lowest quality. I had to shower in my flip flops, because of the condition of the bathtub. Overall, this was the absolute worst hotel I've ever visited. I wouldn't stay here again if they paid me to. I've been to pay-by-the-hour motels that were 10 times...I am a single woman who was spending a night alone in the hotel, while my home was being repaired. I was initially given a room in a building that was deserted and seemed extremely unsafe. There were nasty stains all over the walls of the stairway. There was no elevator, so I had to drag my heavy suitcase up the stairs. When I opened the door to the room and entered the restroom, there was a roach on the floor. I walked over the the window shades, and there was another roach and several bugs on the shade. The building seemed creepy, deserted and unsafe. I asked to be moved to another room in the main building. The only good thing about this hotel was the young man at the front desk who helped me. He was extremely professional and helpful. He moved me to another room in the main building without any problems. Again, I had to drag my suitcase up a flight of stairs in this different building, and again, there were gross stains all over the walls of the staircase. The rooms are extremely dated. The furniture is of the lowest quality. I had to shower in my flip flops, because of the condition of the bathtub. Overall, this was the absolute worst hotel I've ever visited. I wouldn't stay here again if they paid me to. I've been to pay-by-the-hour motels that were 10 times better than this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a single woman who was spending a night alone in the hotel, while my home was being repaired. I was initially given a room in a building that was deserted and seemed extremely unsafe. There were nasty stains all over the walls of the stairway. There was no elevator, so I had to drag my heavy suitcase up the stairs. When I opened the door to the room and entered the restroom, there was a roach on the floor. I walked over the the window shades, and there was another roach and several bugs on the shade. The building seemed creepy, deserted and unsafe. 
+I asked to be moved to another room in the main building. The only good thing about this hotel was the young man at the front desk who helped me. He was extremely professional and helpful. He moved me to another room in the main building without any problems. Again, I had to drag my suitcase up a flight of stairs in this different building, and again, there were gross stains all over the walls of the staircase. The rooms are extremely dated. The furniture is of the lowest quality. I had to shower in my flip flops, because of the condition of the bathtub. Overall, this was the absolute worst hotel I've ever visited. I wouldn't stay here again if they paid me to. I've been to pay-by-the-hour motels that were 10 times...I am a single woman who was spending a night alone in the hotel, while my home was being repaired. I was initially given a room in a building that was deserted and seemed extremely unsafe. There were nasty stains all over the walls of the stairway. There was no elevator, so I had to drag my heavy suitcase up the stairs. When I opened the door to the room and entered the restroom, there was a roach on the floor. I walked over the the window shades, and there was another roach and several bugs on the shade. The building seemed creepy, deserted and unsafe. I asked to be moved to another room in the main building. The only good thing about this hotel was the young man at the front desk who helped me. He was extremely professional and helpful. He moved me to another room in the main building without any problems. Again, I had to drag my suitcase up a flight of stairs in this different building, and again, there were gross stains all over the walls of the staircase. The rooms are extremely dated. The furniture is of the lowest quality. I had to shower in my flip flops, because of the condition of the bathtub. Overall, this was the absolute worst hotel I've ever visited. I wouldn't stay here again if they paid me to. I've been to pay-by-the-hour motels that were 10 times better than this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r226366879-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226366879</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent price for the location</t>
+  </si>
+  <si>
+    <t>My Son-in-Law arranged for 2 rooms to accomodate 4 adults attending LSU vs. Wisconsin football game.   Prior poor reviews for this property caused some apprehension.  However,  because of short walking distance to NRG Stadium and attractive rate, we took the plunge.  No regrets.  Found rooms very clean, with functioning microwave and small refrigerator.  Complimentary breakfast included sausage, bacon, eggs, make your own waffles in the shape of Texas, pastries, muffins, bread, rolls, yogurt, coffee, milk and juice.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r224925173-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -909,9 +1384,6 @@
     <t>The grounds and room were clean and tidy and the room was adequate and convenient for our stay visiting a friend in a medical facility. Plenty of clean, fluffy towels and a comfortable room with a flat screen TV, coffee pot, microwave, mini fridge and toiletries.  The breakfast room was very busy, but there was overflow seating across the hall. The breakfast was very basic. There's also a restaurant with takeout just outside the property. WiFi available in the lobby as well as 2 terminals for internet searching and printing boarding passes. For as full as the hotel was, there was plenty of parking. Easy access to the highway and lots of restaurants in the area. Houston in August is hot and humid, but the air conditioning was powerful and no bugs were encountered; a faint odor of bug spray was evident throughout the property.  Having lived in Houston, we know that's a necessary evil!MoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>The grounds and room were clean and tidy and the room was adequate and convenient for our stay visiting a friend in a medical facility. Plenty of clean, fluffy towels and a comfortable room with a flat screen TV, coffee pot, microwave, mini fridge and toiletries.  The breakfast room was very busy, but there was overflow seating across the hall. The breakfast was very basic. There's also a restaurant with takeout just outside the property. WiFi available in the lobby as well as 2 terminals for internet searching and printing boarding passes. For as full as the hotel was, there was plenty of parking. Easy access to the highway and lots of restaurants in the area. Houston in August is hot and humid, but the air conditioning was powerful and no bugs were encountered; a faint odor of bug spray was evident throughout the property.  Having lived in Houston, we know that's a necessary evil!More</t>
   </si>
   <si>
@@ -949,6 +1421,42 @@
   </si>
   <si>
     <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r200290675-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200290675</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Close to the Houston Livestock Show and Rodeo</t>
+  </si>
+  <si>
+    <t>We had four rooms for three nights during the Livestock Show and Rodeo. This hotel is very close to all the activities but too far to walk and the shuttle doesnt take you to that area.They also rent out parking for the Show which makes it hard for the Hotel guest to find parking places. This is a very old hotel in need of updates.Our stay wasnt bad but we spent most of our time away from the rooms. Pool and Hot tub were very dirty but again it was March. I think we would stay here again next year just because of the location but for the price we paid we might try the one next door which looks so much nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We had four rooms for three nights during the Livestock Show and Rodeo. This hotel is very close to all the activities but too far to walk and the shuttle doesnt take you to that area.They also rent out parking for the Show which makes it hard for the Hotel guest to find parking places. This is a very old hotel in need of updates.Our stay wasnt bad but we spent most of our time away from the rooms. Pool and Hot tub were very dirty but again it was March. I think we would stay here again next year just because of the location but for the price we paid we might try the one next door which looks so much nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r198849543-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198849543</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair on towels, bathroom was just wiped down obviously, I didn't walk on the floor in my bare feet. Breakfast was crowded, and missing many items. Beds were comfortable and check-in and out weren't a problem. We did leave a day early due to the quality. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r195560031-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -1013,6 +1521,45 @@
 Needless to say by the time I got back to the front desk AGAIN with my non-working keys I was beyond pissed.  The desk clerk looked at me like I was crazy and didn't know what I was talking about.  He offered to move us AGAIN but by that...My daughter and I stayed at this hotel this past weekend and our stay was beyond AWFUL!!!First we were assigned to Room 206.  I've attached a picture of the showerhead in that room.  It's beyond gross!!!  Plus the room just had a funny smell to it.After several attempts we were finally moved to another room - #152.  We had to leave immediately afterwards for a prior engagement and when we returned neither of the door keys would work.  We walked all the way back to the front desk, had them rescanned and walked all the way back to the room.  Guess what??!!??  They still didn't work!!!  While I was trying the second set of keys the lady across the hallway opened her door and noticing my troubles asked if we had been give that room too.  When I asked what she meant by "too" she said that they had given that room to someone in her group but upon opening the door they saw a bunch of luggage in the room and closed the door.  I told her that was my luggage and I appreciated her telling me this.Needless to say by the time I got back to the front desk AGAIN with my non-working keys I was beyond pissed.  The desk clerk looked at me like I was crazy and didn't know what I was talking about.  He offered to move us AGAIN but by that time we were tired and just wanted to go to sleep.The rooms at this hotel are old and dated.  The bathroom fixtures are horrible and it took a good five minutes for us to get hot water in the bathroom sink.  Overall it was a horrible experience and I will never stay at this hotel again and I would definitely never recommend it to anyone!!I gave it a rating of one only because I can't give a negative number!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r186525805-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186525805</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>No internet and no TV?</t>
+  </si>
+  <si>
+    <t>Been staying here for many years.Internet quit working early Thursday afternoon, and I needed it for business.  Lost an entire day of productivity.  Called multiple times, even to the provider tech guy.  They could never restore it.Okay.  My day/evening is ruined.  I'll just watch TV.  I never watch TV in hotels rooms unless there's a football game on.  I find TV to be a waste of time.  So I push the red button, and the screen displays 'no signal.'  I called, the guy came up to my room and loked at the TV, but could not fix it.I explained all my frustrations, in a nice way, when I checked out.  I asked for an adjustment to my bill.  The gal told me I would have to talk to the manager.  This was unacceptable; the adjustment should have been applied on the spot.  I've encountered this type of situation before in other hotels, and the front desk agent has always made the adjustment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Been staying here for many years.Internet quit working early Thursday afternoon, and I needed it for business.  Lost an entire day of productivity.  Called multiple times, even to the provider tech guy.  They could never restore it.Okay.  My day/evening is ruined.  I'll just watch TV.  I never watch TV in hotels rooms unless there's a football game on.  I find TV to be a waste of time.  So I push the red button, and the screen displays 'no signal.'  I called, the guy came up to my room and loked at the TV, but could not fix it.I explained all my frustrations, in a nice way, when I checked out.  I asked for an adjustment to my bill.  The gal told me I would have to talk to the manager.  This was unacceptable; the adjustment should have been applied on the spot.  I've encountered this type of situation before in other hotels, and the front desk agent has always made the adjustment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r183084366-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183084366</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I have been traveling to MD Anderson as a patient for 7 years now. I will say that Quality Inn Suites Reliant/Medical Center is my most favorite !!!! The staff, especially the manager, Kamil, goes out of their way to accommodate their customers.  They took care of us!!! I have stayed here a few times. The rooms are clean, beds are comfortable, they have excellent shuttle service and always a smile !!!! This will be my new home away from home. GOD BLESS... Thank you QIS staff.. K. Morgan</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r182410258-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1049,9 +1596,6 @@
     <t>If you like to sleep with the cockroaches, this is your place. Both My coworker and I had cockroaches in our rooms. Building is worn and ready for a huge update, maybe even a bulldozer.The prices are outrageous for the "quality" you do not recieve. The people working the counter were not professional, sloppy dressers and seemed very unhappy to be there. I was certainly not asked how my stay was when I checked out. I believe they already know thus the reason they do not ask.I do not have experience with the other hotels in the area but if you are visiting the Reliant Center or dome I would definitely try one of the others.MoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>If you like to sleep with the cockroaches, this is your place. Both My coworker and I had cockroaches in our rooms. Building is worn and ready for a huge update, maybe even a bulldozer.The prices are outrageous for the "quality" you do not recieve. The people working the counter were not professional, sloppy dressers and seemed very unhappy to be there. I was certainly not asked how my stay was when I checked out. I believe they already know thus the reason they do not ask.I do not have experience with the other hotels in the area but if you are visiting the Reliant Center or dome I would definitely try one of the others.More</t>
   </si>
   <si>
@@ -1073,6 +1617,42 @@
     <t>This hotel is conveniently located to the Reliant Center and to I-610. I was pleasantly surprised to find out that they had a shuttle to the Reliant Center. I was not expecting that. The Reliant Center is within walking distance but when it's 95 degrees outside, it's nice to get a ride. Plus it will save you the cost of parking if you take the shuttle. This is a modest hotel  with few bells and whistles but the rooms are clean, the beds are comfortable, the price is good, and you get a continental breakfast with your stay. I would stay here again if I was in Houston for a game at the Reliant Center.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r173546409-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173546409</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>repeat quest and I will be back again!</t>
+  </si>
+  <si>
+    <t>Easy check in - polite staff,  clean rooms that are spacious and well appointed, Great AC's, lovely pool and flexible access times; GREAT breakfast.  The grounds are well kept and parking is a bit tight but adequate.  Safe, well lit parking lot and the rooms and suites are very nice.  Great Value. have a dedicated dog walking area with poop station - AWESOME! Also non-smoking!!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r172302186-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172302186</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Everything was good until ants bit my granddaughter during the night.</t>
+  </si>
+  <si>
+    <t>It's hard to know how to rate this place because it seemed everything was very good or very bad.For starters, the continental breakfast was more than expected and very good.Finding ants crawling on the floor and bed was very bad.  This strike will keep us from coming back.Once in the room, I was pleasantly surprised that the furnishings were nice, including refrigerator and microwave.  This compared to the heavy security doors which were run-down, leading to interior corridors, which were litered (inside) with leaves and debris which appeared to have blown in and not been cleaned up.  Overall, the entrance made me feel uneasy, whether merited or not.One wall of our room was a glass door which looked out on a concrete slab with a tall, formidable wall with a little gravel path, about a foot wide, left where someone could intrude unseen, and where previous guests deposited their cigarette butts....but it also was much cheaper than other choices, so maybe we got what we paid for?MoreShow less</t>
+  </si>
+  <si>
+    <t>It's hard to know how to rate this place because it seemed everything was very good or very bad.For starters, the continental breakfast was more than expected and very good.Finding ants crawling on the floor and bed was very bad.  This strike will keep us from coming back.Once in the room, I was pleasantly surprised that the furnishings were nice, including refrigerator and microwave.  This compared to the heavy security doors which were run-down, leading to interior corridors, which were litered (inside) with leaves and debris which appeared to have blown in and not been cleaned up.  Overall, the entrance made me feel uneasy, whether merited or not.One wall of our room was a glass door which looked out on a concrete slab with a tall, formidable wall with a little gravel path, about a foot wide, left where someone could intrude unseen, and where previous guests deposited their cigarette butts....but it also was much cheaper than other choices, so maybe we got what we paid for?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r170783520-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1118,7 +1698,37 @@
     <t>I am staying here right now.  There are two pieces of cardio equipment in the "gym" and neither one of them work.  Their "shuttle" left me stranded at a restaurant and I had to walk through a bad neighborhood to get back to the hotel.  I just returned from a day out at 3:00 p.m. and my room hasn't been cleaned yet.  It's smelly here like they're trying to cover up something nasty with too much air freshener.  I've never written a bad review of a hotel before but this place is just nasty.</t>
   </si>
   <si>
-    <t>July 2013</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r166159711-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166159711</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>My stay in Quality Inn &amp; Suites Reliant Park / Med Ctr</t>
+  </si>
+  <si>
+    <t>I spent two nights in this hotel, service was good, instalations are a little old but well attended, even this is a regular chain hotel aside the avenue its location is fantastic for visiting the Reliant or de Med. Ctr.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r165529005-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165529005</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Very dirty</t>
+  </si>
+  <si>
+    <t>The hotel was dirty and old.  Halls were in bad need of cleaning.  Liter in the stair case.  the breakfast offering wasn't as good as most of the CH's that I stay in.  Won't stay there again. I don't know what else I can say.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r165471114-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -1146,9 +1756,6 @@
   </si>
   <si>
     <t>My family stayed for almost a week in this hotel. Rate is very reasonable but the front desk service is not that good. As I arrived to check-in, a customer was complaining about the clogged toilet and was requesting that a plunger be sent to his room. The hotel employee told the customer that he's by himself at that time and no one would be able to bring the plunger. After two days of stay, I had a similar problem Called up the front desk if there's an available plunger and was told by the employee that he will bring it to the room. Waited for several hours, no one came. Made a phone call and offered that I pick it up myself even though it would look awkward because we were staying at building "D." But I don't mind doing it since the plunger is needed so badly. Again the employee offered to bring it himself. Waited again for a couple of hours and no one showed up with a plunger. In the hallway, there are cobwebs in the ceiling and a cockroach by the wall.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2013</t>
   </si>
   <si>
     <t>My family stayed for almost a week in this hotel. Rate is very reasonable but the front desk service is not that good. As I arrived to check-in, a customer was complaining about the clogged toilet and was requesting that a plunger be sent to his room. The hotel employee told the customer that he's by himself at that time and no one would be able to bring the plunger. After two days of stay, I had a similar problem Called up the front desk if there's an available plunger and was told by the employee that he will bring it to the room. Waited for several hours, no one came. Made a phone call and offered that I pick it up myself even though it would look awkward because we were staying at building "D." But I don't mind doing it since the plunger is needed so badly. Again the employee offered to bring it himself. Waited again for a couple of hours and no one showed up with a plunger. In the hallway, there are cobwebs in the ceiling and a cockroach by the wall.More</t>
@@ -1177,6 +1784,36 @@
 Checking out the next morning I was not asked the normal question "How was your stay", or even got a smile from...Attending MD Anderson, and taking advantage of a Choice Hotels "Stay 2 times, get a 50$ gift card" offer I canceled my reservation at the Mainstay Suites, and stayed at this Quality Inn.   People would never believe these belong to the same chain.After arriving I tried to get on their WiFi, but could not get to their service providers "accept" screen.   I called the front desk, and she had a representative of their service provider call me to help me log in.  She said she had someone else with the same problem. I soon received a call from their provider, and it was obvious they were talking over a very poor quality computer system, and was in India.   The lady I was talking with could hardly be understood from her strong accent, and breaking up phone line.   She said she would contact me back, and I never again heard from her.   Wanting to verify it was not my problem I took my laptop to McDonald's, and was able to connect there fine.Checking out the mattress it was very marginal, and in need of replacement.   The room was clean, and had a very strong Lysol, or some other cleaner odor.   The bathroom was clean, and the 1 1/2" cockroach that ran across the floor was easily seen.Checking out the next morning I was not asked the normal question "How was your stay", or even got a smile from the young lady at the desk.   She probably is afraid to ask guests.I am booked again next month at this facility, but I will be canceling it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r165124593-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165124593</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Good for a reasonable price</t>
+  </si>
+  <si>
+    <t>This hotel is good for a reasonable price. It is very close to the Reliant Park, you can go walking. If you don´t have a car will take you 20 or 30 minutes find a good place.  I think the staff should be more kind and to inform the hotel has a shuttle to the Medical Center that is near the District Museum. Breakfast is good and maybe the rooms should be a little bit more clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r164831950-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164831950</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Stayed overnight prior to surgery at Texas Orthapedic Hospital.  Reasonable prices and convenient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is very easy to access off of I610.   The medical centers of Houston are a short drive.  It is not a new facility but was clean and I would stay there again.   Very good equipment in the fitness center.  Beds were average.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r164203434-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1874,39 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r157976432-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157976432</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Happy returning guest</t>
+  </si>
+  <si>
+    <t>My family has stayed here four times since February and we could not have asked for a friendlier staff that was more then accommodating for us. We will be returning every two weeks and we make sure that we have our reservations set so we won't have to stay at another hotel-which we had unfortunatly stayed at another one near by. This place has quickly become our second home while in Houston. The rooms are clean, the shuttle drivers are always cheerful and patient with the guest. The breakfast is always fresh, and the eating area is neat and clean. The location of the hotel is also within walking distance to the stadium, restaurants and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>My family has stayed here four times since February and we could not have asked for a friendlier staff that was more then accommodating for us. We will be returning every two weeks and we make sure that we have our reservations set so we won't have to stay at another hotel-which we had unfortunatly stayed at another one near by. This place has quickly become our second home while in Houston. The rooms are clean, the shuttle drivers are always cheerful and patient with the guest. The breakfast is always fresh, and the eating area is neat and clean. The location of the hotel is also within walking distance to the stadium, restaurants and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r157946090-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157946090</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>This was, by far, the best Quality Inn I have ever stayed at. It was clean, we had a double room (suite - type setup) without even asking and it was only about $85 to stay! Breakfast was great and I really liked the Texas shaped waffles. The breakfast staff was very helpful and even made our waffles for us. It was a great experience.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r155245947-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1270,9 +1940,6 @@
     <t>My husband &amp; I have stayed at this hotel in the past and each time it is a great experience.  The beds are very comfortable and the staff was great.  We will definitely stay at this hotel in the future when needed!</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r155117607-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1958,36 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r155100355-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155100355</t>
+  </si>
+  <si>
+    <t>Comfy beds for the rodeo</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn during the rodeo. The beds were excellent. Even though the motel was booked, the rooms were quiet. We were able to walk to the Rodeo and we even got a ride over in the van as well. The breakfast area could be a little larger as there was not enough room and we had to eat in our room, but the overall experience was great. We stayed at the Crowne Plaza at a later date and the beds were not near as comfortable as at the Quality Inn. The staff was friendly and even let us check in thirty minutes early. We will definately stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn during the rodeo. The beds were excellent. Even though the motel was booked, the rooms were quiet. We were able to walk to the Rodeo and we even got a ride over in the van as well. The breakfast area could be a little larger as there was not enough room and we had to eat in our room, but the overall experience was great. We stayed at the Crowne Plaza at a later date and the beds were not near as comfortable as at the Quality Inn. The staff was friendly and even let us check in thirty minutes early. We will definately stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r154988016-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154988016</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Houston Livestock Show</t>
+  </si>
+  <si>
+    <t>We have stayed at the Quality Inn once before. We were very happy with our stay, it was within walking distance of the Reliant Center. They had a very friendly staff, clean rooms and a great breakfast!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r154402122-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +2031,36 @@
   </si>
   <si>
     <t>It is an older property but they keep it clean.They have recently repaced the carpet and are in the middle of replacing all the TV's. They can service the Medical Center from their location with their van. I use them to house my cookin team for the Houston BBQ</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r153404027-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153404027</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Sad experience</t>
+  </si>
+  <si>
+    <t>We chose this place based on the web page presentation. We were disappointed.  The first room did not smell right.  A second room was given to us, but it was not very good.  We thought about staying a couple nights there but changed our minds and left the next morning.  Will not stay in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r151890617-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151890617</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Clean Room, LOCATION, LOCATION, LOCATION!</t>
+  </si>
+  <si>
+    <t>Clean rooms and so convenient to the Reliant Center. Breakfast attendant was very pleasant. The bathrooms smelled strongly of bleach. The housekeeper w/ buggy in tow knocked on our door at 10am the morning of our checkout to confirm that we would be leaving. The front desk staff did an okay job seeing as renovations were going on. The Front Desk staff needs some polishing. Overall I will stay again, because of the clean room, hot breakfast, and location. Love the new carpet, great choice.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r150983176-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -1400,6 +2127,48 @@
   </si>
   <si>
     <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r116600280-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116600280</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>Could do better for the price</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because the rate was reasonable and the location was good, but it was not good value for money. The hotel was clean (including my room), but the pool and the area around it were filthy. Breakfast was average. The furnishings are rather worn, the external doors do not seem to lock as they are supposed to and nothing appeared to be maintained. The staff were not helpful and the night staff kept me awake during the night by sitting outside my room talking loudly to friends. The hotel was generally noisy with the freeway right outside and no real noise reduction. This is a budget hotel, but they would have to bring their prices down further before I would consider it to be value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because the rate was reasonable and the location was good, but it was not good value for money. The hotel was clean (including my room), but the pool and the area around it were filthy. Breakfast was average. The furnishings are rather worn, the external doors do not seem to lock as they are supposed to and nothing appeared to be maintained. The staff were not helpful and the night staff kept me awake during the night by sitting outside my room talking loudly to friends. The hotel was generally noisy with the freeway right outside and no real noise reduction. This is a budget hotel, but they would have to bring their prices down further before I would consider it to be value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r102994374-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102994374</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>NASTY, NASTY, NASTY.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in Houston TX, hotel code TXC23 for 5 nights, NOT once did anyone clean our room. The first day was our fault because when housekeeping came by at 5:00 pm, we were starting to shower and get ready to go to the final four tournment at Reliant, so I told her everything was ok and just exchanged dirty towels for clean ones. We paid for 5 nights but we left at 8:00 am on Sunday April 3rd and didn't return until Monday April 4th at 5:00. We left our golf bags and most clothes in the hotel room while we were away. When we returned, to my surprise, the room had not been cleaned for the two days we were gone, only they didn't know we were gone. The cost of this filthy hotel, carpets in all halls are nasty, was  $225.00 a night as they raised prices for the Final Four Tournment. You would think if they prepared enough in advance to raise prices and they were sold out, (so the front desk told me 2 weeks prior)...they would be prepared for the full house..The breakfast was always empty but only one person working..the front 1 person was not very friendly, and was never at front desk..always a line waiting. They need to do some checking at this place, before the board of health shuts them down.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in Houston TX, hotel code TXC23 for 5 nights, NOT once did anyone clean our room. The first day was our fault because when housekeeping came by at 5:00 pm, we were starting to shower and get ready to go to the final four tournment at Reliant, so I told her everything was ok and just exchanged dirty towels for clean ones. We paid for 5 nights but we left at 8:00 am on Sunday April 3rd and didn't return until Monday April 4th at 5:00. We left our golf bags and most clothes in the hotel room while we were away. When we returned, to my surprise, the room had not been cleaned for the two days we were gone, only they didn't know we were gone. The cost of this filthy hotel, carpets in all halls are nasty, was  $225.00 a night as they raised prices for the Final Four Tournment. You would think if they prepared enough in advance to raise prices and they were sold out, (so the front desk told me 2 weeks prior)...they would be prepared for the full house..The breakfast was always empty but only one person working..the front 1 person was not very friendly, and was never at front desk..always a line waiting. They need to do some checking at this place, before the board of health shuts them down.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r97767321-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -1495,6 +2264,42 @@
 shuttle only goes to grocery store on Tues.  we arrived on Tues so missed that one.
 wireless internet in room but not high speed (as least while we were there)
 When we go back to Houston again we will find another hotel...It's definitely a budget hotel.  We were in Houston for medical reasons at M D Anderson.  The hotel is doing some remodeling of the rooms and probably will be nicer later.  I'll try to give some of the positive and some of the negative about this hotel.Positives:a clean room that is older (probably nicer after room  remodel completed)if you are going to Reliant Stadium, you could easily walk there and backshuttle to the medical center with very nice drivernice and helpful stafffree parkingcertainly budget frendlyrefrigerater &amp; microwave in roomfree basic cont. breakfast but no fresh fruit or yogurtNegatives:Unless you have a car there is nothing really near this hotel.  Their site says there are 3 restaurants adjacent but that's not really true.  Only one adjacent is Shoney's.  Other 2 are across 3 lane frontage road then 8 lane highway and then 3 more lane frontage road.  It is walkable by going to corner and walking street that goes under all of that and that probably makes the walk around 1/2 mile+.  We could have walked there in daylight but wouldn't wanted to walk back in the dark.  shuttle only goes to grocery store on Tues.  we arrived on Tues so missed that one.wireless internet in room but not high speed (as least while we were there)When we go back to Houston again we will find another hotel to stay at.  When we checked in they bumped us to a suite for the same low price.  Our suite was once two connecting hotel rooms that they took the bedroom furniture out of one and put in livingroom furniture (a couch, 2 chairs, coffee table, and a desk in addition to the tv).  This does give you 2 full bathrooms.  Convenient when any of your part;y isn't feeling well, but I wouldn't pay big bucks for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r38710381-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>38710381</t>
+  </si>
+  <si>
+    <t>08/24/2009</t>
+  </si>
+  <si>
+    <t>Nice rooms!</t>
+  </si>
+  <si>
+    <t>I just stayed here for a wedding that was located in downtown. All the hotels in downtown were wayyy too expensive, so I decided to stay here and I'm so glad I did. THe rooms were really nice and comfortable and it was within my budget! They were clean, well kept, and I had plenty of space, which is exactly what I needed. Also, the hotel was short drive to downtown, so that was convenient for me.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r34886199-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>34886199</t>
+  </si>
+  <si>
+    <t>07/15/2009</t>
+  </si>
+  <si>
+    <t>Cheap and Great Location</t>
+  </si>
+  <si>
+    <t>This hotel was a great location for the concert I was at this weekend. The staff was very friendly and check-in was a breeze. No problems with anything. The best part of this hotel was location so I could walk to the reliant. I would reccommend this hotel. no parking fee was also a great advantage!!</t>
+  </si>
+  <si>
+    <t>July 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223177-r33310039-Quality_Inn_Suites_Reliant_Park_Medical_Center-Houston_Texas.html</t>
@@ -2083,7 +2888,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2140,27 +2945,31 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2176,34 +2985,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2217,7 +3026,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -2254,7 +3063,7 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
@@ -2263,17 +3072,11 @@
         <v>73</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -2323,7 +3126,7 @@
         <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2334,14 +3137,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2357,52 +3156,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
       <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -2418,58 +3223,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
       <c r="O8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2485,48 +3288,54 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -2542,58 +3351,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
         <v>108</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>109</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
         <v>110</v>
       </c>
-      <c r="K10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -2609,52 +3412,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s">
-        <v>121</v>
-      </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -2670,34 +3473,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
         <v>124</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>125</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>126</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>127</v>
       </c>
-      <c r="L12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2708,10 +3511,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2727,7 +3534,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2736,38 +3543,32 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -2811,33 +3612,37 @@
         <v>140</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
         <v>3</v>
       </c>
-      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2853,7 +3658,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2862,45 +3667,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2916,7 +3715,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2925,29 +3724,29 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
         <v>4</v>
@@ -2960,10 +3759,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -2979,7 +3782,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2988,25 +3791,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3020,7 +3823,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -3036,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3045,43 +3848,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>164</v>
-      </c>
-      <c r="O18" t="s">
-        <v>80</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -3097,7 +3892,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3106,32 +3901,30 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
@@ -3144,7 +3937,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -3160,7 +3953,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3169,16 +3962,16 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -3187,7 +3980,7 @@
         <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3201,7 +3994,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -3217,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3226,39 +4019,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
@@ -3274,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3283,25 +4082,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3315,7 +4114,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
@@ -3331,7 +4130,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3340,35 +4139,37 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3376,7 +4177,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -3392,7 +4193,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3401,39 +4202,45 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="s">
-        <v>201</v>
-      </c>
-      <c r="O24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -3449,7 +4256,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3458,37 +4265,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3496,7 +4303,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
@@ -3512,7 +4319,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3521,37 +4328,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3559,7 +4366,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
@@ -3575,7 +4382,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3584,31 +4391,33 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
         <v>73</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3620,7 +4429,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
@@ -3636,7 +4445,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3645,39 +4454,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -3693,7 +4506,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3702,43 +4515,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -3754,7 +4563,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3763,39 +4572,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>110</v>
+      </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>237</v>
-      </c>
-      <c r="X30" t="s">
-        <v>238</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -3811,7 +4624,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3820,39 +4633,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
@@ -3868,7 +4687,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3877,39 +4696,45 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
         <v>248</v>
       </c>
-      <c r="J32" t="s">
-        <v>249</v>
-      </c>
-      <c r="K32" t="s">
-        <v>250</v>
-      </c>
-      <c r="L32" t="s">
-        <v>251</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>252</v>
-      </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -3925,7 +4750,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3934,35 +4759,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -3978,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3987,43 +4820,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -4039,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4048,22 +4877,26 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>271</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
@@ -4076,7 +4909,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36">
@@ -4092,7 +4925,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4101,25 +4934,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>271</v>
       </c>
-      <c r="J36" t="s">
-        <v>272</v>
-      </c>
-      <c r="K36" t="s">
-        <v>273</v>
-      </c>
-      <c r="L36" t="s">
-        <v>274</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s">
-        <v>275</v>
-      </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4170,33 +5003,27 @@
         <v>281</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>2</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
@@ -4212,54 +5039,44 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" t="s">
         <v>284</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>285</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>286</v>
-      </c>
-      <c r="K38" t="s">
-        <v>287</v>
-      </c>
-      <c r="L38" t="s">
-        <v>288</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
-      <c r="N38" t="s">
-        <v>289</v>
-      </c>
-      <c r="O38" t="s">
-        <v>73</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -4275,43 +5092,41 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" t="s">
+        <v>289</v>
+      </c>
+      <c r="K39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L39" t="s">
         <v>291</v>
-      </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
-        <v>292</v>
-      </c>
-      <c r="J39" t="s">
-        <v>293</v>
-      </c>
-      <c r="K39" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" t="s">
-        <v>295</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>1</v>
@@ -4322,7 +5137,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40">
@@ -4338,58 +5153,48 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" t="s">
         <v>297</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>298</v>
       </c>
-      <c r="J40" t="s">
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
         <v>299</v>
       </c>
-      <c r="K40" t="s">
-        <v>300</v>
-      </c>
-      <c r="L40" t="s">
-        <v>301</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>302</v>
-      </c>
       <c r="O40" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41">
@@ -4405,42 +5210,46 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" t="s">
         <v>303</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>304</v>
-      </c>
-      <c r="J41" t="s">
-        <v>305</v>
-      </c>
-      <c r="K41" t="s">
-        <v>306</v>
-      </c>
-      <c r="L41" t="s">
-        <v>307</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="O41" t="s">
         <v>73</v>
       </c>
-      <c r="P41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4448,7 +5257,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42">
@@ -4464,58 +5273,48 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
         <v>309</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>310</v>
-      </c>
-      <c r="J42" t="s">
-        <v>311</v>
-      </c>
-      <c r="K42" t="s">
-        <v>312</v>
-      </c>
-      <c r="L42" t="s">
-        <v>313</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>308</v>
       </c>
       <c r="O42" t="s">
         <v>73</v>
       </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
@@ -4531,58 +5330,48 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" t="s">
+        <v>314</v>
+      </c>
+      <c r="K43" t="s">
         <v>315</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>316</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
         <v>317</v>
       </c>
-      <c r="K43" t="s">
-        <v>318</v>
-      </c>
-      <c r="L43" t="s">
-        <v>319</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>308</v>
-      </c>
       <c r="O43" t="s">
-        <v>60</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44">
@@ -4598,50 +5387,46 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
         <v>321</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>322</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>323</v>
       </c>
-      <c r="K44" t="s">
-        <v>324</v>
-      </c>
-      <c r="L44" t="s">
-        <v>325</v>
-      </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4649,7 +5434,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45">
@@ -4665,50 +5450,44 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s">
         <v>328</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>329</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>330</v>
       </c>
-      <c r="K45" t="s">
-        <v>331</v>
-      </c>
-      <c r="L45" t="s">
-        <v>332</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" t="s">
-        <v>333</v>
-      </c>
       <c r="O45" t="s">
-        <v>73</v>
-      </c>
-      <c r="P45" t="n">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4716,7 +5495,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46">
@@ -4732,58 +5511,48 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L46" t="s">
         <v>335</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
-        <v>336</v>
-      </c>
-      <c r="J46" t="s">
-        <v>337</v>
-      </c>
-      <c r="K46" t="s">
-        <v>338</v>
-      </c>
-      <c r="L46" t="s">
-        <v>339</v>
-      </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47">
@@ -4799,46 +5568,44 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>337</v>
+      </c>
+      <c r="J47" t="s">
+        <v>338</v>
+      </c>
+      <c r="K47" t="s">
+        <v>339</v>
+      </c>
+      <c r="L47" t="s">
+        <v>340</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
         <v>341</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
-        <v>342</v>
-      </c>
-      <c r="J47" t="s">
-        <v>343</v>
-      </c>
-      <c r="K47" t="s">
-        <v>344</v>
-      </c>
-      <c r="L47" t="s">
-        <v>345</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
+      <c r="O47" t="s">
+        <v>110</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4846,7 +5613,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48">
@@ -4862,43 +5629,43 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>343</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>344</v>
+      </c>
+      <c r="J48" t="s">
+        <v>345</v>
+      </c>
+      <c r="K48" t="s">
         <v>346</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="L48" t="s">
         <v>347</v>
       </c>
-      <c r="J48" t="s">
-        <v>348</v>
-      </c>
-      <c r="K48" t="s">
-        <v>349</v>
-      </c>
-      <c r="L48" t="s">
-        <v>350</v>
-      </c>
       <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s">
+        <v>73</v>
+      </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4909,7 +5676,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49">
@@ -4925,50 +5692,44 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
         <v>351</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>352</v>
       </c>
-      <c r="J49" t="s">
-        <v>353</v>
-      </c>
-      <c r="K49" t="s">
-        <v>354</v>
-      </c>
-      <c r="L49" t="s">
-        <v>355</v>
-      </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
       </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4976,7 +5737,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50">
@@ -4992,52 +5753,46 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>355</v>
+      </c>
+      <c r="J50" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s">
         <v>357</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="L50" t="s">
         <v>358</v>
       </c>
-      <c r="J50" t="s">
-        <v>359</v>
-      </c>
-      <c r="K50" t="s">
-        <v>360</v>
-      </c>
-      <c r="L50" t="s">
-        <v>361</v>
-      </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s"/>
       <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>3</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>359</v>
+      </c>
+      <c r="X50" t="s">
+        <v>360</v>
+      </c>
       <c r="Y50" t="s">
         <v>361</v>
       </c>
@@ -5067,46 +5822,36 @@
         <v>363</v>
       </c>
       <c r="J51" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K51" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5867,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5131,41 +5876,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J52" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="K52" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2</v>
-      </c>
-      <c r="R52" t="n">
         <v>3</v>
       </c>
-      <c r="S52" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5173,7 +5912,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53">
@@ -5189,7 +5928,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5198,41 +5937,37 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J53" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K53" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5240,7 +5975,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54">
@@ -5256,7 +5991,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5265,49 +6000,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J54" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O54" t="s">
-        <v>98</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55">
@@ -5323,7 +6048,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5332,49 +6057,35 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J55" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
-        <v>390</v>
-      </c>
-      <c r="O55" t="s">
-        <v>60</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56">
@@ -5390,7 +6101,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5399,37 +6110,35 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J56" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K56" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>398</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5437,7 +6146,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57">
@@ -5453,7 +6162,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5462,41 +6171,37 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J57" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K57" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5504,7 +6209,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58">
@@ -5520,7 +6225,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5529,41 +6234,37 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
+        <v>406</v>
+      </c>
+      <c r="J58" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" t="s">
+        <v>408</v>
+      </c>
+      <c r="L58" t="s">
+        <v>409</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>404</v>
       </c>
-      <c r="J58" t="s">
-        <v>405</v>
-      </c>
-      <c r="K58" t="s">
-        <v>406</v>
-      </c>
-      <c r="L58" t="s">
-        <v>407</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>408</v>
-      </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5571,7 +6272,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59">
@@ -5587,7 +6288,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5596,47 +6297,35 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>402</v>
-      </c>
-      <c r="O59" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>4</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60">
@@ -5652,7 +6341,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5661,49 +6350,39 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J60" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="O60" t="s">
-        <v>80</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61">
@@ -5719,7 +6398,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5728,41 +6407,37 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J61" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K61" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L61" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="O61" t="s">
         <v>73</v>
       </c>
       <c r="P61" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5770,7 +6445,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62">
@@ -5786,7 +6461,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5795,41 +6470,37 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J62" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K62" t="s">
+        <v>432</v>
+      </c>
+      <c r="L62" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
         <v>427</v>
       </c>
-      <c r="L62" t="s">
-        <v>428</v>
-      </c>
-      <c r="M62" t="n">
-        <v>3</v>
-      </c>
-      <c r="N62" t="s">
-        <v>429</v>
-      </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q62" t="s"/>
       <c r="R62" t="n">
-        <v>2</v>
-      </c>
-      <c r="S62" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -5837,7 +6508,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63">
@@ -5853,7 +6524,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5862,41 +6533,35 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="J63" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K63" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L63" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
       <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -5904,7 +6569,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64">
@@ -5920,7 +6585,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5929,30 +6594,30 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J64" t="s">
+        <v>443</v>
+      </c>
+      <c r="K64" t="s">
+        <v>444</v>
+      </c>
+      <c r="L64" t="s">
+        <v>445</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
         <v>440</v>
       </c>
-      <c r="K64" t="s">
-        <v>441</v>
-      </c>
-      <c r="L64" t="s">
-        <v>442</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s">
-        <v>443</v>
-      </c>
       <c r="O64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q64" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
       <c r="R64" t="s"/>
       <c r="S64" t="n">
         <v>4</v>
@@ -5967,7 +6632,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65">
@@ -5983,7 +6648,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -5992,41 +6657,37 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J65" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K65" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L65" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s">
         <v>73</v>
       </c>
       <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>3</v>
-      </c>
-      <c r="R65" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -6034,7 +6695,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66">
@@ -6050,7 +6711,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6059,41 +6720,41 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J66" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K66" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>458</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
         <v>3</v>
-      </c>
-      <c r="N66" t="s">
-        <v>456</v>
-      </c>
-      <c r="O66" t="s">
-        <v>60</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>3</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2</v>
-      </c>
-      <c r="S66" t="n">
-        <v>2</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6117,7 +6778,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6126,41 +6787,41 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J67" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K67" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6168,7 +6829,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68">
@@ -6184,7 +6845,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6193,26 +6854,22 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
-      </c>
-      <c r="N68" t="s">
-        <v>470</v>
-      </c>
-      <c r="O68" t="s">
-        <v>73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
       <c r="R68" t="s"/>
@@ -6225,7 +6882,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69">
@@ -6262,29 +6919,21 @@
         <v>475</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N69" t="s">
         <v>476</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
-      </c>
-      <c r="P69" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6329,29 +6978,29 @@
         <v>481</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="O70" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R70" t="n">
         <v>5</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -6359,7 +7008,3031 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>483</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>484</v>
+      </c>
+      <c r="J71" t="s">
+        <v>485</v>
+      </c>
+      <c r="K71" t="s">
+        <v>486</v>
+      </c>
+      <c r="L71" t="s">
+        <v>487</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>476</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>490</v>
+      </c>
+      <c r="J72" t="s">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s">
+        <v>492</v>
+      </c>
+      <c r="L72" t="s">
+        <v>493</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>496</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>497</v>
+      </c>
+      <c r="J73" t="s">
+        <v>498</v>
+      </c>
+      <c r="K73" t="s">
+        <v>499</v>
+      </c>
+      <c r="L73" t="s">
+        <v>500</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>501</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>502</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>503</v>
+      </c>
+      <c r="J74" t="s">
+        <v>504</v>
+      </c>
+      <c r="K74" t="s">
+        <v>505</v>
+      </c>
+      <c r="L74" t="s">
+        <v>506</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>507</v>
+      </c>
+      <c r="O74" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>509</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>510</v>
+      </c>
+      <c r="J75" t="s">
+        <v>511</v>
+      </c>
+      <c r="K75" t="s">
+        <v>512</v>
+      </c>
+      <c r="L75" t="s">
+        <v>513</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>501</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>515</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>516</v>
+      </c>
+      <c r="J76" t="s">
+        <v>517</v>
+      </c>
+      <c r="K76" t="s">
+        <v>518</v>
+      </c>
+      <c r="L76" t="s">
+        <v>519</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>507</v>
+      </c>
+      <c r="O76" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>521</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>522</v>
+      </c>
+      <c r="J77" t="s">
+        <v>523</v>
+      </c>
+      <c r="K77" t="s">
+        <v>524</v>
+      </c>
+      <c r="L77" t="s">
+        <v>525</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>526</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>527</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>528</v>
+      </c>
+      <c r="J78" t="s">
+        <v>529</v>
+      </c>
+      <c r="K78" t="s">
+        <v>530</v>
+      </c>
+      <c r="L78" t="s">
+        <v>531</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>533</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>534</v>
+      </c>
+      <c r="J79" t="s">
+        <v>535</v>
+      </c>
+      <c r="K79" t="s">
+        <v>536</v>
+      </c>
+      <c r="L79" t="s">
+        <v>537</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>538</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>539</v>
+      </c>
+      <c r="J80" t="s">
+        <v>540</v>
+      </c>
+      <c r="K80" t="s">
+        <v>541</v>
+      </c>
+      <c r="L80" t="s">
+        <v>542</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>543</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>544</v>
+      </c>
+      <c r="J81" t="s">
+        <v>545</v>
+      </c>
+      <c r="K81" t="s">
+        <v>546</v>
+      </c>
+      <c r="L81" t="s">
+        <v>547</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>526</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>548</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>549</v>
+      </c>
+      <c r="J82" t="s">
+        <v>550</v>
+      </c>
+      <c r="K82" t="s">
+        <v>551</v>
+      </c>
+      <c r="L82" t="s">
+        <v>552</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>553</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>554</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>555</v>
+      </c>
+      <c r="J83" t="s">
+        <v>556</v>
+      </c>
+      <c r="K83" t="s">
+        <v>557</v>
+      </c>
+      <c r="L83" t="s">
+        <v>558</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>559</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>560</v>
+      </c>
+      <c r="J84" t="s">
+        <v>561</v>
+      </c>
+      <c r="K84" t="s">
+        <v>562</v>
+      </c>
+      <c r="L84" t="s">
+        <v>563</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>564</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>565</v>
+      </c>
+      <c r="J85" t="s">
+        <v>561</v>
+      </c>
+      <c r="K85" t="s">
+        <v>566</v>
+      </c>
+      <c r="L85" t="s">
+        <v>567</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>553</v>
+      </c>
+      <c r="O85" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>569</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>570</v>
+      </c>
+      <c r="J86" t="s">
+        <v>561</v>
+      </c>
+      <c r="K86" t="s">
+        <v>571</v>
+      </c>
+      <c r="L86" t="s">
+        <v>572</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>553</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>574</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>575</v>
+      </c>
+      <c r="J87" t="s">
+        <v>576</v>
+      </c>
+      <c r="K87" t="s">
+        <v>577</v>
+      </c>
+      <c r="L87" t="s">
+        <v>578</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>553</v>
+      </c>
+      <c r="O87" t="s">
+        <v>110</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>579</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>580</v>
+      </c>
+      <c r="J88" t="s">
+        <v>581</v>
+      </c>
+      <c r="K88" t="s">
+        <v>582</v>
+      </c>
+      <c r="L88" t="s">
+        <v>583</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>584</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>585</v>
+      </c>
+      <c r="J89" t="s">
+        <v>586</v>
+      </c>
+      <c r="K89" t="s">
+        <v>587</v>
+      </c>
+      <c r="L89" t="s">
+        <v>588</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>553</v>
+      </c>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>590</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>591</v>
+      </c>
+      <c r="J90" t="s">
+        <v>592</v>
+      </c>
+      <c r="K90" t="s">
+        <v>593</v>
+      </c>
+      <c r="L90" t="s">
+        <v>594</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>595</v>
+      </c>
+      <c r="O90" t="s">
+        <v>142</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>596</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>597</v>
+      </c>
+      <c r="J91" t="s">
+        <v>598</v>
+      </c>
+      <c r="K91" t="s">
+        <v>599</v>
+      </c>
+      <c r="L91" t="s">
+        <v>600</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>601</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>602</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>603</v>
+      </c>
+      <c r="J92" t="s">
+        <v>604</v>
+      </c>
+      <c r="K92" t="s">
+        <v>605</v>
+      </c>
+      <c r="L92" t="s">
+        <v>606</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>607</v>
+      </c>
+      <c r="O92" t="s">
+        <v>73</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>609</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>610</v>
+      </c>
+      <c r="J93" t="s">
+        <v>604</v>
+      </c>
+      <c r="K93" t="s">
+        <v>611</v>
+      </c>
+      <c r="L93" t="s">
+        <v>612</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>601</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>613</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>614</v>
+      </c>
+      <c r="J94" t="s">
+        <v>615</v>
+      </c>
+      <c r="K94" t="s">
+        <v>616</v>
+      </c>
+      <c r="L94" t="s">
+        <v>617</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>619</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>620</v>
+      </c>
+      <c r="J95" t="s">
+        <v>621</v>
+      </c>
+      <c r="K95" t="s">
+        <v>622</v>
+      </c>
+      <c r="L95" t="s">
+        <v>623</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>607</v>
+      </c>
+      <c r="O95" t="s">
+        <v>73</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>624</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>625</v>
+      </c>
+      <c r="J96" t="s">
+        <v>626</v>
+      </c>
+      <c r="K96" t="s">
+        <v>627</v>
+      </c>
+      <c r="L96" t="s">
+        <v>628</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>629</v>
+      </c>
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>630</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>631</v>
+      </c>
+      <c r="J97" t="s">
+        <v>626</v>
+      </c>
+      <c r="K97" t="s">
+        <v>632</v>
+      </c>
+      <c r="L97" t="s">
+        <v>633</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>607</v>
+      </c>
+      <c r="O97" t="s">
+        <v>73</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>635</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>636</v>
+      </c>
+      <c r="J98" t="s">
+        <v>637</v>
+      </c>
+      <c r="K98" t="s">
+        <v>638</v>
+      </c>
+      <c r="L98" t="s">
+        <v>639</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>607</v>
+      </c>
+      <c r="O98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>640</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>641</v>
+      </c>
+      <c r="J99" t="s">
+        <v>642</v>
+      </c>
+      <c r="K99" t="s">
+        <v>643</v>
+      </c>
+      <c r="L99" t="s">
+        <v>644</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>607</v>
+      </c>
+      <c r="O99" t="s">
+        <v>66</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>645</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>646</v>
+      </c>
+      <c r="J100" t="s">
+        <v>647</v>
+      </c>
+      <c r="K100" t="s">
+        <v>648</v>
+      </c>
+      <c r="L100" t="s">
+        <v>649</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>607</v>
+      </c>
+      <c r="O100" t="s">
+        <v>110</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>650</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>651</v>
+      </c>
+      <c r="J101" t="s">
+        <v>652</v>
+      </c>
+      <c r="K101" t="s">
+        <v>653</v>
+      </c>
+      <c r="L101" t="s">
+        <v>654</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>629</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>655</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>656</v>
+      </c>
+      <c r="J102" t="s">
+        <v>657</v>
+      </c>
+      <c r="K102" t="s">
+        <v>658</v>
+      </c>
+      <c r="L102" t="s">
+        <v>659</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>629</v>
+      </c>
+      <c r="O102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>660</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>661</v>
+      </c>
+      <c r="J103" t="s">
+        <v>662</v>
+      </c>
+      <c r="K103" t="s">
+        <v>663</v>
+      </c>
+      <c r="L103" t="s">
+        <v>664</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>629</v>
+      </c>
+      <c r="O103" t="s">
+        <v>142</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>665</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>666</v>
+      </c>
+      <c r="J104" t="s">
+        <v>667</v>
+      </c>
+      <c r="K104" t="s">
+        <v>668</v>
+      </c>
+      <c r="L104" t="s">
+        <v>669</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>670</v>
+      </c>
+      <c r="O104" t="s">
+        <v>73</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>672</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>673</v>
+      </c>
+      <c r="J105" t="s">
+        <v>674</v>
+      </c>
+      <c r="K105" t="s">
+        <v>675</v>
+      </c>
+      <c r="L105" t="s">
+        <v>676</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>677</v>
+      </c>
+      <c r="O105" t="s">
+        <v>73</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>679</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>680</v>
+      </c>
+      <c r="J106" t="s">
+        <v>681</v>
+      </c>
+      <c r="K106" t="s">
+        <v>682</v>
+      </c>
+      <c r="L106" t="s">
+        <v>683</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>684</v>
+      </c>
+      <c r="O106" t="s">
+        <v>73</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>685</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>686</v>
+      </c>
+      <c r="J107" t="s">
+        <v>687</v>
+      </c>
+      <c r="K107" t="s">
+        <v>688</v>
+      </c>
+      <c r="L107" t="s">
+        <v>689</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s">
+        <v>690</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>692</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>693</v>
+      </c>
+      <c r="J108" t="s">
+        <v>694</v>
+      </c>
+      <c r="K108" t="s">
+        <v>695</v>
+      </c>
+      <c r="L108" t="s">
+        <v>696</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>697</v>
+      </c>
+      <c r="O108" t="s">
+        <v>110</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>699</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>700</v>
+      </c>
+      <c r="J109" t="s">
+        <v>701</v>
+      </c>
+      <c r="K109" t="s">
+        <v>702</v>
+      </c>
+      <c r="L109" t="s">
+        <v>703</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>704</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>706</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>707</v>
+      </c>
+      <c r="J110" t="s">
+        <v>708</v>
+      </c>
+      <c r="K110" t="s">
+        <v>709</v>
+      </c>
+      <c r="L110" t="s">
+        <v>710</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>711</v>
+      </c>
+      <c r="O110" t="s">
+        <v>73</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>713</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>714</v>
+      </c>
+      <c r="J111" t="s">
+        <v>715</v>
+      </c>
+      <c r="K111" t="s">
+        <v>716</v>
+      </c>
+      <c r="L111" t="s">
+        <v>717</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s">
+        <v>718</v>
+      </c>
+      <c r="O111" t="s">
+        <v>73</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>720</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>721</v>
+      </c>
+      <c r="J112" t="s">
+        <v>722</v>
+      </c>
+      <c r="K112" t="s">
+        <v>723</v>
+      </c>
+      <c r="L112" t="s">
+        <v>724</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>725</v>
+      </c>
+      <c r="O112" t="s">
+        <v>66</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>726</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>727</v>
+      </c>
+      <c r="J113" t="s">
+        <v>728</v>
+      </c>
+      <c r="K113" t="s">
+        <v>729</v>
+      </c>
+      <c r="L113" t="s">
+        <v>730</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>731</v>
+      </c>
+      <c r="O113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>732</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>733</v>
+      </c>
+      <c r="J114" t="s">
+        <v>734</v>
+      </c>
+      <c r="K114" t="s">
+        <v>735</v>
+      </c>
+      <c r="L114" t="s">
+        <v>736</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>737</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>738</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>739</v>
+      </c>
+      <c r="J115" t="s">
+        <v>740</v>
+      </c>
+      <c r="K115" t="s">
+        <v>741</v>
+      </c>
+      <c r="L115" t="s">
+        <v>742</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>743</v>
+      </c>
+      <c r="O115" t="s">
+        <v>73</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>17067</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>744</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>745</v>
+      </c>
+      <c r="J116" t="s">
+        <v>746</v>
+      </c>
+      <c r="K116" t="s">
+        <v>747</v>
+      </c>
+      <c r="L116" t="s">
+        <v>748</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s">
+        <v>749</v>
+      </c>
+      <c r="O116" t="s">
+        <v>110</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>4</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
